--- a/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.vincent\Documents\siif\20181016\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.vincent\Documents\siif\20181018\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
-    <sheet name="Information on sensitive area" sheetId="1" r:id="rId1"/>
-    <sheet name="Glossary" sheetId="17" r:id="rId2"/>
+    <sheet name="Glossary" sheetId="17" r:id="rId1"/>
+    <sheet name="Information on sensitive area" sheetId="1" r:id="rId2"/>
     <sheet name="UWWTP Level" sheetId="2" r:id="rId3"/>
     <sheet name="agglomeration level" sheetId="3" r:id="rId4"/>
     <sheet name="Summary_legal_compliance" sheetId="4" r:id="rId5"/>
@@ -33,8 +33,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'agglomeration level'!$A$4:$CV$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Agglomerationout!$A$5:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">breach_list!$B$7:$N$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Glossary!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Information on sensitive area'!$A$5:$AR$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Glossary!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Information on sensitive area'!$A$5:$AR$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'New agglomerations'!$A$5:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'New treatment plants'!$A$4:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Nuts2_level analyse'!$A$4:$AC$4</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="540">
   <si>
     <t>Sensitive areas reported for reference date</t>
   </si>
@@ -1735,18 +1735,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>ok2</t>
-  </si>
-  <si>
-    <t>ok1</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Compliance
 Art. 4                </t>
@@ -1890,6 +1878,198 @@
       </rPr>
       <t xml:space="preserve"> (hierarchical approach)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ES            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FW            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSA           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSA           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A54           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A58           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPO           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXP           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXP-PD        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAS           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estuary                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal waters                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwater                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitive Area                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catchment of Sensitive Area      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less Sensitive Area              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal Area                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A54 Sensitive Area               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A58 Sensitive Area               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphorus                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen &amp; Phosphorus            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Relevant                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Stringent                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen &amp; Phosphorus &amp; Other    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphorus &amp; Other               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Information                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliant                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionable Compliance          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending Deadline                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Compliant                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not relevant                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No information                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary treatment                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary treatment              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">More stringent treatment         </t>
+  </si>
+  <si>
+    <t>3NP</t>
+  </si>
+  <si>
+    <t>3other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen &amp; Other                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expire deadline </t>
+  </si>
+  <si>
+    <t>Pending dealine</t>
+  </si>
+  <si>
+    <t>Individual and appropriated system</t>
+  </si>
+  <si>
+    <t>More stringent treatment : Nitrogen and phosphorus</t>
+  </si>
+  <si>
+    <t>More stringent treatment: other (UV, Chlorination...)</t>
+  </si>
+  <si>
+    <t>Expire deadline - Pending dealine</t>
   </si>
 </sst>
 </file>
@@ -3624,7 +3804,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="831">
+  <cellXfs count="832">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5100,442 +5280,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="54" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="59" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="35" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="27" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="59" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="59" fillId="38" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5676,16 +5420,10 @@
     <xf numFmtId="3" fontId="27" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="32" borderId="57" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="42" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5701,6 +5439,449 @@
     </xf>
     <xf numFmtId="4" fontId="27" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="59" fillId="31" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="35" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="59" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="59" fillId="38" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -5719,7 +5900,27 @@
     <cellStyle name="Standard_Tabelle4 2" xfId="6"/>
     <cellStyle name="Standard_UWWTP level" xfId="4"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5788,116 +5989,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -6046,7 +6137,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6123,7 +6213,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -6147,7 +6236,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -6155,13 +6243,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF4BF578-C20D-4B08-BFC1-D6E02C044306}" type="CELLRANGE">
+                    <a:fld id="{65F7D594-74E2-43AA-99DB-9ECA1088422E}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6179,7 +6266,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6188,13 +6274,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69BA683B-2578-4B14-B7F5-AB4D61253EC5}" type="CELLRANGE">
+                    <a:fld id="{B8E40ADF-81F7-4412-BD03-603E457EEC34}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6212,7 +6297,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6258,7 +6342,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6365,7 +6448,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -6389,7 +6471,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -6397,13 +6478,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2122A46-92BE-43A1-A998-92404138F6C2}" type="CELLRANGE">
+                    <a:fld id="{FB1BA02C-61E4-418E-A0B8-1073E4BD59A0}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6421,7 +6501,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6430,13 +6509,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C758FB96-E047-426B-A5C0-2824A1C51605}" type="CELLRANGE">
+                    <a:fld id="{1DD59361-4196-42AA-8767-ACE8623B3716}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6454,7 +6532,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6500,7 +6577,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6588,11 +6664,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-633907472"/>
-        <c:axId val="-633911280"/>
+        <c:axId val="-856720656"/>
+        <c:axId val="-856732080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633907472"/>
+        <c:axId val="-856720656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +6711,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633911280"/>
+        <c:crossAx val="-856732080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6643,7 +6719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633911280"/>
+        <c:axId val="-856732080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6675,7 +6751,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6736,7 +6811,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633907472"/>
+        <c:crossAx val="-856720656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7122,11 +7197,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-633912912"/>
-        <c:axId val="-633910736"/>
+        <c:axId val="-856735344"/>
+        <c:axId val="-856725008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633912912"/>
+        <c:axId val="-856735344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7224,7 +7299,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633910736"/>
+        <c:crossAx val="-856725008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7232,7 +7307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633910736"/>
+        <c:axId val="-856725008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7352,7 +7427,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633912912"/>
+        <c:crossAx val="-856735344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8236,11 +8311,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-633910192"/>
-        <c:axId val="-633909648"/>
+        <c:axId val="-856727184"/>
+        <c:axId val="-856734256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633910192"/>
+        <c:axId val="-856727184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8343,7 +8418,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633909648"/>
+        <c:crossAx val="-856734256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8351,7 +8426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633909648"/>
+        <c:axId val="-856734256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8402,7 +8477,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633910192"/>
+        <c:crossAx val="-856727184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8767,11 +8842,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-633909104"/>
-        <c:axId val="-633906928"/>
+        <c:axId val="-856723920"/>
+        <c:axId val="-856733712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633909104"/>
+        <c:axId val="-856723920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8882,7 +8957,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633906928"/>
+        <c:crossAx val="-856733712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8890,7 +8965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633906928"/>
+        <c:axId val="-856733712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8996,7 +9071,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633909104"/>
+        <c:crossAx val="-856723920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9366,11 +9441,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-633922160"/>
-        <c:axId val="-633921616"/>
+        <c:axId val="-856726640"/>
+        <c:axId val="-856723376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633922160"/>
+        <c:axId val="-856726640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9481,7 +9556,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633921616"/>
+        <c:crossAx val="-856723376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9489,7 +9564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633921616"/>
+        <c:axId val="-856723376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9603,7 +9678,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633922160"/>
+        <c:crossAx val="-856726640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9738,7 +9813,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10085,11 +10159,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-629509568"/>
-        <c:axId val="-629512832"/>
+        <c:axId val="-856722832"/>
+        <c:axId val="-852099264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-629509568"/>
+        <c:axId val="-856722832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10195,7 +10269,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629512832"/>
+        <c:crossAx val="-852099264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10203,7 +10277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-629512832"/>
+        <c:axId val="-852099264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10325,7 +10399,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629509568"/>
+        <c:crossAx val="-856722832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10661,11 +10735,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-629517728"/>
-        <c:axId val="-629512288"/>
+        <c:axId val="-852100352"/>
+        <c:axId val="-852098176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-629517728"/>
+        <c:axId val="-852100352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10776,7 +10850,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629512288"/>
+        <c:crossAx val="-852098176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10784,7 +10858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-629512288"/>
+        <c:axId val="-852098176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10898,7 +10972,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629517728"/>
+        <c:crossAx val="-852100352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11234,11 +11308,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-629513920"/>
-        <c:axId val="-629515552"/>
+        <c:axId val="-852100896"/>
+        <c:axId val="-852099808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-629513920"/>
+        <c:axId val="-852100896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11349,7 +11423,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629515552"/>
+        <c:crossAx val="-852099808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11357,7 +11431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-629515552"/>
+        <c:axId val="-852099808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11471,7 +11545,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629513920"/>
+        <c:crossAx val="-852100896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11852,11 +11926,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-629515008"/>
-        <c:axId val="-629514464"/>
+        <c:axId val="-852095456"/>
+        <c:axId val="-852091648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-629515008"/>
+        <c:axId val="-852095456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11954,7 +12028,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629514464"/>
+        <c:crossAx val="-852091648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11962,7 +12036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-629514464"/>
+        <c:axId val="-852091648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12081,7 +12155,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629515008"/>
+        <c:crossAx val="-852095456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12586,11 +12660,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-629511744"/>
-        <c:axId val="-629510656"/>
+        <c:axId val="-852088384"/>
+        <c:axId val="-852093824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-629511744"/>
+        <c:axId val="-852088384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12633,7 +12707,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629510656"/>
+        <c:crossAx val="-852093824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12641,7 +12715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-629510656"/>
+        <c:axId val="-852093824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12747,7 +12821,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-629511744"/>
+        <c:crossAx val="-852088384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12872,7 +12946,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12949,7 +13022,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -12973,7 +13045,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -12981,13 +13052,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1674904-BBBB-471F-ACF3-5B88DD19F0E0}" type="CELLRANGE">
+                    <a:fld id="{9941F317-A067-4629-8251-D4205BB0853A}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13005,7 +13075,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13014,13 +13083,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24A98AE8-4334-4227-ABF6-80D3923A2E1C}" type="CELLRANGE">
+                    <a:fld id="{5BDD6442-8E37-48E4-B02B-1B2BD8A35AA0}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13038,7 +13106,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13084,7 +13151,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13191,7 +13257,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -13215,7 +13280,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -13223,13 +13287,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A63F4AD-4BCE-4EA7-B4B3-B12641283877}" type="CELLRANGE">
+                    <a:fld id="{EEEB1789-9940-4E75-9679-581176EC82CA}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13247,7 +13310,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13256,13 +13318,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7402E18D-32C7-413A-AEB1-CB27F0DFE6D3}" type="CELLRANGE">
+                    <a:fld id="{E1A43040-2872-4D96-B058-2DF368F9048D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13280,7 +13341,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13326,7 +13386,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13414,11 +13473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-633918896"/>
-        <c:axId val="-633917808"/>
+        <c:axId val="-856732624"/>
+        <c:axId val="-856727728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633918896"/>
+        <c:axId val="-856732624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13450,7 +13509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13517,7 +13575,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633917808"/>
+        <c:crossAx val="-856727728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13525,7 +13583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633917808"/>
+        <c:axId val="-856727728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13625,7 +13683,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633918896"/>
+        <c:crossAx val="-856732624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13755,7 +13813,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13986,9 +14043,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -14192,7 +14247,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14547,11 +14601,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-633919984"/>
-        <c:axId val="-633908560"/>
+        <c:axId val="-856721744"/>
+        <c:axId val="-856730992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633919984"/>
+        <c:axId val="-856721744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14583,7 +14637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14650,7 +14703,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633908560"/>
+        <c:crossAx val="-856730992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14658,7 +14711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633908560"/>
+        <c:axId val="-856730992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14704,7 +14757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14765,7 +14817,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633919984"/>
+        <c:crossAx val="-856721744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15223,11 +15275,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-633919440"/>
-        <c:axId val="-633916176"/>
+        <c:axId val="-856726096"/>
+        <c:axId val="-856724464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633919440"/>
+        <c:axId val="-856726096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15325,7 +15377,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633916176"/>
+        <c:crossAx val="-856724464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15333,7 +15385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633916176"/>
+        <c:axId val="-856724464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15433,7 +15485,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633919440"/>
+        <c:crossAx val="-856726096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15891,11 +15943,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-633911824"/>
-        <c:axId val="-633921072"/>
+        <c:axId val="-856725552"/>
+        <c:axId val="-856734800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633911824"/>
+        <c:axId val="-856725552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15993,7 +16045,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633921072"/>
+        <c:crossAx val="-856734800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16001,7 +16053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633921072"/>
+        <c:axId val="-856734800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16101,7 +16153,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633911824"/>
+        <c:crossAx val="-856725552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16632,11 +16684,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-633908016"/>
-        <c:axId val="-633914000"/>
+        <c:axId val="-856721200"/>
+        <c:axId val="-856730448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633908016"/>
+        <c:axId val="-856721200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16679,7 +16731,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633914000"/>
+        <c:crossAx val="-856730448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16687,7 +16739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633914000"/>
+        <c:axId val="-856730448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16798,7 +16850,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633908016"/>
+        <c:crossAx val="-856721200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17328,11 +17380,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-633918352"/>
-        <c:axId val="-633915088"/>
+        <c:axId val="-856729904"/>
+        <c:axId val="-856720112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633918352"/>
+        <c:axId val="-856729904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17375,7 +17427,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633915088"/>
+        <c:crossAx val="-856720112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17383,7 +17435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633915088"/>
+        <c:axId val="-856720112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17502,7 +17554,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633918352"/>
+        <c:crossAx val="-856729904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17842,11 +17894,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-633920528"/>
-        <c:axId val="-633913456"/>
+        <c:axId val="-856729360"/>
+        <c:axId val="-856728816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-633920528"/>
+        <c:axId val="-856729360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17941,7 +17993,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633913456"/>
+        <c:crossAx val="-856728816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17949,7 +18001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-633913456"/>
+        <c:axId val="-856728816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -18069,7 +18121,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-633920528"/>
+        <c:crossAx val="-856729360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29440,314 +29492,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR8"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="9" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" customWidth="1"/>
-    <col min="28" max="28" width="19.42578125" customWidth="1"/>
-    <col min="29" max="29" width="19.28515625" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" customWidth="1"/>
-    <col min="31" max="31" width="19.42578125" customWidth="1"/>
-    <col min="32" max="32" width="18.140625" customWidth="1"/>
-    <col min="33" max="33" width="17.42578125" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" customWidth="1"/>
-    <col min="35" max="35" width="18.85546875" customWidth="1"/>
-    <col min="36" max="36" width="17.42578125" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" customWidth="1"/>
-    <col min="40" max="40" width="19.42578125" customWidth="1"/>
-    <col min="41" max="42" width="18.140625" customWidth="1"/>
-    <col min="43" max="44" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="681" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="681" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="681" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="681" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="681" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="681" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="681" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="681" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="681" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="681" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="681" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="681" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="681" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="681" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="681" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="681" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="681" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" s="681" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="681" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="681" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="681" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="681" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="681" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="681" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="681" t="s">
+        <v>488</v>
+      </c>
+      <c r="B12" s="681" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="681" t="s">
+        <v>489</v>
+      </c>
+      <c r="B13" s="681" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="681" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" s="681" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="681" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" s="681" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="681" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" s="681" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="681" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" s="681" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="681" t="s">
+        <v>494</v>
+      </c>
+      <c r="B18" s="681" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="681" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="681" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="681" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" s="681" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="681" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" s="681" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="681" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" s="681" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="681" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" s="681" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="681" t="s">
+        <v>500</v>
+      </c>
+      <c r="B24" s="681" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="681" t="s">
+        <v>491</v>
+      </c>
+      <c r="B25" s="681" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="681" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" s="681" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="681" t="s">
+        <v>491</v>
+      </c>
+      <c r="B27" s="681" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="681" t="s">
+        <v>496</v>
+      </c>
+      <c r="B28" s="681" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="681" t="s">
+        <v>485</v>
+      </c>
+      <c r="B29" s="681" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="681" t="s">
+        <v>486</v>
+      </c>
+      <c r="B30" s="681" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="681" t="s">
+        <v>492</v>
+      </c>
+      <c r="B31" s="681" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="681" t="s">
+        <v>501</v>
+      </c>
+      <c r="B32" s="681" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="681" t="s">
+        <v>499</v>
+      </c>
+      <c r="B33" s="681" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="681" t="s">
+        <v>502</v>
+      </c>
+      <c r="B34" s="681" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="681" t="s">
+        <v>503</v>
+      </c>
+      <c r="B35" s="681" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="681">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-    </row>
-    <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="625" t="s">
-        <v>454</v>
-      </c>
-      <c r="B4" s="626"/>
-      <c r="C4" s="626"/>
-      <c r="D4" s="626"/>
-      <c r="E4" s="627"/>
-      <c r="F4" s="627"/>
-      <c r="G4" s="627"/>
-      <c r="H4" s="627"/>
-      <c r="I4" s="627"/>
-      <c r="J4" s="627"/>
-      <c r="K4" s="627"/>
-      <c r="L4" s="627"/>
-      <c r="M4" s="627"/>
-      <c r="N4" s="627"/>
-      <c r="O4" s="627"/>
-      <c r="P4" s="627"/>
-      <c r="Q4" s="627"/>
-      <c r="R4" s="627"/>
-      <c r="S4" s="627"/>
-      <c r="T4" s="627"/>
-      <c r="U4" s="627"/>
-      <c r="V4" s="627"/>
-      <c r="W4" s="627"/>
-      <c r="X4" s="627"/>
-      <c r="Y4" s="627"/>
-      <c r="Z4" s="627"/>
-      <c r="AA4" s="627"/>
-      <c r="AB4" s="627"/>
-      <c r="AC4" s="627"/>
-      <c r="AD4" s="627"/>
-      <c r="AE4" s="627"/>
-      <c r="AF4" s="627"/>
-      <c r="AG4" s="627"/>
-      <c r="AH4" s="627"/>
-      <c r="AI4" s="627"/>
-      <c r="AJ4" s="627"/>
-      <c r="AK4" s="627"/>
-      <c r="AL4" s="627"/>
-      <c r="AM4" s="627"/>
-      <c r="AN4" s="627"/>
-      <c r="AO4" s="627"/>
-      <c r="AP4" s="627"/>
-      <c r="AQ4" s="628" t="s">
+      <c r="B36" s="681" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="681">
         <v>2</v>
       </c>
-      <c r="AR4" s="628"/>
-    </row>
-    <row r="5" spans="1:44" s="574" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="299" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="299" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="299" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="300" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="299" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="299" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="299" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="299" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="299" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="299" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="299" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="299" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="299" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="299" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="299" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="299" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="299" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="299" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="299" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="299" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" s="299" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="299" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="299" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y5" s="299" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="299" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="299" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB5" s="299" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="299" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="299" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="299" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="299" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG5" s="299" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH5" s="299" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="299" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ5" s="299" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK5" s="299" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL5" s="299" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM5" s="299" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN5" s="300" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO5" s="300" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP5" s="300" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ5" s="301" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR5" s="301" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>46</v>
+      <c r="B37" s="681" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="681" t="s">
+        <v>531</v>
+      </c>
+      <c r="B38" s="681" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="681" t="s">
+        <v>532</v>
+      </c>
+      <c r="B39" s="681" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AR5"/>
-  <mergeCells count="2">
-    <mergeCell ref="A4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-  </mergeCells>
+  <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -29782,23 +29852,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="575" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="629" t="s">
+      <c r="A1" s="686" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="630"/>
-      <c r="C1" s="630"/>
-      <c r="D1" s="630"/>
+      <c r="B1" s="687"/>
+      <c r="C1" s="687"/>
+      <c r="D1" s="687"/>
       <c r="E1" s="566"/>
-      <c r="F1" s="744" t="s">
+      <c r="F1" s="803" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="745"/>
-      <c r="H1" s="745"/>
+      <c r="G1" s="804"/>
+      <c r="H1" s="804"/>
       <c r="I1" s="571"/>
       <c r="J1" s="255"/>
       <c r="K1" s="571"/>
       <c r="L1" s="256"/>
-      <c r="M1" s="739" t="s">
+      <c r="M1" s="798" t="s">
         <v>277</v>
       </c>
       <c r="N1" s="257"/>
@@ -29810,19 +29880,19 @@
       <c r="R1" s="255"/>
       <c r="S1" s="571"/>
       <c r="T1" s="256"/>
-      <c r="U1" s="739" t="s">
+      <c r="U1" s="798" t="s">
         <v>279</v>
       </c>
       <c r="V1" s="257"/>
-      <c r="W1" s="746" t="s">
+      <c r="W1" s="805" t="s">
         <v>280</v>
       </c>
-      <c r="X1" s="746"/>
-      <c r="Y1" s="746"/>
-      <c r="Z1" s="746"/>
-      <c r="AA1" s="746"/>
-      <c r="AB1" s="747"/>
-      <c r="AC1" s="739" t="s">
+      <c r="X1" s="805"/>
+      <c r="Y1" s="805"/>
+      <c r="Z1" s="805"/>
+      <c r="AA1" s="805"/>
+      <c r="AB1" s="806"/>
+      <c r="AC1" s="798" t="s">
         <v>281</v>
       </c>
     </row>
@@ -29836,52 +29906,52 @@
       <c r="C2" s="570" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="741" t="s">
+      <c r="D2" s="800" t="s">
         <v>460</v>
       </c>
-      <c r="E2" s="741"/>
+      <c r="E2" s="800"/>
       <c r="F2" s="259"/>
-      <c r="G2" s="742" t="s">
+      <c r="G2" s="801" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="742"/>
-      <c r="I2" s="742" t="s">
+      <c r="H2" s="801"/>
+      <c r="I2" s="801" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="742"/>
-      <c r="K2" s="742" t="s">
+      <c r="J2" s="801"/>
+      <c r="K2" s="801" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="743"/>
-      <c r="M2" s="740"/>
+      <c r="L2" s="802"/>
+      <c r="M2" s="799"/>
       <c r="N2" s="260"/>
-      <c r="O2" s="742" t="s">
+      <c r="O2" s="801" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="742"/>
-      <c r="Q2" s="742" t="s">
+      <c r="P2" s="801"/>
+      <c r="Q2" s="801" t="s">
         <v>161</v>
       </c>
-      <c r="R2" s="742"/>
-      <c r="S2" s="742" t="s">
+      <c r="R2" s="801"/>
+      <c r="S2" s="801" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="743"/>
-      <c r="U2" s="740"/>
+      <c r="T2" s="802"/>
+      <c r="U2" s="799"/>
       <c r="V2" s="260"/>
-      <c r="W2" s="742" t="s">
+      <c r="W2" s="801" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="742"/>
-      <c r="Y2" s="742" t="s">
+      <c r="X2" s="801"/>
+      <c r="Y2" s="801" t="s">
         <v>161</v>
       </c>
-      <c r="Z2" s="742"/>
-      <c r="AA2" s="742" t="s">
+      <c r="Z2" s="801"/>
+      <c r="AA2" s="801" t="s">
         <v>162</v>
       </c>
-      <c r="AB2" s="743"/>
-      <c r="AC2" s="740"/>
+      <c r="AB2" s="802"/>
+      <c r="AC2" s="799"/>
     </row>
     <row r="3" spans="1:29" s="590" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
@@ -29895,7 +29965,7 @@
       <c r="E3" s="581" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="828" t="s">
+      <c r="F3" s="678" t="s">
         <v>285</v>
       </c>
       <c r="G3" s="587" t="s">
@@ -29913,13 +29983,13 @@
       <c r="K3" s="593" t="s">
         <v>284</v>
       </c>
-      <c r="L3" s="829" t="s">
+      <c r="L3" s="679" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="830" t="s">
+      <c r="M3" s="680" t="s">
         <v>286</v>
       </c>
-      <c r="N3" s="828" t="s">
+      <c r="N3" s="678" t="s">
         <v>285</v>
       </c>
       <c r="O3" s="587" t="s">
@@ -29937,13 +30007,13 @@
       <c r="S3" s="593" t="s">
         <v>284</v>
       </c>
-      <c r="T3" s="829" t="s">
+      <c r="T3" s="679" t="s">
         <v>123</v>
       </c>
-      <c r="U3" s="830" t="s">
+      <c r="U3" s="680" t="s">
         <v>461</v>
       </c>
-      <c r="V3" s="828" t="s">
+      <c r="V3" s="678" t="s">
         <v>285</v>
       </c>
       <c r="W3" s="593" t="s">
@@ -29961,10 +30031,10 @@
       <c r="AA3" s="593" t="s">
         <v>284</v>
       </c>
-      <c r="AB3" s="829" t="s">
+      <c r="AB3" s="679" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" s="830" t="s">
+      <c r="AC3" s="680" t="s">
         <v>461</v>
       </c>
     </row>
@@ -30276,35 +30346,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="748" t="s">
+      <c r="A1" s="807" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="749"/>
-      <c r="C1" s="749"/>
+      <c r="B1" s="808"/>
+      <c r="C1" s="808"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="757" t="s">
+      <c r="A3" s="816" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="759" t="s">
+      <c r="B3" s="818" t="s">
         <v>417</v>
       </c>
-      <c r="C3" s="760"/>
-      <c r="D3" s="755" t="s">
+      <c r="C3" s="819"/>
+      <c r="D3" s="814" t="s">
         <v>444</v>
       </c>
-      <c r="E3" s="756"/>
-      <c r="AA3" s="772" t="s">
+      <c r="E3" s="815"/>
+      <c r="AA3" s="831" t="s">
         <v>337</v>
       </c>
-      <c r="AB3" s="772"/>
-      <c r="AC3" s="772" t="s">
+      <c r="AB3" s="831"/>
+      <c r="AC3" s="831" t="s">
         <v>422</v>
       </c>
-      <c r="AD3" s="772"/>
+      <c r="AD3" s="831"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="758"/>
+      <c r="A4" s="817"/>
       <c r="B4" s="311" t="s">
         <v>421</v>
       </c>
@@ -30447,14 +30517,14 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="363"/>
-      <c r="AA10" s="772" t="s">
+      <c r="AA10" s="831" t="s">
         <v>423</v>
       </c>
-      <c r="AB10" s="772"/>
-      <c r="AC10" s="772" t="s">
+      <c r="AB10" s="831"/>
+      <c r="AC10" s="831" t="s">
         <v>424</v>
       </c>
-      <c r="AD10" s="772"/>
+      <c r="AD10" s="831"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="363" t="s">
@@ -30499,7 +30569,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="757" t="s">
+      <c r="A13" s="816" t="s">
         <v>325</v>
       </c>
       <c r="B13" s="310" t="str">
@@ -30531,7 +30601,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="758"/>
+      <c r="A14" s="817"/>
       <c r="B14" s="313" t="s">
         <v>326</v>
       </c>
@@ -30617,27 +30687,27 @@
       <c r="A21" t="s">
         <v>428</v>
       </c>
-      <c r="B21" s="750" t="s">
+      <c r="B21" s="809" t="s">
         <v>437</v>
       </c>
-      <c r="C21" s="750"/>
-      <c r="D21" s="750"/>
-      <c r="E21" s="750"/>
+      <c r="C21" s="809"/>
+      <c r="D21" s="809"/>
+      <c r="E21" s="809"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="315" t="s">
         <v>288</v>
       </c>
-      <c r="B22" s="761" t="str">
+      <c r="B22" s="820" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="762"/>
-      <c r="D22" s="761" t="str">
+      <c r="C22" s="821"/>
+      <c r="D22" s="820" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="762"/>
+      <c r="E22" s="821"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="316"/>
@@ -31012,16 +31082,16 @@
       <c r="A41" s="318" t="s">
         <v>335</v>
       </c>
-      <c r="B41" s="751" t="str">
+      <c r="B41" s="810" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="752"/>
-      <c r="D41" s="753" t="str">
+      <c r="C41" s="811"/>
+      <c r="D41" s="812" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="754"/>
+      <c r="E41" s="813"/>
       <c r="AA41" t="s">
         <v>418</v>
       </c>
@@ -31171,11 +31241,11 @@
       <c r="AA48" t="s">
         <v>428</v>
       </c>
-      <c r="AB48" s="750" t="s">
+      <c r="AB48" s="809" t="s">
         <v>449</v>
       </c>
-      <c r="AC48" s="750"/>
-      <c r="AD48" s="750"/>
+      <c r="AC48" s="809"/>
+      <c r="AD48" s="809"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="384" t="s">
@@ -31449,11 +31519,11 @@
       <c r="AA62" t="s">
         <v>428</v>
       </c>
-      <c r="AB62" s="750" t="s">
+      <c r="AB62" s="809" t="s">
         <v>450</v>
       </c>
-      <c r="AC62" s="750"/>
-      <c r="AD62" s="750"/>
+      <c r="AC62" s="809"/>
+      <c r="AD62" s="809"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="312"/>
@@ -31688,12 +31758,12 @@
       <c r="A74" s="531" t="s">
         <v>432</v>
       </c>
-      <c r="B74" s="750" t="s">
+      <c r="B74" s="809" t="s">
         <v>433</v>
       </c>
-      <c r="C74" s="750"/>
-      <c r="D74" s="750"/>
-      <c r="E74" s="750"/>
+      <c r="C74" s="809"/>
+      <c r="D74" s="809"/>
+      <c r="E74" s="809"/>
     </row>
     <row r="75" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="333" t="s">
@@ -31986,16 +32056,16 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="765" t="str">
+      <c r="B85" s="824" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="766"/>
-      <c r="D85" s="765" t="str">
+      <c r="C85" s="825"/>
+      <c r="D85" s="824" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="766"/>
+      <c r="E85" s="825"/>
       <c r="Z85" t="s">
         <v>406</v>
       </c>
@@ -32009,14 +32079,14 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="201"/>
-      <c r="B86" s="767" t="s">
+      <c r="B86" s="826" t="s">
         <v>237</v>
       </c>
-      <c r="C86" s="716"/>
-      <c r="D86" s="767" t="s">
+      <c r="C86" s="773"/>
+      <c r="D86" s="826" t="s">
         <v>237</v>
       </c>
-      <c r="E86" s="716"/>
+      <c r="E86" s="773"/>
       <c r="Z86" s="341" t="s">
         <v>238</v>
       </c>
@@ -32222,27 +32292,27 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="765" t="str">
+      <c r="B101" s="824" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="766"/>
-      <c r="D101" s="765" t="str">
+      <c r="C101" s="825"/>
+      <c r="D101" s="824" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="766"/>
+      <c r="E101" s="825"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="201"/>
-      <c r="B102" s="767" t="s">
+      <c r="B102" s="826" t="s">
         <v>237</v>
       </c>
-      <c r="C102" s="716"/>
-      <c r="D102" s="767" t="s">
+      <c r="C102" s="773"/>
+      <c r="D102" s="826" t="s">
         <v>237</v>
       </c>
-      <c r="E102" s="716"/>
+      <c r="E102" s="773"/>
       <c r="Z102" t="s">
         <v>406</v>
       </c>
@@ -32456,27 +32526,27 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="768" t="str">
+      <c r="B116" s="827" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="769"/>
-      <c r="D116" s="768" t="str">
+      <c r="C116" s="828"/>
+      <c r="D116" s="827" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="769"/>
+      <c r="E116" s="828"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="346"/>
-      <c r="B117" s="770" t="s">
+      <c r="B117" s="829" t="s">
         <v>237</v>
       </c>
-      <c r="C117" s="771"/>
-      <c r="D117" s="770" t="s">
+      <c r="C117" s="830"/>
+      <c r="D117" s="829" t="s">
         <v>237</v>
       </c>
-      <c r="E117" s="771"/>
+      <c r="E117" s="830"/>
       <c r="Z117" t="s">
         <v>406</v>
       </c>
@@ -32696,12 +32766,12 @@
       <c r="A129" s="350" t="s">
         <v>325</v>
       </c>
-      <c r="B129" s="763" t="str">
+      <c r="B129" s="822" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="764"/>
-      <c r="D129" s="764"/>
+      <c r="C129" s="823"/>
+      <c r="D129" s="823"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="351"/>
@@ -33458,18 +33528,18 @@
   </sheetData>
   <autoFilter ref="A5:D5"/>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="19" priority="4" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="17" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="9" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="5" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33526,10 +33596,10 @@
   </sheetData>
   <autoFilter ref="A5:D5"/>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33593,10 +33663,10 @@
   </sheetData>
   <autoFilter ref="A4:F4"/>
   <conditionalFormatting sqref="A5:D5">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:D6">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33606,7 +33676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -33666,10 +33736,10 @@
   </sheetData>
   <autoFilter ref="A5:F5"/>
   <conditionalFormatting sqref="A6:D6">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:D7">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33677,45 +33747,316 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="9" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" customWidth="1"/>
+    <col min="28" max="28" width="19.42578125" customWidth="1"/>
+    <col min="29" max="29" width="19.28515625" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" customWidth="1"/>
+    <col min="33" max="33" width="17.42578125" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" customWidth="1"/>
+    <col min="36" max="36" width="17.42578125" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" customWidth="1"/>
+    <col min="41" max="42" width="18.140625" customWidth="1"/>
+    <col min="43" max="44" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3" t="s">
-        <v>469</v>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+    </row>
+    <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="682" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="683"/>
+      <c r="C4" s="683"/>
+      <c r="D4" s="683"/>
+      <c r="E4" s="684"/>
+      <c r="F4" s="684"/>
+      <c r="G4" s="684"/>
+      <c r="H4" s="684"/>
+      <c r="I4" s="684"/>
+      <c r="J4" s="684"/>
+      <c r="K4" s="684"/>
+      <c r="L4" s="684"/>
+      <c r="M4" s="684"/>
+      <c r="N4" s="684"/>
+      <c r="O4" s="684"/>
+      <c r="P4" s="684"/>
+      <c r="Q4" s="684"/>
+      <c r="R4" s="684"/>
+      <c r="S4" s="684"/>
+      <c r="T4" s="684"/>
+      <c r="U4" s="684"/>
+      <c r="V4" s="684"/>
+      <c r="W4" s="684"/>
+      <c r="X4" s="684"/>
+      <c r="Y4" s="684"/>
+      <c r="Z4" s="684"/>
+      <c r="AA4" s="684"/>
+      <c r="AB4" s="684"/>
+      <c r="AC4" s="684"/>
+      <c r="AD4" s="684"/>
+      <c r="AE4" s="684"/>
+      <c r="AF4" s="684"/>
+      <c r="AG4" s="684"/>
+      <c r="AH4" s="684"/>
+      <c r="AI4" s="684"/>
+      <c r="AJ4" s="684"/>
+      <c r="AK4" s="684"/>
+      <c r="AL4" s="684"/>
+      <c r="AM4" s="684"/>
+      <c r="AN4" s="684"/>
+      <c r="AO4" s="684"/>
+      <c r="AP4" s="684"/>
+      <c r="AQ4" s="685" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="685"/>
+    </row>
+    <row r="5" spans="1:44" s="574" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="299" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="299" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="299" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="300" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="299" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="299" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="299" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="299" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="299" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="299" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="299" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="299" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="299" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="299" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="299" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="299" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="299" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="299" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="299" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="299" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="299" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="299" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="299" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="299" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="299" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="299" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="299" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="299" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="299" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="299" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="299" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="299" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG5" s="299" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH5" s="299" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="299" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ5" s="299" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK5" s="299" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL5" s="299" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM5" s="299" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN5" s="300" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO5" s="300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP5" s="300" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ5" s="301" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR5" s="301" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A5:AR5"/>
+  <mergeCells count="2">
+    <mergeCell ref="A4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33727,7 +34068,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33738,127 +34079,129 @@
     <col min="18" max="18" width="15" customWidth="1"/>
     <col min="20" max="20" width="17.42578125" customWidth="1"/>
     <col min="21" max="21" width="16.5703125" customWidth="1"/>
-    <col min="75" max="75" width="16.7109375" customWidth="1"/>
+    <col min="75" max="75" width="20.5703125" customWidth="1"/>
+    <col min="76" max="76" width="14" customWidth="1"/>
+    <col min="77" max="95" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="575" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="629" t="s">
+      <c r="A1" s="686" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="630"/>
-      <c r="C1" s="630"/>
-      <c r="D1" s="630"/>
-      <c r="E1" s="630"/>
-      <c r="F1" s="630"/>
-      <c r="G1" s="630"/>
-      <c r="H1" s="631" t="s">
+      <c r="B1" s="687"/>
+      <c r="C1" s="687"/>
+      <c r="D1" s="687"/>
+      <c r="E1" s="687"/>
+      <c r="F1" s="687"/>
+      <c r="G1" s="687"/>
+      <c r="H1" s="688" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="632"/>
-      <c r="J1" s="632"/>
-      <c r="K1" s="632"/>
-      <c r="L1" s="632"/>
-      <c r="M1" s="633"/>
-      <c r="N1" s="634" t="s">
+      <c r="I1" s="689"/>
+      <c r="J1" s="689"/>
+      <c r="K1" s="689"/>
+      <c r="L1" s="689"/>
+      <c r="M1" s="690"/>
+      <c r="N1" s="691" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="635"/>
-      <c r="P1" s="635"/>
-      <c r="Q1" s="636"/>
-      <c r="R1" s="636"/>
-      <c r="S1" s="635"/>
-      <c r="T1" s="635"/>
-      <c r="U1" s="635"/>
-      <c r="V1" s="637" t="s">
+      <c r="O1" s="692"/>
+      <c r="P1" s="692"/>
+      <c r="Q1" s="693"/>
+      <c r="R1" s="693"/>
+      <c r="S1" s="692"/>
+      <c r="T1" s="692"/>
+      <c r="U1" s="692"/>
+      <c r="V1" s="694" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="638"/>
-      <c r="X1" s="639"/>
-      <c r="Y1" s="639"/>
-      <c r="Z1" s="640"/>
-      <c r="AA1" s="641" t="s">
+      <c r="W1" s="695"/>
+      <c r="X1" s="696"/>
+      <c r="Y1" s="696"/>
+      <c r="Z1" s="697"/>
+      <c r="AA1" s="698" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="642"/>
-      <c r="AC1" s="642"/>
-      <c r="AD1" s="642"/>
-      <c r="AE1" s="642"/>
-      <c r="AF1" s="642"/>
-      <c r="AG1" s="642"/>
-      <c r="AH1" s="642"/>
-      <c r="AI1" s="642"/>
-      <c r="AJ1" s="642"/>
-      <c r="AK1" s="642"/>
-      <c r="AL1" s="642"/>
-      <c r="AM1" s="642"/>
+      <c r="AB1" s="699"/>
+      <c r="AC1" s="699"/>
+      <c r="AD1" s="699"/>
+      <c r="AE1" s="699"/>
+      <c r="AF1" s="699"/>
+      <c r="AG1" s="699"/>
+      <c r="AH1" s="699"/>
+      <c r="AI1" s="699"/>
+      <c r="AJ1" s="699"/>
+      <c r="AK1" s="699"/>
+      <c r="AL1" s="699"/>
+      <c r="AM1" s="699"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="654" t="s">
+      <c r="AP1" s="711" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="635"/>
-      <c r="AR1" s="635"/>
-      <c r="AS1" s="635"/>
-      <c r="AT1" s="635"/>
-      <c r="AU1" s="635"/>
-      <c r="AV1" s="635"/>
-      <c r="AW1" s="655"/>
-      <c r="AX1" s="662" t="s">
+      <c r="AQ1" s="692"/>
+      <c r="AR1" s="692"/>
+      <c r="AS1" s="692"/>
+      <c r="AT1" s="692"/>
+      <c r="AU1" s="692"/>
+      <c r="AV1" s="692"/>
+      <c r="AW1" s="712"/>
+      <c r="AX1" s="719" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="663"/>
-      <c r="AZ1" s="663"/>
-      <c r="BA1" s="663"/>
-      <c r="BB1" s="663"/>
-      <c r="BC1" s="664"/>
-      <c r="BD1" s="665" t="s">
+      <c r="AY1" s="720"/>
+      <c r="AZ1" s="720"/>
+      <c r="BA1" s="720"/>
+      <c r="BB1" s="720"/>
+      <c r="BC1" s="721"/>
+      <c r="BD1" s="722" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="666"/>
-      <c r="BF1" s="666"/>
-      <c r="BG1" s="666"/>
-      <c r="BH1" s="666"/>
-      <c r="BI1" s="667"/>
-      <c r="BJ1" s="668" t="s">
+      <c r="BE1" s="723"/>
+      <c r="BF1" s="723"/>
+      <c r="BG1" s="723"/>
+      <c r="BH1" s="723"/>
+      <c r="BI1" s="724"/>
+      <c r="BJ1" s="725" t="s">
         <v>54</v>
       </c>
-      <c r="BK1" s="669"/>
-      <c r="BL1" s="669"/>
-      <c r="BM1" s="669"/>
-      <c r="BN1" s="669"/>
-      <c r="BO1" s="669"/>
-      <c r="BP1" s="670"/>
-      <c r="BQ1" s="643" t="s">
+      <c r="BK1" s="726"/>
+      <c r="BL1" s="726"/>
+      <c r="BM1" s="726"/>
+      <c r="BN1" s="726"/>
+      <c r="BO1" s="726"/>
+      <c r="BP1" s="727"/>
+      <c r="BQ1" s="700" t="s">
         <v>55</v>
       </c>
-      <c r="BR1" s="644"/>
-      <c r="BS1" s="644"/>
-      <c r="BT1" s="644"/>
-      <c r="BU1" s="644"/>
-      <c r="BV1" s="644"/>
+      <c r="BR1" s="701"/>
+      <c r="BS1" s="701"/>
+      <c r="BT1" s="701"/>
+      <c r="BU1" s="701"/>
+      <c r="BV1" s="701"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="645" t="s">
+      <c r="BY1" s="702" t="s">
         <v>56</v>
       </c>
-      <c r="BZ1" s="646"/>
-      <c r="CA1" s="646"/>
-      <c r="CB1" s="646"/>
-      <c r="CC1" s="646"/>
-      <c r="CD1" s="646"/>
-      <c r="CE1" s="646"/>
-      <c r="CF1" s="647"/>
-      <c r="CG1" s="647"/>
-      <c r="CH1" s="647"/>
-      <c r="CI1" s="647"/>
-      <c r="CJ1" s="647"/>
-      <c r="CK1" s="647"/>
-      <c r="CL1" s="647"/>
-      <c r="CM1" s="647"/>
-      <c r="CN1" s="647"/>
-      <c r="CO1" s="647"/>
-      <c r="CP1" s="647"/>
-      <c r="CQ1" s="647"/>
+      <c r="BZ1" s="703"/>
+      <c r="CA1" s="703"/>
+      <c r="CB1" s="703"/>
+      <c r="CC1" s="703"/>
+      <c r="CD1" s="703"/>
+      <c r="CE1" s="703"/>
+      <c r="CF1" s="704"/>
+      <c r="CG1" s="704"/>
+      <c r="CH1" s="704"/>
+      <c r="CI1" s="704"/>
+      <c r="CJ1" s="704"/>
+      <c r="CK1" s="704"/>
+      <c r="CL1" s="704"/>
+      <c r="CM1" s="704"/>
+      <c r="CN1" s="704"/>
+      <c r="CO1" s="704"/>
+      <c r="CP1" s="704"/>
+      <c r="CQ1" s="704"/>
     </row>
     <row r="2" spans="1:95" s="575" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -33882,18 +34225,18 @@
       <c r="G2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="648" t="s">
+      <c r="H2" s="705" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="649"/>
-      <c r="J2" s="649" t="s">
+      <c r="I2" s="706"/>
+      <c r="J2" s="706" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="649"/>
-      <c r="L2" s="649" t="s">
+      <c r="K2" s="706"/>
+      <c r="L2" s="706" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="650"/>
+      <c r="M2" s="707"/>
       <c r="N2" s="12" t="s">
         <v>57</v>
       </c>
@@ -34002,36 +34345,36 @@
       <c r="AW2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AX2" s="651" t="s">
+      <c r="AX2" s="708" t="s">
         <v>90</v>
       </c>
-      <c r="AY2" s="652"/>
-      <c r="AZ2" s="652"/>
-      <c r="BA2" s="652" t="s">
+      <c r="AY2" s="709"/>
+      <c r="AZ2" s="709"/>
+      <c r="BA2" s="709" t="s">
         <v>91</v>
       </c>
-      <c r="BB2" s="652"/>
-      <c r="BC2" s="653"/>
-      <c r="BD2" s="656" t="s">
+      <c r="BB2" s="709"/>
+      <c r="BC2" s="710"/>
+      <c r="BD2" s="713" t="s">
         <v>90</v>
       </c>
-      <c r="BE2" s="657"/>
-      <c r="BF2" s="657"/>
-      <c r="BG2" s="657" t="s">
+      <c r="BE2" s="714"/>
+      <c r="BF2" s="714"/>
+      <c r="BG2" s="714" t="s">
         <v>91</v>
       </c>
-      <c r="BH2" s="657"/>
-      <c r="BI2" s="658"/>
-      <c r="BJ2" s="659" t="s">
+      <c r="BH2" s="714"/>
+      <c r="BI2" s="715"/>
+      <c r="BJ2" s="716" t="s">
         <v>90</v>
       </c>
-      <c r="BK2" s="660"/>
-      <c r="BL2" s="660"/>
-      <c r="BM2" s="660" t="s">
+      <c r="BK2" s="717"/>
+      <c r="BL2" s="717"/>
+      <c r="BM2" s="717" t="s">
         <v>91</v>
       </c>
-      <c r="BN2" s="661"/>
-      <c r="BO2" s="661"/>
+      <c r="BN2" s="718"/>
+      <c r="BO2" s="718"/>
       <c r="BP2" s="24" t="s">
         <v>92</v>
       </c>
@@ -34117,7 +34460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:95" s="807" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" s="659" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
@@ -34127,139 +34470,139 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
-      <c r="H3" s="776" t="s">
+      <c r="H3" s="628" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="777" t="s">
+      <c r="I3" s="629" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="777" t="s">
+      <c r="J3" s="629" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="777" t="s">
+      <c r="K3" s="629" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="777" t="s">
+      <c r="L3" s="629" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="778" t="s">
+      <c r="M3" s="630" t="s">
         <v>120</v>
       </c>
-      <c r="N3" s="779"/>
-      <c r="O3" s="780"/>
-      <c r="P3" s="780"/>
-      <c r="Q3" s="780" t="s">
+      <c r="N3" s="631"/>
+      <c r="O3" s="632"/>
+      <c r="P3" s="632"/>
+      <c r="Q3" s="632" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="780" t="s">
+      <c r="R3" s="632" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="780" t="s">
+      <c r="S3" s="632" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="780" t="s">
+      <c r="T3" s="632" t="s">
         <v>123</v>
       </c>
-      <c r="U3" s="780" t="s">
+      <c r="U3" s="632" t="s">
         <v>123</v>
       </c>
-      <c r="V3" s="781"/>
-      <c r="W3" s="781" t="s">
+      <c r="V3" s="633"/>
+      <c r="W3" s="633" t="s">
         <v>123</v>
       </c>
-      <c r="X3" s="781" t="s">
+      <c r="X3" s="633" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" s="782" t="s">
+      <c r="Y3" s="634" t="s">
         <v>124</v>
       </c>
-      <c r="Z3" s="783" t="s">
+      <c r="Z3" s="635" t="s">
         <v>124</v>
       </c>
-      <c r="AA3" s="784"/>
-      <c r="AB3" s="785"/>
-      <c r="AC3" s="785"/>
-      <c r="AD3" s="785"/>
-      <c r="AE3" s="786"/>
-      <c r="AF3" s="787"/>
-      <c r="AG3" s="787"/>
-      <c r="AH3" s="787"/>
-      <c r="AI3" s="787"/>
-      <c r="AJ3" s="787"/>
-      <c r="AK3" s="787"/>
-      <c r="AL3" s="787"/>
-      <c r="AM3" s="787"/>
-      <c r="AN3" s="788"/>
-      <c r="AO3" s="789"/>
-      <c r="AP3" s="790"/>
-      <c r="AQ3" s="790"/>
-      <c r="AR3" s="790"/>
-      <c r="AS3" s="790"/>
-      <c r="AT3" s="790"/>
-      <c r="AU3" s="790"/>
-      <c r="AV3" s="790"/>
-      <c r="AW3" s="791"/>
-      <c r="AX3" s="792" t="s">
+      <c r="AA3" s="636"/>
+      <c r="AB3" s="637"/>
+      <c r="AC3" s="637"/>
+      <c r="AD3" s="637"/>
+      <c r="AE3" s="638"/>
+      <c r="AF3" s="639"/>
+      <c r="AG3" s="639"/>
+      <c r="AH3" s="639"/>
+      <c r="AI3" s="639"/>
+      <c r="AJ3" s="639"/>
+      <c r="AK3" s="639"/>
+      <c r="AL3" s="639"/>
+      <c r="AM3" s="639"/>
+      <c r="AN3" s="640"/>
+      <c r="AO3" s="641"/>
+      <c r="AP3" s="642"/>
+      <c r="AQ3" s="642"/>
+      <c r="AR3" s="642"/>
+      <c r="AS3" s="642"/>
+      <c r="AT3" s="642"/>
+      <c r="AU3" s="642"/>
+      <c r="AV3" s="642"/>
+      <c r="AW3" s="643"/>
+      <c r="AX3" s="644" t="s">
         <v>125</v>
       </c>
-      <c r="AY3" s="793" t="s">
+      <c r="AY3" s="645" t="s">
         <v>126</v>
       </c>
-      <c r="AZ3" s="794" t="s">
+      <c r="AZ3" s="646" t="s">
         <v>127</v>
       </c>
-      <c r="BA3" s="793" t="s">
+      <c r="BA3" s="645" t="s">
         <v>125</v>
       </c>
-      <c r="BB3" s="793" t="s">
+      <c r="BB3" s="645" t="s">
         <v>126</v>
       </c>
-      <c r="BC3" s="795" t="s">
+      <c r="BC3" s="647" t="s">
         <v>127</v>
       </c>
-      <c r="BD3" s="796" t="s">
+      <c r="BD3" s="648" t="s">
         <v>125</v>
       </c>
-      <c r="BE3" s="797" t="s">
+      <c r="BE3" s="649" t="s">
         <v>126</v>
       </c>
-      <c r="BF3" s="798" t="s">
+      <c r="BF3" s="650" t="s">
         <v>127</v>
       </c>
-      <c r="BG3" s="797" t="s">
+      <c r="BG3" s="649" t="s">
         <v>125</v>
       </c>
-      <c r="BH3" s="797" t="s">
+      <c r="BH3" s="649" t="s">
         <v>126</v>
       </c>
-      <c r="BI3" s="799" t="s">
+      <c r="BI3" s="651" t="s">
         <v>127</v>
       </c>
-      <c r="BJ3" s="800" t="s">
+      <c r="BJ3" s="652" t="s">
         <v>125</v>
       </c>
-      <c r="BK3" s="801" t="s">
+      <c r="BK3" s="653" t="s">
         <v>126</v>
       </c>
-      <c r="BL3" s="802" t="s">
+      <c r="BL3" s="654" t="s">
         <v>127</v>
       </c>
-      <c r="BM3" s="801" t="s">
+      <c r="BM3" s="653" t="s">
         <v>125</v>
       </c>
-      <c r="BN3" s="801" t="s">
+      <c r="BN3" s="653" t="s">
         <v>126</v>
       </c>
-      <c r="BO3" s="803" t="s">
+      <c r="BO3" s="655" t="s">
         <v>127</v>
       </c>
-      <c r="BP3" s="804"/>
-      <c r="BQ3" s="805"/>
-      <c r="BR3" s="806"/>
-      <c r="BS3" s="806"/>
-      <c r="BT3" s="806"/>
-      <c r="BU3" s="806"/>
-      <c r="BV3" s="806"/>
+      <c r="BP3" s="656"/>
+      <c r="BQ3" s="657"/>
+      <c r="BR3" s="658"/>
+      <c r="BS3" s="658"/>
+      <c r="BT3" s="658"/>
+      <c r="BU3" s="658"/>
+      <c r="BV3" s="658"/>
       <c r="BW3" s="12" t="s">
         <v>128</v>
       </c>
@@ -34325,13 +34668,13 @@
       </c>
     </row>
     <row r="4" spans="1:95" s="590" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="773"/>
-      <c r="B4" s="773"/>
-      <c r="C4" s="773"/>
-      <c r="D4" s="773"/>
-      <c r="E4" s="773"/>
-      <c r="F4" s="773"/>
-      <c r="G4" s="773"/>
+      <c r="A4" s="625"/>
+      <c r="B4" s="625"/>
+      <c r="C4" s="625"/>
+      <c r="D4" s="625"/>
+      <c r="E4" s="625"/>
+      <c r="F4" s="625"/>
+      <c r="G4" s="625"/>
       <c r="H4" s="576"/>
       <c r="I4" s="576"/>
       <c r="J4" s="576"/>
@@ -34351,20 +34694,20 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
-      <c r="AA4" s="774"/>
-      <c r="AB4" s="774"/>
-      <c r="AC4" s="774"/>
-      <c r="AD4" s="774"/>
-      <c r="AE4" s="774"/>
-      <c r="AF4" s="774"/>
-      <c r="AG4" s="774"/>
-      <c r="AH4" s="774"/>
-      <c r="AI4" s="774"/>
-      <c r="AJ4" s="774"/>
-      <c r="AK4" s="774"/>
-      <c r="AL4" s="774"/>
-      <c r="AM4" s="774"/>
-      <c r="AN4" s="774"/>
+      <c r="AA4" s="626"/>
+      <c r="AB4" s="626"/>
+      <c r="AC4" s="626"/>
+      <c r="AD4" s="626"/>
+      <c r="AE4" s="626"/>
+      <c r="AF4" s="626"/>
+      <c r="AG4" s="626"/>
+      <c r="AH4" s="626"/>
+      <c r="AI4" s="626"/>
+      <c r="AJ4" s="626"/>
+      <c r="AK4" s="626"/>
+      <c r="AL4" s="626"/>
+      <c r="AM4" s="626"/>
+      <c r="AN4" s="626"/>
       <c r="AO4" s="29"/>
       <c r="AP4" s="29"/>
       <c r="AQ4" s="29"/>
@@ -34393,12 +34736,12 @@
       <c r="BN4" s="579"/>
       <c r="BO4" s="579"/>
       <c r="BP4" s="579"/>
-      <c r="BQ4" s="775"/>
-      <c r="BR4" s="775"/>
-      <c r="BS4" s="775"/>
-      <c r="BT4" s="775"/>
-      <c r="BU4" s="775"/>
-      <c r="BV4" s="775"/>
+      <c r="BQ4" s="627"/>
+      <c r="BR4" s="627"/>
+      <c r="BS4" s="627"/>
+      <c r="BT4" s="627"/>
+      <c r="BU4" s="627"/>
+      <c r="BV4" s="627"/>
       <c r="BW4" s="29"/>
       <c r="BX4" s="29"/>
       <c r="BY4" s="29"/>
@@ -35058,10 +35401,10 @@
     <mergeCell ref="AA1:AM1"/>
   </mergeCells>
   <conditionalFormatting sqref="A14:A15 A5:B5">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A15 A5">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -35134,124 +35477,124 @@
         <v>135</v>
       </c>
       <c r="L1" s="42"/>
-      <c r="M1" s="675" t="s">
+      <c r="M1" s="732" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="676" t="s">
+      <c r="N1" s="733" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="677"/>
-      <c r="P1" s="677"/>
-      <c r="Q1" s="677"/>
-      <c r="R1" s="678" t="s">
+      <c r="O1" s="734"/>
+      <c r="P1" s="734"/>
+      <c r="Q1" s="734"/>
+      <c r="R1" s="735" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="679"/>
-      <c r="T1" s="679"/>
-      <c r="U1" s="679"/>
-      <c r="V1" s="679"/>
-      <c r="W1" s="679"/>
-      <c r="X1" s="680"/>
-      <c r="Y1" s="681" t="s">
+      <c r="S1" s="736"/>
+      <c r="T1" s="736"/>
+      <c r="U1" s="736"/>
+      <c r="V1" s="736"/>
+      <c r="W1" s="736"/>
+      <c r="X1" s="737"/>
+      <c r="Y1" s="738" t="s">
         <v>139</v>
       </c>
-      <c r="Z1" s="682"/>
-      <c r="AA1" s="685" t="s">
+      <c r="Z1" s="739"/>
+      <c r="AA1" s="742" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" s="687" t="s">
+      <c r="AB1" s="744" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="695" t="s">
+      <c r="AC1" s="752" t="s">
         <v>463</v>
       </c>
-      <c r="AD1" s="696"/>
-      <c r="AE1" s="696"/>
-      <c r="AF1" s="697"/>
-      <c r="AG1" s="698" t="s">
+      <c r="AD1" s="753"/>
+      <c r="AE1" s="753"/>
+      <c r="AF1" s="754"/>
+      <c r="AG1" s="755" t="s">
         <v>142</v>
       </c>
-      <c r="AH1" s="679"/>
-      <c r="AI1" s="679"/>
-      <c r="AJ1" s="679"/>
-      <c r="AK1" s="679"/>
-      <c r="AL1" s="679"/>
-      <c r="AM1" s="679"/>
-      <c r="AN1" s="679"/>
-      <c r="AO1" s="687" t="s">
+      <c r="AH1" s="736"/>
+      <c r="AI1" s="736"/>
+      <c r="AJ1" s="736"/>
+      <c r="AK1" s="736"/>
+      <c r="AL1" s="736"/>
+      <c r="AM1" s="736"/>
+      <c r="AN1" s="736"/>
+      <c r="AO1" s="744" t="s">
         <v>143</v>
       </c>
-      <c r="AP1" s="681" t="s">
+      <c r="AP1" s="738" t="s">
         <v>144</v>
       </c>
-      <c r="AQ1" s="682"/>
-      <c r="AR1" s="682"/>
-      <c r="AS1" s="667"/>
-      <c r="AT1" s="699" t="s">
+      <c r="AQ1" s="739"/>
+      <c r="AR1" s="739"/>
+      <c r="AS1" s="724"/>
+      <c r="AT1" s="756" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="700"/>
-      <c r="AV1" s="700"/>
-      <c r="AW1" s="700"/>
-      <c r="AX1" s="700"/>
-      <c r="AY1" s="700"/>
-      <c r="AZ1" s="700"/>
-      <c r="BA1" s="700"/>
-      <c r="BB1" s="700"/>
-      <c r="BC1" s="700"/>
-      <c r="BD1" s="700"/>
-      <c r="BE1" s="700"/>
-      <c r="BF1" s="700"/>
-      <c r="BG1" s="700"/>
-      <c r="BH1" s="700"/>
-      <c r="BI1" s="700"/>
-      <c r="BJ1" s="700"/>
-      <c r="BK1" s="700"/>
-      <c r="BL1" s="700"/>
-      <c r="BM1" s="700"/>
-      <c r="BN1" s="700"/>
-      <c r="BO1" s="700"/>
-      <c r="BP1" s="700"/>
-      <c r="BQ1" s="700"/>
-      <c r="BR1" s="700"/>
-      <c r="BS1" s="700"/>
-      <c r="BT1" s="700"/>
-      <c r="BU1" s="700"/>
-      <c r="BV1" s="700"/>
-      <c r="BW1" s="687" t="s">
+      <c r="AU1" s="757"/>
+      <c r="AV1" s="757"/>
+      <c r="AW1" s="757"/>
+      <c r="AX1" s="757"/>
+      <c r="AY1" s="757"/>
+      <c r="AZ1" s="757"/>
+      <c r="BA1" s="757"/>
+      <c r="BB1" s="757"/>
+      <c r="BC1" s="757"/>
+      <c r="BD1" s="757"/>
+      <c r="BE1" s="757"/>
+      <c r="BF1" s="757"/>
+      <c r="BG1" s="757"/>
+      <c r="BH1" s="757"/>
+      <c r="BI1" s="757"/>
+      <c r="BJ1" s="757"/>
+      <c r="BK1" s="757"/>
+      <c r="BL1" s="757"/>
+      <c r="BM1" s="757"/>
+      <c r="BN1" s="757"/>
+      <c r="BO1" s="757"/>
+      <c r="BP1" s="757"/>
+      <c r="BQ1" s="757"/>
+      <c r="BR1" s="757"/>
+      <c r="BS1" s="757"/>
+      <c r="BT1" s="757"/>
+      <c r="BU1" s="757"/>
+      <c r="BV1" s="757"/>
+      <c r="BW1" s="744" t="s">
         <v>146</v>
       </c>
-      <c r="BX1" s="681" t="s">
+      <c r="BX1" s="738" t="s">
         <v>147</v>
       </c>
-      <c r="BY1" s="682"/>
-      <c r="BZ1" s="682"/>
-      <c r="CA1" s="667"/>
-      <c r="CB1" s="689" t="s">
+      <c r="BY1" s="739"/>
+      <c r="BZ1" s="739"/>
+      <c r="CA1" s="724"/>
+      <c r="CB1" s="746" t="s">
         <v>50</v>
       </c>
-      <c r="CC1" s="689"/>
-      <c r="CD1" s="689"/>
-      <c r="CE1" s="689"/>
-      <c r="CF1" s="689"/>
-      <c r="CG1" s="689"/>
-      <c r="CH1" s="689"/>
-      <c r="CI1" s="689"/>
-      <c r="CJ1" s="689"/>
-      <c r="CK1" s="689"/>
-      <c r="CL1" s="689"/>
-      <c r="CM1" s="689"/>
+      <c r="CC1" s="746"/>
+      <c r="CD1" s="746"/>
+      <c r="CE1" s="746"/>
+      <c r="CF1" s="746"/>
+      <c r="CG1" s="746"/>
+      <c r="CH1" s="746"/>
+      <c r="CI1" s="746"/>
+      <c r="CJ1" s="746"/>
+      <c r="CK1" s="746"/>
+      <c r="CL1" s="746"/>
+      <c r="CM1" s="746"/>
       <c r="CN1" s="43"/>
-      <c r="CO1" s="690" t="s">
+      <c r="CO1" s="747" t="s">
         <v>55</v>
       </c>
-      <c r="CP1" s="636"/>
-      <c r="CQ1" s="636"/>
-      <c r="CR1" s="636"/>
-      <c r="CS1" s="636"/>
-      <c r="CT1" s="636"/>
-      <c r="CU1" s="636"/>
-      <c r="CV1" s="655"/>
+      <c r="CP1" s="693"/>
+      <c r="CQ1" s="693"/>
+      <c r="CR1" s="693"/>
+      <c r="CS1" s="693"/>
+      <c r="CT1" s="693"/>
+      <c r="CU1" s="693"/>
+      <c r="CV1" s="712"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -35290,7 +35633,7 @@
       <c r="L2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="675"/>
+      <c r="M2" s="732"/>
       <c r="N2" s="49" t="s">
         <v>152</v>
       </c>
@@ -35306,22 +35649,22 @@
       <c r="R2" s="580" t="s">
         <v>402</v>
       </c>
-      <c r="S2" s="691" t="s">
+      <c r="S2" s="748" t="s">
         <v>155</v>
       </c>
-      <c r="T2" s="661"/>
-      <c r="U2" s="692" t="s">
+      <c r="T2" s="718"/>
+      <c r="U2" s="749" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="692"/>
-      <c r="W2" s="692" t="s">
+      <c r="V2" s="749"/>
+      <c r="W2" s="749" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="693"/>
-      <c r="Y2" s="683"/>
-      <c r="Z2" s="684"/>
-      <c r="AA2" s="686"/>
-      <c r="AB2" s="688"/>
+      <c r="X2" s="750"/>
+      <c r="Y2" s="740"/>
+      <c r="Z2" s="741"/>
+      <c r="AA2" s="743"/>
+      <c r="AB2" s="745"/>
       <c r="AC2" s="50" t="s">
         <v>156</v>
       </c>
@@ -35334,86 +35677,86 @@
       <c r="AF2" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="AG2" s="694" t="s">
+      <c r="AG2" s="751" t="s">
         <v>160</v>
       </c>
-      <c r="AH2" s="673"/>
-      <c r="AI2" s="673" t="s">
+      <c r="AH2" s="730"/>
+      <c r="AI2" s="730" t="s">
         <v>161</v>
       </c>
-      <c r="AJ2" s="673"/>
-      <c r="AK2" s="673" t="s">
+      <c r="AJ2" s="730"/>
+      <c r="AK2" s="730" t="s">
         <v>162</v>
       </c>
-      <c r="AL2" s="673"/>
+      <c r="AL2" s="730"/>
       <c r="AM2" s="51" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN2" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO2" s="745"/>
+      <c r="AP2" s="740" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ2" s="741"/>
+      <c r="AR2" s="728" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS2" s="729"/>
+      <c r="AT2" s="730" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU2" s="730"/>
+      <c r="AV2" s="731" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW2" s="731"/>
+      <c r="AX2" s="731" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY2" s="731"/>
+      <c r="AZ2" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="BA2" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="BB2" s="730" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC2" s="730"/>
+      <c r="BD2" s="731" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE2" s="731"/>
+      <c r="BF2" s="731" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG2" s="731"/>
+      <c r="BH2" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="AN2" s="51" t="s">
+      <c r="BI2" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="AO2" s="688"/>
-      <c r="AP2" s="683" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ2" s="684"/>
-      <c r="AR2" s="671" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS2" s="672"/>
-      <c r="AT2" s="673" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU2" s="673"/>
-      <c r="AV2" s="674" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW2" s="674"/>
-      <c r="AX2" s="674" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY2" s="674"/>
-      <c r="AZ2" s="51" t="s">
+      <c r="BJ2" s="730" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK2" s="730"/>
+      <c r="BL2" s="731" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM2" s="731"/>
+      <c r="BN2" s="731" t="s">
+        <v>173</v>
+      </c>
+      <c r="BO2" s="731"/>
+      <c r="BP2" s="51" t="s">
         <v>473</v>
       </c>
-      <c r="BA2" s="51" t="s">
+      <c r="BQ2" s="51" t="s">
         <v>474</v>
-      </c>
-      <c r="BB2" s="673" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC2" s="673"/>
-      <c r="BD2" s="674" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE2" s="674"/>
-      <c r="BF2" s="674" t="s">
-        <v>170</v>
-      </c>
-      <c r="BG2" s="674"/>
-      <c r="BH2" s="51" t="s">
-        <v>475</v>
-      </c>
-      <c r="BI2" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="BJ2" s="673" t="s">
-        <v>171</v>
-      </c>
-      <c r="BK2" s="673"/>
-      <c r="BL2" s="674" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM2" s="674"/>
-      <c r="BN2" s="674" t="s">
-        <v>173</v>
-      </c>
-      <c r="BO2" s="674"/>
-      <c r="BP2" s="51" t="s">
-        <v>477</v>
-      </c>
-      <c r="BQ2" s="51" t="s">
-        <v>478</v>
       </c>
       <c r="BR2" s="572" t="s">
         <v>174</v>
@@ -35428,17 +35771,17 @@
         <v>177</v>
       </c>
       <c r="BV2" s="51" t="s">
-        <v>479</v>
-      </c>
-      <c r="BW2" s="688"/>
-      <c r="BX2" s="683" t="s">
+        <v>475</v>
+      </c>
+      <c r="BW2" s="745"/>
+      <c r="BX2" s="740" t="s">
         <v>163</v>
       </c>
-      <c r="BY2" s="684"/>
-      <c r="BZ2" s="671" t="s">
+      <c r="BY2" s="741"/>
+      <c r="BZ2" s="728" t="s">
         <v>164</v>
       </c>
-      <c r="CA2" s="672"/>
+      <c r="CA2" s="729"/>
       <c r="CB2" s="20" t="s">
         <v>71</v>
       </c>
@@ -35478,22 +35821,22 @@
       <c r="CN2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="CO2" s="703" t="s">
+      <c r="CO2" s="760" t="s">
         <v>178</v>
       </c>
-      <c r="CP2" s="704"/>
-      <c r="CQ2" s="701" t="s">
+      <c r="CP2" s="761"/>
+      <c r="CQ2" s="758" t="s">
         <v>179</v>
       </c>
-      <c r="CR2" s="701"/>
-      <c r="CS2" s="704" t="s">
+      <c r="CR2" s="758"/>
+      <c r="CS2" s="761" t="s">
         <v>180</v>
       </c>
-      <c r="CT2" s="704"/>
-      <c r="CU2" s="701" t="s">
+      <c r="CT2" s="761"/>
+      <c r="CU2" s="758" t="s">
         <v>181</v>
       </c>
-      <c r="CV2" s="702"/>
+      <c r="CV2" s="759"/>
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="598"/>
@@ -35510,7 +35853,7 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
-      <c r="K3" s="808"/>
+      <c r="K3" s="660"/>
       <c r="L3" s="601"/>
       <c r="M3" s="602"/>
       <c r="N3" s="582"/>
@@ -35520,34 +35863,34 @@
       </c>
       <c r="Q3" s="582"/>
       <c r="R3" s="580"/>
-      <c r="S3" s="809" t="s">
+      <c r="S3" s="661" t="s">
         <v>121</v>
       </c>
-      <c r="T3" s="809" t="s">
+      <c r="T3" s="661" t="s">
         <v>120</v>
       </c>
-      <c r="U3" s="809" t="s">
+      <c r="U3" s="661" t="s">
         <v>121</v>
       </c>
-      <c r="V3" s="809" t="s">
+      <c r="V3" s="661" t="s">
         <v>120</v>
       </c>
-      <c r="W3" s="809" t="s">
+      <c r="W3" s="661" t="s">
         <v>121</v>
       </c>
-      <c r="X3" s="810" t="s">
+      <c r="X3" s="662" t="s">
         <v>120</v>
       </c>
-      <c r="Y3" s="811" t="s">
+      <c r="Y3" s="663" t="s">
         <v>122</v>
       </c>
-      <c r="Z3" s="812" t="s">
+      <c r="Z3" s="664" t="s">
         <v>183</v>
       </c>
-      <c r="AA3" s="813" t="s">
+      <c r="AA3" s="665" t="s">
         <v>184</v>
       </c>
-      <c r="AB3" s="814" t="s">
+      <c r="AB3" s="666" t="s">
         <v>184</v>
       </c>
       <c r="AC3" s="581" t="s">
@@ -35582,19 +35925,19 @@
       </c>
       <c r="AM3" s="605"/>
       <c r="AN3" s="605"/>
-      <c r="AO3" s="814" t="s">
+      <c r="AO3" s="666" t="s">
         <v>184</v>
       </c>
-      <c r="AP3" s="815" t="s">
+      <c r="AP3" s="667" t="s">
         <v>185</v>
       </c>
-      <c r="AQ3" s="812" t="s">
+      <c r="AQ3" s="664" t="s">
         <v>403</v>
       </c>
-      <c r="AR3" s="816" t="s">
+      <c r="AR3" s="668" t="s">
         <v>185</v>
       </c>
-      <c r="AS3" s="817" t="s">
+      <c r="AS3" s="669" t="s">
         <v>403</v>
       </c>
       <c r="AT3" s="587" t="s">
@@ -35668,19 +36011,19 @@
       </c>
       <c r="BU3" s="605"/>
       <c r="BV3" s="605"/>
-      <c r="BW3" s="814" t="s">
+      <c r="BW3" s="666" t="s">
         <v>184</v>
       </c>
-      <c r="BX3" s="811" t="s">
+      <c r="BX3" s="663" t="s">
         <v>122</v>
       </c>
-      <c r="BY3" s="812" t="s">
+      <c r="BY3" s="664" t="s">
         <v>403</v>
       </c>
-      <c r="BZ3" s="812" t="s">
+      <c r="BZ3" s="664" t="s">
         <v>122</v>
       </c>
-      <c r="CA3" s="817" t="s">
+      <c r="CA3" s="669" t="s">
         <v>403</v>
       </c>
       <c r="CB3" s="607"/>
@@ -35696,28 +36039,28 @@
       <c r="CL3" s="609"/>
       <c r="CM3" s="609"/>
       <c r="CN3" s="609"/>
-      <c r="CO3" s="818" t="s">
+      <c r="CO3" s="670" t="s">
         <v>121</v>
       </c>
-      <c r="CP3" s="819" t="s">
+      <c r="CP3" s="671" t="s">
         <v>120</v>
       </c>
-      <c r="CQ3" s="819" t="s">
+      <c r="CQ3" s="671" t="s">
         <v>121</v>
       </c>
-      <c r="CR3" s="819" t="s">
+      <c r="CR3" s="671" t="s">
         <v>120</v>
       </c>
-      <c r="CS3" s="819" t="s">
+      <c r="CS3" s="671" t="s">
         <v>121</v>
       </c>
-      <c r="CT3" s="819" t="s">
+      <c r="CT3" s="671" t="s">
         <v>120</v>
       </c>
-      <c r="CU3" s="819" t="s">
+      <c r="CU3" s="671" t="s">
         <v>121</v>
       </c>
-      <c r="CV3" s="820" t="s">
+      <c r="CV3" s="672" t="s">
         <v>120</v>
       </c>
     </row>
@@ -35837,10 +36180,10 @@
       <c r="K5" s="597"/>
       <c r="L5" s="597"/>
       <c r="M5" s="597"/>
-      <c r="N5" s="825"/>
-      <c r="O5" s="826"/>
-      <c r="P5" s="827"/>
-      <c r="Q5" s="826"/>
+      <c r="N5" s="675"/>
+      <c r="O5" s="676"/>
+      <c r="P5" s="677"/>
+      <c r="Q5" s="676"/>
       <c r="R5" s="597"/>
       <c r="S5" s="597"/>
       <c r="T5" s="597"/>
@@ -35939,10 +36282,10 @@
       <c r="K6" s="597"/>
       <c r="L6" s="597"/>
       <c r="M6" s="597"/>
-      <c r="N6" s="825"/>
-      <c r="O6" s="826"/>
-      <c r="P6" s="827"/>
-      <c r="Q6" s="826"/>
+      <c r="N6" s="675"/>
+      <c r="O6" s="676"/>
+      <c r="P6" s="677"/>
+      <c r="Q6" s="676"/>
       <c r="R6" s="597"/>
       <c r="S6" s="597"/>
       <c r="T6" s="597"/>
@@ -40774,8 +41117,8 @@
       <c r="B2" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="705"/>
-      <c r="D2" s="705"/>
+      <c r="C2" s="762"/>
+      <c r="D2" s="762"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
       <c r="G2" s="111"/>
@@ -40900,32 +41243,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
-      <c r="B7" s="706" t="s">
+      <c r="B7" s="763" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="706"/>
-      <c r="D7" s="706"/>
+      <c r="C7" s="763"/>
+      <c r="D7" s="763"/>
       <c r="E7" s="111"/>
       <c r="F7" s="111"/>
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
-      <c r="J7" s="706" t="s">
+      <c r="J7" s="763" t="s">
         <v>200</v>
       </c>
-      <c r="K7" s="706"/>
-      <c r="L7" s="706"/>
+      <c r="K7" s="763"/>
+      <c r="L7" s="763"/>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
       <c r="O7" s="111"/>
       <c r="P7" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="Q7" s="706" t="s">
+      <c r="Q7" s="763" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="706"/>
-      <c r="S7" s="706"/>
+      <c r="R7" s="763"/>
+      <c r="S7" s="763"/>
       <c r="T7" s="111"/>
       <c r="U7" s="125" t="s">
         <v>202</v>
@@ -40959,41 +41302,41 @@
       <c r="B9" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="C9" s="707" t="s">
+      <c r="C9" s="764" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="708"/>
-      <c r="E9" s="707" t="s">
+      <c r="D9" s="765"/>
+      <c r="E9" s="764" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="708"/>
+      <c r="F9" s="765"/>
       <c r="G9" s="111"/>
       <c r="H9" s="111"/>
       <c r="I9" s="111"/>
       <c r="J9" s="126" t="s">
         <v>439</v>
       </c>
-      <c r="K9" s="707" t="s">
+      <c r="K9" s="764" t="s">
         <v>204</v>
       </c>
-      <c r="L9" s="708"/>
-      <c r="M9" s="707" t="s">
+      <c r="L9" s="765"/>
+      <c r="M9" s="764" t="s">
         <v>205</v>
       </c>
-      <c r="N9" s="708"/>
+      <c r="N9" s="765"/>
       <c r="O9" s="111"/>
       <c r="P9" s="111"/>
       <c r="Q9" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="R9" s="707" t="s">
+      <c r="R9" s="764" t="s">
         <v>204</v>
       </c>
-      <c r="S9" s="708"/>
-      <c r="T9" s="707" t="s">
+      <c r="S9" s="765"/>
+      <c r="T9" s="764" t="s">
         <v>205</v>
       </c>
-      <c r="U9" s="708"/>
+      <c r="U9" s="765"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
@@ -41055,10 +41398,10 @@
       </c>
       <c r="C11" s="131"/>
       <c r="D11" s="131"/>
-      <c r="E11" s="709" t="s">
+      <c r="E11" s="766" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="710"/>
+      <c r="F11" s="767"/>
       <c r="G11" s="132"/>
       <c r="H11" s="132"/>
       <c r="I11" s="132"/>
@@ -41067,10 +41410,10 @@
       </c>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
-      <c r="M11" s="712" t="s">
+      <c r="M11" s="769" t="s">
         <v>210</v>
       </c>
-      <c r="N11" s="713"/>
+      <c r="N11" s="770"/>
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
       <c r="Q11" s="130" t="s">
@@ -41078,10 +41421,10 @@
       </c>
       <c r="R11" s="131"/>
       <c r="S11" s="131"/>
-      <c r="T11" s="709" t="s">
+      <c r="T11" s="766" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="710"/>
+      <c r="U11" s="767"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
@@ -41316,10 +41659,10 @@
       </c>
       <c r="C20" s="426"/>
       <c r="D20" s="159"/>
-      <c r="E20" s="709" t="s">
+      <c r="E20" s="766" t="s">
         <v>455</v>
       </c>
-      <c r="F20" s="710"/>
+      <c r="F20" s="767"/>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
       <c r="I20" s="111"/>
@@ -41328,10 +41671,10 @@
       </c>
       <c r="K20" s="426"/>
       <c r="L20" s="159"/>
-      <c r="M20" s="709" t="s">
+      <c r="M20" s="766" t="s">
         <v>455</v>
       </c>
-      <c r="N20" s="710"/>
+      <c r="N20" s="767"/>
       <c r="O20" s="150"/>
       <c r="P20" s="150"/>
       <c r="Q20" s="130" t="s">
@@ -41339,10 +41682,10 @@
       </c>
       <c r="R20" s="426"/>
       <c r="S20" s="159"/>
-      <c r="T20" s="709" t="s">
+      <c r="T20" s="766" t="s">
         <v>455</v>
       </c>
-      <c r="U20" s="710"/>
+      <c r="U20" s="767"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
@@ -41606,10 +41949,10 @@
       </c>
       <c r="C30" s="426"/>
       <c r="D30" s="159"/>
-      <c r="E30" s="709" t="s">
+      <c r="E30" s="766" t="s">
         <v>455</v>
       </c>
-      <c r="F30" s="710"/>
+      <c r="F30" s="767"/>
       <c r="G30" s="140"/>
       <c r="H30" s="140"/>
       <c r="I30" s="111"/>
@@ -41618,10 +41961,10 @@
       </c>
       <c r="K30" s="426"/>
       <c r="L30" s="159"/>
-      <c r="M30" s="709" t="s">
+      <c r="M30" s="766" t="s">
         <v>455</v>
       </c>
-      <c r="N30" s="710"/>
+      <c r="N30" s="767"/>
       <c r="O30" s="150"/>
       <c r="P30" s="150"/>
       <c r="Q30" s="130" t="s">
@@ -41629,10 +41972,10 @@
       </c>
       <c r="R30" s="426"/>
       <c r="S30" s="159"/>
-      <c r="T30" s="709" t="s">
+      <c r="T30" s="766" t="s">
         <v>455</v>
       </c>
-      <c r="U30" s="710"/>
+      <c r="U30" s="767"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="172"/>
@@ -41955,11 +42298,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="711"/>
-      <c r="C42" s="711"/>
-      <c r="D42" s="711"/>
-      <c r="E42" s="711"/>
-      <c r="F42" s="711"/>
+      <c r="B42" s="768"/>
+      <c r="C42" s="768"/>
+      <c r="D42" s="768"/>
+      <c r="E42" s="768"/>
+      <c r="F42" s="768"/>
       <c r="G42" s="150"/>
       <c r="H42" s="111"/>
       <c r="I42" s="150"/>
@@ -42155,8 +42498,8 @@
       <c r="B3" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="714"/>
-      <c r="D3" s="714"/>
+      <c r="C3" s="771"/>
+      <c r="D3" s="771"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="195"/>
@@ -42189,10 +42532,10 @@
       <c r="D10" s="203" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="715" t="s">
+      <c r="E10" s="772" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="716"/>
+      <c r="F10" s="773"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="204" t="s">
@@ -42343,10 +42686,10 @@
       <c r="D30" s="215" t="s">
         <v>236</v>
       </c>
-      <c r="E30" s="715" t="s">
+      <c r="E30" s="772" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="716"/>
+      <c r="F30" s="773"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="204" t="s">
@@ -42494,10 +42837,10 @@
       <c r="D49" s="215" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="715" t="s">
+      <c r="E49" s="772" t="s">
         <v>237</v>
       </c>
-      <c r="F49" s="716"/>
+      <c r="F49" s="773"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="204" t="s">
@@ -42665,8 +43008,8 @@
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
-      <c r="E2" s="705"/>
-      <c r="F2" s="705"/>
+      <c r="E2" s="762"/>
+      <c r="F2" s="762"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="112"/>
@@ -42698,13 +43041,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
-      <c r="B6" s="706" t="s">
+      <c r="B6" s="763" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="706"/>
-      <c r="D6" s="706"/>
-      <c r="E6" s="706"/>
-      <c r="F6" s="706"/>
+      <c r="C6" s="763"/>
+      <c r="D6" s="763"/>
+      <c r="E6" s="763"/>
+      <c r="F6" s="763"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
@@ -42719,14 +43062,14 @@
       <c r="B8" s="462" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="717" t="s">
+      <c r="C8" s="774" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="718"/>
-      <c r="E8" s="719" t="s">
+      <c r="D8" s="775"/>
+      <c r="E8" s="776" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="718"/>
+      <c r="F8" s="775"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
@@ -42862,11 +43205,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
-      <c r="B22" s="711"/>
-      <c r="C22" s="711"/>
-      <c r="D22" s="711"/>
-      <c r="E22" s="711"/>
-      <c r="F22" s="711"/>
+      <c r="B22" s="768"/>
+      <c r="C22" s="768"/>
+      <c r="D22" s="768"/>
+      <c r="E22" s="768"/>
+      <c r="F22" s="768"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
@@ -42935,14 +43278,14 @@
     <col min="11" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="B2" s="720" t="s">
+    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="777" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="821" t="s">
+      <c r="C2" s="778" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="821" t="s">
+      <c r="D2" s="778" t="s">
         <v>150</v>
       </c>
       <c r="E2" s="232" t="s">
@@ -42977,42 +43320,42 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="720"/>
-      <c r="C3" s="721"/>
-      <c r="D3" s="721"/>
-      <c r="E3" s="822" t="s">
+      <c r="B3" s="777"/>
+      <c r="C3" s="779"/>
+      <c r="D3" s="779"/>
+      <c r="E3" s="673" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="822" t="s">
+      <c r="F3" s="673" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="822" t="s">
+      <c r="G3" s="673" t="s">
         <v>264</v>
       </c>
-      <c r="H3" s="822" t="s">
+      <c r="H3" s="673" t="s">
         <v>264</v>
       </c>
-      <c r="I3" s="822" t="s">
+      <c r="I3" s="673" t="s">
         <v>264</v>
       </c>
-      <c r="J3" s="822" t="s">
+      <c r="J3" s="673" t="s">
         <v>264</v>
       </c>
-      <c r="K3" s="823" t="s">
+      <c r="K3" s="674" t="s">
         <v>265</v>
       </c>
-      <c r="L3" s="823" t="s">
+      <c r="L3" s="674" t="s">
         <v>265</v>
       </c>
-      <c r="M3" s="823" t="s">
+      <c r="M3" s="674" t="s">
         <v>265</v>
       </c>
-      <c r="N3" s="823" t="s">
+      <c r="N3" s="674" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="722" t="s">
+      <c r="B4" s="780" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="233" t="s">
@@ -43030,8 +43373,8 @@
       <c r="M4" s="235"/>
       <c r="N4" s="235"/>
     </row>
-    <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="722"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="780"/>
       <c r="C5" s="233" t="s">
         <v>60</v>
       </c>
@@ -43047,8 +43390,8 @@
       <c r="M5" s="235"/>
       <c r="N5" s="235"/>
     </row>
-    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="824"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="781"/>
       <c r="C6" s="563" t="s">
         <v>459</v>
       </c>
@@ -43162,24 +43505,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="589" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="723" t="s">
+      <c r="A1" s="782" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="724"/>
-      <c r="C1" s="725"/>
-      <c r="D1" s="726" t="s">
+      <c r="B1" s="783"/>
+      <c r="C1" s="784"/>
+      <c r="D1" s="785" t="s">
         <v>464</v>
       </c>
-      <c r="E1" s="726"/>
-      <c r="F1" s="727"/>
-      <c r="G1" s="736" t="s">
+      <c r="E1" s="785"/>
+      <c r="F1" s="786"/>
+      <c r="G1" s="795" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="737"/>
-      <c r="I1" s="737"/>
-      <c r="J1" s="737"/>
-      <c r="K1" s="738"/>
-      <c r="L1" s="728" t="s">
+      <c r="H1" s="796"/>
+      <c r="I1" s="796"/>
+      <c r="J1" s="796"/>
+      <c r="K1" s="797"/>
+      <c r="L1" s="787" t="s">
         <v>270</v>
       </c>
     </row>
@@ -43217,7 +43560,7 @@
       <c r="K2" s="251" t="s">
         <v>274</v>
       </c>
-      <c r="L2" s="729"/>
+      <c r="L2" s="788"/>
     </row>
     <row r="3" spans="1:12" s="589" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="252"/>
@@ -43225,19 +43568,19 @@
       <c r="C3" s="254" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="730" t="s">
+      <c r="D3" s="789" t="s">
         <v>275</v>
       </c>
-      <c r="E3" s="731"/>
-      <c r="F3" s="732"/>
-      <c r="G3" s="733" t="s">
+      <c r="E3" s="790"/>
+      <c r="F3" s="791"/>
+      <c r="G3" s="792" t="s">
         <v>275</v>
       </c>
-      <c r="H3" s="734"/>
-      <c r="I3" s="734"/>
-      <c r="J3" s="734"/>
-      <c r="K3" s="735"/>
-      <c r="L3" s="729"/>
+      <c r="H3" s="793"/>
+      <c r="I3" s="793"/>
+      <c r="J3" s="793"/>
+      <c r="K3" s="794"/>
+      <c r="L3" s="788"/>
     </row>
     <row r="4" spans="1:12" s="589" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="252"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.vincent\Documents\siif\20181022\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.vincent\Documents\siif\20181024\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="17" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="546">
   <si>
     <t>Sensitive areas reported for reference date</t>
   </si>
@@ -2200,7 +2200,7 @@
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="77" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2751,6 +2751,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="43">
@@ -3920,7 +3928,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="839">
+  <cellXfs count="840">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5567,6 +5575,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="76" fillId="42" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="77" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6009,9 +6023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="76" fillId="42" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink 2" xfId="9"/>
@@ -6198,6 +6209,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF333300"/>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF663300"/>
       <color rgb="FF6600FF"/>
@@ -6206,8 +6219,6 @@
       <color rgb="FFFFCCCC"/>
       <color rgb="FF604A7B"/>
       <color rgb="FFCCC1DA"/>
-      <color rgb="FF660066"/>
-      <color rgb="FFCCCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -6266,6 +6277,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6342,12 +6354,13 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46DFFB82-EC97-4210-B72D-04D2B1B00EC1}" type="CELLRANGE">
+                    <a:fld id="{62F2E86C-083F-435F-8772-482FE995B353}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6365,6 +6378,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -6372,12 +6386,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4059B624-E533-456F-93DA-9C6127F43E56}" type="CELLRANGE">
+                    <a:fld id="{51F33832-80FC-4287-898B-808E5E653548}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6395,6 +6410,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6403,12 +6419,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60B85D52-FF8D-4E2D-9C05-FC9898F84326}" type="CELLRANGE">
+                    <a:fld id="{2D58B840-B8CC-47D1-A17F-6BB98A1BCA3C}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6426,6 +6443,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6471,6 +6489,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6577,12 +6596,13 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6639160-F3AB-496A-833E-A4412FF7F3F2}" type="CELLRANGE">
+                    <a:fld id="{6436A324-10C8-45FB-B520-CC0FFB67F1A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6600,6 +6620,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -6607,12 +6628,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4690637A-AF1A-45E9-9BD7-E7D4E8C22473}" type="CELLRANGE">
+                    <a:fld id="{B753F9E7-DB98-4E30-8C03-B471B572CFCD}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6630,6 +6652,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6638,12 +6661,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EADC2E5-9592-42CC-BF3C-0A84951AB3BC}" type="CELLRANGE">
+                    <a:fld id="{BDDF6030-4E13-430B-85F2-F0D24B2A471E}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6661,6 +6685,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6706,6 +6731,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6793,11 +6819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1304513392"/>
-        <c:axId val="-1304512848"/>
+        <c:axId val="-1989722032"/>
+        <c:axId val="-1989728560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1304513392"/>
+        <c:axId val="-1989722032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6840,7 +6866,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1304512848"/>
+        <c:crossAx val="-1989728560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6848,7 +6874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1304512848"/>
+        <c:axId val="-1989728560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6880,6 +6906,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6940,7 +6967,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1304513392"/>
+        <c:crossAx val="-1989722032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7075,6 +7102,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7326,11 +7354,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300273824"/>
-        <c:axId val="-1300268384"/>
+        <c:axId val="-1989728016"/>
+        <c:axId val="-1989719312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300273824"/>
+        <c:axId val="-1989728016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7362,6 +7390,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7428,7 +7457,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300268384"/>
+        <c:crossAx val="-1989719312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7436,7 +7465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300268384"/>
+        <c:axId val="-1989719312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7556,7 +7585,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300273824"/>
+        <c:crossAx val="-1989728016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7686,6 +7715,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8440,11 +8470,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300272192"/>
-        <c:axId val="-1300264032"/>
+        <c:axId val="-1989726384"/>
+        <c:axId val="-1989722576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300272192"/>
+        <c:axId val="-1989726384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8547,7 +8577,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300264032"/>
+        <c:crossAx val="-1989722576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8555,7 +8585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300264032"/>
+        <c:axId val="-1989722576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8606,7 +8636,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300272192"/>
+        <c:crossAx val="-1989726384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8971,11 +9001,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300276544"/>
-        <c:axId val="-1300270560"/>
+        <c:axId val="-1989717680"/>
+        <c:axId val="-1989716048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300276544"/>
+        <c:axId val="-1989717680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9086,7 +9116,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300270560"/>
+        <c:crossAx val="-1989716048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9094,7 +9124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300270560"/>
+        <c:axId val="-1989716048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9200,7 +9230,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300276544"/>
+        <c:crossAx val="-1989717680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9570,11 +9600,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300267296"/>
-        <c:axId val="-1300276000"/>
+        <c:axId val="-1989725296"/>
+        <c:axId val="-1989719856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300267296"/>
+        <c:axId val="-1989725296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9685,7 +9715,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300276000"/>
+        <c:crossAx val="-1989719856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9693,7 +9723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300276000"/>
+        <c:axId val="-1989719856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9807,7 +9837,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300267296"/>
+        <c:crossAx val="-1989725296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9942,6 +9972,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10288,11 +10319,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300270016"/>
-        <c:axId val="-1300263488"/>
+        <c:axId val="-1989718768"/>
+        <c:axId val="-1989718224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300270016"/>
+        <c:axId val="-1989718768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10398,7 +10429,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300263488"/>
+        <c:crossAx val="-1989718224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10406,7 +10437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300263488"/>
+        <c:axId val="-1989718224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10528,7 +10559,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300270016"/>
+        <c:crossAx val="-1989718768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10864,11 +10895,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300269472"/>
-        <c:axId val="-1300265120"/>
+        <c:axId val="-1989717136"/>
+        <c:axId val="-1989715504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300269472"/>
+        <c:axId val="-1989717136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10979,7 +11010,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300265120"/>
+        <c:crossAx val="-1989715504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10987,7 +11018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300265120"/>
+        <c:axId val="-1989715504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11101,7 +11132,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300269472"/>
+        <c:crossAx val="-1989717136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11437,11 +11468,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300262400"/>
-        <c:axId val="-1300268928"/>
+        <c:axId val="-1987468016"/>
+        <c:axId val="-1987468560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300262400"/>
+        <c:axId val="-1987468016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11552,7 +11583,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300268928"/>
+        <c:crossAx val="-1987468560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11560,7 +11591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300268928"/>
+        <c:axId val="-1987468560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11674,7 +11705,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300262400"/>
+        <c:crossAx val="-1987468016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11809,6 +11840,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12055,11 +12087,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300277632"/>
-        <c:axId val="-1300271104"/>
+        <c:axId val="-1987473456"/>
+        <c:axId val="-1987470192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300277632"/>
+        <c:axId val="-1987473456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12091,6 +12123,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12157,7 +12190,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300271104"/>
+        <c:crossAx val="-1987470192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12165,7 +12198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300271104"/>
+        <c:axId val="-1987470192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12284,7 +12317,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300277632"/>
+        <c:crossAx val="-1987473456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12789,11 +12822,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1300275456"/>
-        <c:axId val="-1300272736"/>
+        <c:axId val="-1987475632"/>
+        <c:axId val="-1987474544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300275456"/>
+        <c:axId val="-1987475632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12836,7 +12869,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300272736"/>
+        <c:crossAx val="-1987474544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12844,7 +12877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300272736"/>
+        <c:axId val="-1987474544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12950,7 +12983,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300275456"/>
+        <c:crossAx val="-1987475632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13075,6 +13108,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13151,12 +13185,13 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{012F04F7-A534-486E-8336-B485FB9EE501}" type="CELLRANGE">
+                    <a:fld id="{5173D7CE-2C95-4584-8C0A-96B9CA809F47}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13174,6 +13209,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -13181,12 +13217,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDB3AF30-4049-4B1B-8594-EF4BC721BB6C}" type="CELLRANGE">
+                    <a:fld id="{CEAAA4D9-8776-40CD-9ACF-48DDE5164D11}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13204,6 +13241,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13212,12 +13250,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D293D90-ED98-4746-8B5C-0CF860BC6DD4}" type="CELLRANGE">
+                    <a:fld id="{A0F27F48-D8CF-4B63-A31A-3468F562054F}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13235,6 +13274,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13280,6 +13320,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13386,12 +13427,13 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47633502-74A1-45E7-A2D7-B4FBDEAEDD89}" type="CELLRANGE">
+                    <a:fld id="{4BB92A20-24BF-4B4D-AEB2-FBB27C6B1F03}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13409,6 +13451,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -13416,12 +13459,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F41DD68-1CDE-4915-A16A-E2AFEC0B80D2}" type="CELLRANGE">
+                    <a:fld id="{FF6568E4-7599-4C53-BB3A-8693A87E91FD}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13439,6 +13483,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13447,12 +13492,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{449A2049-479A-46C7-91E2-7D430F48249D}" type="CELLRANGE">
+                    <a:fld id="{402E5C3B-FCD3-4CC2-A62E-4F0FA16C0817}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13470,6 +13516,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13515,6 +13562,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13602,11 +13650,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1304511760"/>
-        <c:axId val="-1304518832"/>
+        <c:axId val="-1989725840"/>
+        <c:axId val="-1989723664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1304511760"/>
+        <c:axId val="-1989725840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13638,6 +13686,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13704,7 +13753,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1304518832"/>
+        <c:crossAx val="-1989723664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13712,7 +13761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1304518832"/>
+        <c:axId val="-1989723664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13812,7 +13861,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1304511760"/>
+        <c:crossAx val="-1989725840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13836,6 +13885,556 @@
           <c:h val="0.387786093462337"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Distance to compliance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AA$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$129:$Z$131</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Collection 
+[#current_year#]  : target 0 p.e.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Secondary treatment 
+[#current_year#]  : target 0 p.e.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tertiary treatment 
+[#current_year#]  : target 0 p.e.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AA$129:$AA$131</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AB$128</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$129:$Z$131</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Collection 
+[#current_year#]  : target 0 p.e.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Secondary treatment 
+[#current_year#]  : target 0 p.e.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tertiary treatment 
+[#current_year#]  : target 0 p.e.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AB$129:$AB$131</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1987466928"/>
+        <c:axId val="-1987469648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1987466928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1987469648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1987469648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1987466928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13942,6 +14541,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14172,7 +14772,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -14376,6 +14978,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14730,11 +15333,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1304511216"/>
-        <c:axId val="-1304510672"/>
+        <c:axId val="-1989723120"/>
+        <c:axId val="-1989729648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1304511216"/>
+        <c:axId val="-1989723120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14766,6 +15369,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14832,7 +15436,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1304510672"/>
+        <c:crossAx val="-1989729648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14840,7 +15444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1304510672"/>
+        <c:axId val="-1989729648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14886,6 +15490,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14946,7 +15551,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1304511216"/>
+        <c:crossAx val="-1989723120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15077,6 +15682,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15404,11 +16010,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1416690128"/>
-        <c:axId val="-1416686864"/>
+        <c:axId val="-1989724752"/>
+        <c:axId val="-1989730736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1416690128"/>
+        <c:axId val="-1989724752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15440,6 +16046,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15506,7 +16113,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416686864"/>
+        <c:crossAx val="-1989730736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15514,7 +16121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1416686864"/>
+        <c:axId val="-1989730736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15614,7 +16221,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1416690128"/>
+        <c:crossAx val="-1989724752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15745,6 +16352,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16072,11 +16680,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1300264576"/>
-        <c:axId val="-1300262944"/>
+        <c:axId val="-1989716592"/>
+        <c:axId val="-1989727472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300264576"/>
+        <c:axId val="-1989716592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16108,6 +16716,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16174,7 +16783,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300262944"/>
+        <c:crossAx val="-1989727472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16182,7 +16791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300262944"/>
+        <c:axId val="-1989727472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16282,7 +16891,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300264576"/>
+        <c:crossAx val="-1989716592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16418,6 +17027,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16813,11 +17423,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300274912"/>
-        <c:axId val="-1300271648"/>
+        <c:axId val="-1989720400"/>
+        <c:axId val="-1989726928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300274912"/>
+        <c:axId val="-1989720400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16860,7 +17470,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300271648"/>
+        <c:crossAx val="-1989726928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16868,7 +17478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300271648"/>
+        <c:axId val="-1989726928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16919,6 +17529,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16979,7 +17590,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300274912"/>
+        <c:crossAx val="-1989720400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17509,11 +18120,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300267840"/>
-        <c:axId val="-1300274368"/>
+        <c:axId val="-1989724208"/>
+        <c:axId val="-1989730192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300267840"/>
+        <c:axId val="-1989724208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17556,7 +18167,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300274368"/>
+        <c:crossAx val="-1989730192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17564,7 +18175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300274368"/>
+        <c:axId val="-1989730192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17683,7 +18294,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300267840"/>
+        <c:crossAx val="-1989724208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17777,6 +18388,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18023,11 +18635,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1300277088"/>
-        <c:axId val="-1300273280"/>
+        <c:axId val="-1989721488"/>
+        <c:axId val="-1989729104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1300277088"/>
+        <c:axId val="-1989721488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18056,6 +18668,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18122,7 +18735,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300273280"/>
+        <c:crossAx val="-1989729104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18130,7 +18743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1300273280"/>
+        <c:axId val="-1989729104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -18250,7 +18863,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1300277088"/>
+        <c:crossAx val="-1989721488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18820,6 +19433,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25208,6 +25861,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -29355,6 +30511,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260536</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29981,23 +31167,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="574" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="690" t="s">
+      <c r="A1" s="694" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="691"/>
-      <c r="C1" s="691"/>
-      <c r="D1" s="691"/>
+      <c r="B1" s="695"/>
+      <c r="C1" s="695"/>
+      <c r="D1" s="695"/>
       <c r="E1" s="565"/>
-      <c r="F1" s="807" t="s">
+      <c r="F1" s="811" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="808"/>
-      <c r="H1" s="808"/>
+      <c r="G1" s="812"/>
+      <c r="H1" s="812"/>
       <c r="I1" s="570"/>
       <c r="J1" s="255"/>
       <c r="K1" s="570"/>
       <c r="L1" s="256"/>
-      <c r="M1" s="802" t="s">
+      <c r="M1" s="806" t="s">
         <v>272</v>
       </c>
       <c r="N1" s="257"/>
@@ -30009,19 +31195,19 @@
       <c r="R1" s="255"/>
       <c r="S1" s="570"/>
       <c r="T1" s="256"/>
-      <c r="U1" s="802" t="s">
+      <c r="U1" s="806" t="s">
         <v>274</v>
       </c>
       <c r="V1" s="257"/>
-      <c r="W1" s="809" t="s">
+      <c r="W1" s="813" t="s">
         <v>275</v>
       </c>
-      <c r="X1" s="809"/>
-      <c r="Y1" s="809"/>
-      <c r="Z1" s="809"/>
-      <c r="AA1" s="809"/>
-      <c r="AB1" s="810"/>
-      <c r="AC1" s="802" t="s">
+      <c r="X1" s="813"/>
+      <c r="Y1" s="813"/>
+      <c r="Z1" s="813"/>
+      <c r="AA1" s="813"/>
+      <c r="AB1" s="814"/>
+      <c r="AC1" s="806" t="s">
         <v>276</v>
       </c>
     </row>
@@ -30035,52 +31221,52 @@
       <c r="C2" s="569" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="804" t="s">
+      <c r="D2" s="808" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="804"/>
+      <c r="E2" s="808"/>
       <c r="F2" s="259"/>
-      <c r="G2" s="805" t="s">
+      <c r="G2" s="809" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="805"/>
-      <c r="I2" s="805" t="s">
+      <c r="H2" s="809"/>
+      <c r="I2" s="809" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="805"/>
-      <c r="K2" s="805" t="s">
+      <c r="J2" s="809"/>
+      <c r="K2" s="809" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="806"/>
-      <c r="M2" s="803"/>
+      <c r="L2" s="810"/>
+      <c r="M2" s="807"/>
       <c r="N2" s="260"/>
-      <c r="O2" s="805" t="s">
+      <c r="O2" s="809" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="805"/>
-      <c r="Q2" s="805" t="s">
+      <c r="P2" s="809"/>
+      <c r="Q2" s="809" t="s">
         <v>161</v>
       </c>
-      <c r="R2" s="805"/>
-      <c r="S2" s="805" t="s">
+      <c r="R2" s="809"/>
+      <c r="S2" s="809" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="806"/>
-      <c r="U2" s="803"/>
+      <c r="T2" s="810"/>
+      <c r="U2" s="807"/>
       <c r="V2" s="260"/>
-      <c r="W2" s="805" t="s">
+      <c r="W2" s="809" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="805"/>
-      <c r="Y2" s="805" t="s">
+      <c r="X2" s="809"/>
+      <c r="Y2" s="809" t="s">
         <v>161</v>
       </c>
-      <c r="Z2" s="805"/>
-      <c r="AA2" s="805" t="s">
+      <c r="Z2" s="809"/>
+      <c r="AA2" s="809" t="s">
         <v>162</v>
       </c>
-      <c r="AB2" s="806"/>
-      <c r="AC2" s="803"/>
+      <c r="AB2" s="810"/>
+      <c r="AC2" s="807"/>
     </row>
     <row r="3" spans="1:29" s="589" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
@@ -30449,8 +31635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="P104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z132" sqref="Z132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30475,35 +31661,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="811" t="s">
+      <c r="A1" s="815" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="812"/>
-      <c r="C1" s="812"/>
+      <c r="B1" s="816"/>
+      <c r="C1" s="816"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="820" t="s">
+      <c r="A3" s="824" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="822" t="s">
+      <c r="B3" s="826" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="823"/>
-      <c r="D3" s="818" t="s">
+      <c r="C3" s="827"/>
+      <c r="D3" s="822" t="s">
         <v>438</v>
       </c>
-      <c r="E3" s="819"/>
-      <c r="AA3" s="835" t="s">
+      <c r="E3" s="823"/>
+      <c r="AA3" s="839" t="s">
         <v>332</v>
       </c>
-      <c r="AB3" s="835"/>
-      <c r="AC3" s="835" t="s">
+      <c r="AB3" s="839"/>
+      <c r="AC3" s="839" t="s">
         <v>416</v>
       </c>
-      <c r="AD3" s="835"/>
+      <c r="AD3" s="839"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="821"/>
+      <c r="A4" s="825"/>
       <c r="B4" s="311" t="s">
         <v>415</v>
       </c>
@@ -30646,14 +31832,14 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="363"/>
-      <c r="AA10" s="835" t="s">
+      <c r="AA10" s="839" t="s">
         <v>417</v>
       </c>
-      <c r="AB10" s="835"/>
-      <c r="AC10" s="835" t="s">
+      <c r="AB10" s="839"/>
+      <c r="AC10" s="839" t="s">
         <v>418</v>
       </c>
-      <c r="AD10" s="835"/>
+      <c r="AD10" s="839"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="363" t="s">
@@ -30698,7 +31884,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="820" t="s">
+      <c r="A13" s="824" t="s">
         <v>320</v>
       </c>
       <c r="B13" s="310" t="str">
@@ -30730,7 +31916,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="821"/>
+      <c r="A14" s="825"/>
       <c r="B14" s="313" t="s">
         <v>321</v>
       </c>
@@ -30816,27 +32002,27 @@
       <c r="A21" t="s">
         <v>422</v>
       </c>
-      <c r="B21" s="813" t="s">
+      <c r="B21" s="817" t="s">
         <v>431</v>
       </c>
-      <c r="C21" s="813"/>
-      <c r="D21" s="813"/>
-      <c r="E21" s="813"/>
+      <c r="C21" s="817"/>
+      <c r="D21" s="817"/>
+      <c r="E21" s="817"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="315" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="824" t="str">
+      <c r="B22" s="828" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="825"/>
-      <c r="D22" s="824" t="str">
+      <c r="C22" s="829"/>
+      <c r="D22" s="828" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="825"/>
+      <c r="E22" s="829"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="316"/>
@@ -31211,16 +32397,16 @@
       <c r="A41" s="318" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="814" t="str">
+      <c r="B41" s="818" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="815"/>
-      <c r="D41" s="816" t="str">
+      <c r="C41" s="819"/>
+      <c r="D41" s="820" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="817"/>
+      <c r="E41" s="821"/>
       <c r="AA41" t="s">
         <v>412</v>
       </c>
@@ -31370,11 +32556,11 @@
       <c r="AA48" t="s">
         <v>422</v>
       </c>
-      <c r="AB48" s="813" t="s">
+      <c r="AB48" s="817" t="s">
         <v>443</v>
       </c>
-      <c r="AC48" s="813"/>
-      <c r="AD48" s="813"/>
+      <c r="AC48" s="817"/>
+      <c r="AD48" s="817"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="384" t="s">
@@ -31648,11 +32834,11 @@
       <c r="AA62" t="s">
         <v>422</v>
       </c>
-      <c r="AB62" s="813" t="s">
+      <c r="AB62" s="817" t="s">
         <v>444</v>
       </c>
-      <c r="AC62" s="813"/>
-      <c r="AD62" s="813"/>
+      <c r="AC62" s="817"/>
+      <c r="AD62" s="817"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="312"/>
@@ -31887,12 +33073,12 @@
       <c r="A74" s="530" t="s">
         <v>426</v>
       </c>
-      <c r="B74" s="813" t="s">
+      <c r="B74" s="817" t="s">
         <v>427</v>
       </c>
-      <c r="C74" s="813"/>
-      <c r="D74" s="813"/>
-      <c r="E74" s="813"/>
+      <c r="C74" s="817"/>
+      <c r="D74" s="817"/>
+      <c r="E74" s="817"/>
     </row>
     <row r="75" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="333" t="s">
@@ -32185,16 +33371,16 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="828" t="str">
+      <c r="B85" s="832" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="829"/>
-      <c r="D85" s="828" t="str">
+      <c r="C85" s="833"/>
+      <c r="D85" s="832" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="829"/>
+      <c r="E85" s="833"/>
       <c r="Z85" t="s">
         <v>401</v>
       </c>
@@ -32208,14 +33394,14 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="201"/>
-      <c r="B86" s="830" t="s">
+      <c r="B86" s="834" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="777"/>
-      <c r="D86" s="830" t="s">
+      <c r="C86" s="781"/>
+      <c r="D86" s="834" t="s">
         <v>233</v>
       </c>
-      <c r="E86" s="777"/>
+      <c r="E86" s="781"/>
       <c r="Z86" s="341" t="s">
         <v>234</v>
       </c>
@@ -32421,27 +33607,27 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="828" t="str">
+      <c r="B101" s="832" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="829"/>
-      <c r="D101" s="828" t="str">
+      <c r="C101" s="833"/>
+      <c r="D101" s="832" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="829"/>
+      <c r="E101" s="833"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="201"/>
-      <c r="B102" s="830" t="s">
+      <c r="B102" s="834" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="777"/>
-      <c r="D102" s="830" t="s">
+      <c r="C102" s="781"/>
+      <c r="D102" s="834" t="s">
         <v>233</v>
       </c>
-      <c r="E102" s="777"/>
+      <c r="E102" s="781"/>
       <c r="Z102" t="s">
         <v>401</v>
       </c>
@@ -32655,27 +33841,27 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="831" t="str">
+      <c r="B116" s="835" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="832"/>
-      <c r="D116" s="831" t="str">
+      <c r="C116" s="836"/>
+      <c r="D116" s="835" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="832"/>
+      <c r="E116" s="836"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="346"/>
-      <c r="B117" s="833" t="s">
+      <c r="B117" s="837" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="834"/>
-      <c r="D117" s="833" t="s">
+      <c r="C117" s="838"/>
+      <c r="D117" s="837" t="s">
         <v>233</v>
       </c>
-      <c r="E117" s="834"/>
+      <c r="E117" s="838"/>
       <c r="Z117" t="s">
         <v>401</v>
       </c>
@@ -32891,18 +34077,44 @@
       <c r="D127" s="488"/>
       <c r="E127" s="319"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z128" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA128" s="537" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB128" s="689" t="str">
+        <f>B3</f>
+        <v xml:space="preserve">[#current_year#] </v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="350" t="s">
         <v>320</v>
       </c>
-      <c r="B129" s="826" t="str">
+      <c r="B129" s="830" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="827"/>
-      <c r="D129" s="827"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="831"/>
+      <c r="D129" s="831"/>
+      <c r="Z129" t="str">
+        <f>CONCATENATE("Collection 
+", B3, " : target ", AB118, " p.e.")</f>
+        <v>Collection 
+[#current_year#]  : target 0 p.e.</v>
+      </c>
+      <c r="AA129" s="364">
+        <f>E120</f>
+        <v>0</v>
+      </c>
+      <c r="AB129" s="364">
+        <f>C120</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="351"/>
       <c r="B130" s="352" t="s">
         <v>124</v>
@@ -32913,8 +34125,22 @@
       <c r="D130" s="353" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Z130" t="str">
+        <f>CONCATENATE("Secondary treatment 
+", B3, " : target ", AB120, " p.e.")</f>
+        <v>Secondary treatment 
+[#current_year#]  : target 0 p.e.</v>
+      </c>
+      <c r="AA130" s="364">
+        <f>E122+E123</f>
+        <v>0</v>
+      </c>
+      <c r="AB130" s="364">
+        <f>C122+C123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="354" t="s">
         <v>361</v>
       </c>
@@ -32923,8 +34149,22 @@
       </c>
       <c r="C131" s="375"/>
       <c r="D131" s="486"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Z131" t="str">
+        <f>CONCATENATE("Tertiary treatment 
+", B3, " : target ", AB123, " p.e.")</f>
+        <v>Tertiary treatment 
+[#current_year#]  : target 0 p.e.</v>
+      </c>
+      <c r="AA131" s="364">
+        <f>E125+E126</f>
+        <v>0</v>
+      </c>
+      <c r="AB131" s="364">
+        <f>C125+C126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="312" t="s">
         <v>362</v>
       </c>
@@ -32932,7 +34172,7 @@
       <c r="C132" s="319"/>
       <c r="D132" s="396"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="312" t="s">
         <v>236</v>
       </c>
@@ -32940,7 +34180,7 @@
       <c r="C133" s="319"/>
       <c r="D133" s="396"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="312" t="s">
         <v>363</v>
       </c>
@@ -32948,7 +34188,7 @@
       <c r="C134" s="319"/>
       <c r="D134" s="396"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="312" t="s">
         <v>364</v>
       </c>
@@ -32956,7 +34196,7 @@
       <c r="C135" s="319"/>
       <c r="D135" s="396"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="312" t="s">
         <v>365</v>
       </c>
@@ -32964,7 +34204,7 @@
       <c r="C136" s="319"/>
       <c r="D136" s="396"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="312" t="s">
         <v>366</v>
       </c>
@@ -32972,7 +34212,7 @@
       <c r="C137" s="319"/>
       <c r="D137" s="396"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="312" t="s">
         <v>367</v>
       </c>
@@ -32980,7 +34220,7 @@
       <c r="C138" s="319"/>
       <c r="D138" s="396"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="312" t="s">
         <v>368</v>
       </c>
@@ -32988,7 +34228,7 @@
       <c r="C139" s="319"/>
       <c r="D139" s="396"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B140" s="355"/>
     </row>
     <row r="147" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
@@ -33882,7 +35122,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33985,54 +35225,54 @@
       <c r="AR3" s="5"/>
     </row>
     <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="686" t="s">
+      <c r="A4" s="690" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="687"/>
-      <c r="C4" s="687"/>
-      <c r="D4" s="687"/>
-      <c r="E4" s="688"/>
-      <c r="F4" s="688"/>
-      <c r="G4" s="688"/>
-      <c r="H4" s="688"/>
-      <c r="I4" s="688"/>
-      <c r="J4" s="688"/>
-      <c r="K4" s="688"/>
-      <c r="L4" s="688"/>
-      <c r="M4" s="688"/>
-      <c r="N4" s="688"/>
-      <c r="O4" s="688"/>
-      <c r="P4" s="688"/>
-      <c r="Q4" s="688"/>
-      <c r="R4" s="688"/>
-      <c r="S4" s="688"/>
-      <c r="T4" s="688"/>
-      <c r="U4" s="688"/>
-      <c r="V4" s="688"/>
-      <c r="W4" s="688"/>
-      <c r="X4" s="688"/>
-      <c r="Y4" s="688"/>
-      <c r="Z4" s="688"/>
-      <c r="AA4" s="688"/>
-      <c r="AB4" s="688"/>
-      <c r="AC4" s="688"/>
-      <c r="AD4" s="688"/>
-      <c r="AE4" s="688"/>
-      <c r="AF4" s="688"/>
-      <c r="AG4" s="688"/>
-      <c r="AH4" s="688"/>
-      <c r="AI4" s="688"/>
-      <c r="AJ4" s="688"/>
-      <c r="AK4" s="688"/>
-      <c r="AL4" s="688"/>
-      <c r="AM4" s="688"/>
-      <c r="AN4" s="688"/>
-      <c r="AO4" s="688"/>
-      <c r="AP4" s="688"/>
-      <c r="AQ4" s="689" t="s">
+      <c r="B4" s="691"/>
+      <c r="C4" s="691"/>
+      <c r="D4" s="691"/>
+      <c r="E4" s="692"/>
+      <c r="F4" s="692"/>
+      <c r="G4" s="692"/>
+      <c r="H4" s="692"/>
+      <c r="I4" s="692"/>
+      <c r="J4" s="692"/>
+      <c r="K4" s="692"/>
+      <c r="L4" s="692"/>
+      <c r="M4" s="692"/>
+      <c r="N4" s="692"/>
+      <c r="O4" s="692"/>
+      <c r="P4" s="692"/>
+      <c r="Q4" s="692"/>
+      <c r="R4" s="692"/>
+      <c r="S4" s="692"/>
+      <c r="T4" s="692"/>
+      <c r="U4" s="692"/>
+      <c r="V4" s="692"/>
+      <c r="W4" s="692"/>
+      <c r="X4" s="692"/>
+      <c r="Y4" s="692"/>
+      <c r="Z4" s="692"/>
+      <c r="AA4" s="692"/>
+      <c r="AB4" s="692"/>
+      <c r="AC4" s="692"/>
+      <c r="AD4" s="692"/>
+      <c r="AE4" s="692"/>
+      <c r="AF4" s="692"/>
+      <c r="AG4" s="692"/>
+      <c r="AH4" s="692"/>
+      <c r="AI4" s="692"/>
+      <c r="AJ4" s="692"/>
+      <c r="AK4" s="692"/>
+      <c r="AL4" s="692"/>
+      <c r="AM4" s="692"/>
+      <c r="AN4" s="692"/>
+      <c r="AO4" s="692"/>
+      <c r="AP4" s="692"/>
+      <c r="AQ4" s="693" t="s">
         <v>2</v>
       </c>
-      <c r="AR4" s="689"/>
+      <c r="AR4" s="693"/>
     </row>
     <row r="5" spans="1:44" s="573" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="299" t="s">
@@ -34194,7 +35434,7 @@
   <dimension ref="A1:CQ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
@@ -34220,123 +35460,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="574" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="690" t="s">
+      <c r="A1" s="694" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="691"/>
-      <c r="C1" s="691"/>
-      <c r="D1" s="691"/>
-      <c r="E1" s="691"/>
-      <c r="F1" s="691"/>
-      <c r="G1" s="691"/>
-      <c r="H1" s="692" t="s">
+      <c r="B1" s="695"/>
+      <c r="C1" s="695"/>
+      <c r="D1" s="695"/>
+      <c r="E1" s="695"/>
+      <c r="F1" s="695"/>
+      <c r="G1" s="695"/>
+      <c r="H1" s="696" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="693"/>
-      <c r="J1" s="693"/>
-      <c r="K1" s="693"/>
-      <c r="L1" s="693"/>
-      <c r="M1" s="694"/>
-      <c r="N1" s="695" t="s">
+      <c r="I1" s="697"/>
+      <c r="J1" s="697"/>
+      <c r="K1" s="697"/>
+      <c r="L1" s="697"/>
+      <c r="M1" s="698"/>
+      <c r="N1" s="699" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="696"/>
-      <c r="P1" s="696"/>
-      <c r="Q1" s="697"/>
-      <c r="R1" s="697"/>
-      <c r="S1" s="696"/>
-      <c r="T1" s="696"/>
-      <c r="U1" s="696"/>
-      <c r="V1" s="698" t="s">
+      <c r="O1" s="700"/>
+      <c r="P1" s="700"/>
+      <c r="Q1" s="701"/>
+      <c r="R1" s="701"/>
+      <c r="S1" s="700"/>
+      <c r="T1" s="700"/>
+      <c r="U1" s="700"/>
+      <c r="V1" s="702" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="699"/>
-      <c r="X1" s="700"/>
-      <c r="Y1" s="700"/>
-      <c r="Z1" s="701"/>
-      <c r="AA1" s="702" t="s">
+      <c r="W1" s="703"/>
+      <c r="X1" s="704"/>
+      <c r="Y1" s="704"/>
+      <c r="Z1" s="705"/>
+      <c r="AA1" s="706" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="703"/>
-      <c r="AC1" s="703"/>
-      <c r="AD1" s="703"/>
-      <c r="AE1" s="703"/>
-      <c r="AF1" s="703"/>
-      <c r="AG1" s="703"/>
-      <c r="AH1" s="703"/>
-      <c r="AI1" s="703"/>
-      <c r="AJ1" s="703"/>
-      <c r="AK1" s="703"/>
-      <c r="AL1" s="703"/>
-      <c r="AM1" s="703"/>
+      <c r="AB1" s="707"/>
+      <c r="AC1" s="707"/>
+      <c r="AD1" s="707"/>
+      <c r="AE1" s="707"/>
+      <c r="AF1" s="707"/>
+      <c r="AG1" s="707"/>
+      <c r="AH1" s="707"/>
+      <c r="AI1" s="707"/>
+      <c r="AJ1" s="707"/>
+      <c r="AK1" s="707"/>
+      <c r="AL1" s="707"/>
+      <c r="AM1" s="707"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="715" t="s">
+      <c r="AP1" s="719" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="696"/>
-      <c r="AR1" s="696"/>
-      <c r="AS1" s="696"/>
-      <c r="AT1" s="696"/>
-      <c r="AU1" s="696"/>
-      <c r="AV1" s="696"/>
-      <c r="AW1" s="716"/>
-      <c r="AX1" s="723" t="s">
+      <c r="AQ1" s="700"/>
+      <c r="AR1" s="700"/>
+      <c r="AS1" s="700"/>
+      <c r="AT1" s="700"/>
+      <c r="AU1" s="700"/>
+      <c r="AV1" s="700"/>
+      <c r="AW1" s="720"/>
+      <c r="AX1" s="727" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="724"/>
-      <c r="AZ1" s="724"/>
-      <c r="BA1" s="724"/>
-      <c r="BB1" s="724"/>
-      <c r="BC1" s="725"/>
-      <c r="BD1" s="726" t="s">
+      <c r="AY1" s="728"/>
+      <c r="AZ1" s="728"/>
+      <c r="BA1" s="728"/>
+      <c r="BB1" s="728"/>
+      <c r="BC1" s="729"/>
+      <c r="BD1" s="730" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="727"/>
-      <c r="BF1" s="727"/>
-      <c r="BG1" s="727"/>
-      <c r="BH1" s="727"/>
-      <c r="BI1" s="728"/>
-      <c r="BJ1" s="729" t="s">
+      <c r="BE1" s="731"/>
+      <c r="BF1" s="731"/>
+      <c r="BG1" s="731"/>
+      <c r="BH1" s="731"/>
+      <c r="BI1" s="732"/>
+      <c r="BJ1" s="733" t="s">
         <v>54</v>
       </c>
-      <c r="BK1" s="730"/>
-      <c r="BL1" s="730"/>
-      <c r="BM1" s="730"/>
-      <c r="BN1" s="730"/>
-      <c r="BO1" s="730"/>
-      <c r="BP1" s="731"/>
-      <c r="BQ1" s="704" t="s">
+      <c r="BK1" s="734"/>
+      <c r="BL1" s="734"/>
+      <c r="BM1" s="734"/>
+      <c r="BN1" s="734"/>
+      <c r="BO1" s="734"/>
+      <c r="BP1" s="735"/>
+      <c r="BQ1" s="708" t="s">
         <v>55</v>
       </c>
-      <c r="BR1" s="705"/>
-      <c r="BS1" s="705"/>
-      <c r="BT1" s="705"/>
-      <c r="BU1" s="705"/>
-      <c r="BV1" s="705"/>
+      <c r="BR1" s="709"/>
+      <c r="BS1" s="709"/>
+      <c r="BT1" s="709"/>
+      <c r="BU1" s="709"/>
+      <c r="BV1" s="709"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="706" t="s">
+      <c r="BY1" s="710" t="s">
         <v>56</v>
       </c>
-      <c r="BZ1" s="707"/>
-      <c r="CA1" s="707"/>
-      <c r="CB1" s="707"/>
-      <c r="CC1" s="707"/>
-      <c r="CD1" s="707"/>
-      <c r="CE1" s="707"/>
-      <c r="CF1" s="708"/>
-      <c r="CG1" s="708"/>
-      <c r="CH1" s="708"/>
-      <c r="CI1" s="708"/>
-      <c r="CJ1" s="708"/>
-      <c r="CK1" s="708"/>
-      <c r="CL1" s="708"/>
-      <c r="CM1" s="708"/>
-      <c r="CN1" s="708"/>
-      <c r="CO1" s="708"/>
-      <c r="CP1" s="708"/>
-      <c r="CQ1" s="708"/>
+      <c r="BZ1" s="711"/>
+      <c r="CA1" s="711"/>
+      <c r="CB1" s="711"/>
+      <c r="CC1" s="711"/>
+      <c r="CD1" s="711"/>
+      <c r="CE1" s="711"/>
+      <c r="CF1" s="712"/>
+      <c r="CG1" s="712"/>
+      <c r="CH1" s="712"/>
+      <c r="CI1" s="712"/>
+      <c r="CJ1" s="712"/>
+      <c r="CK1" s="712"/>
+      <c r="CL1" s="712"/>
+      <c r="CM1" s="712"/>
+      <c r="CN1" s="712"/>
+      <c r="CO1" s="712"/>
+      <c r="CP1" s="712"/>
+      <c r="CQ1" s="712"/>
     </row>
     <row r="2" spans="1:95" s="574" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -34360,18 +35600,18 @@
       <c r="G2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="709" t="s">
+      <c r="H2" s="713" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="710"/>
-      <c r="J2" s="710" t="s">
+      <c r="I2" s="714"/>
+      <c r="J2" s="714" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="710"/>
-      <c r="L2" s="710" t="s">
+      <c r="K2" s="714"/>
+      <c r="L2" s="714" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="711"/>
+      <c r="M2" s="715"/>
       <c r="N2" s="12" t="s">
         <v>57</v>
       </c>
@@ -34480,36 +35720,36 @@
       <c r="AW2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AX2" s="712" t="s">
+      <c r="AX2" s="716" t="s">
         <v>90</v>
       </c>
-      <c r="AY2" s="713"/>
-      <c r="AZ2" s="713"/>
-      <c r="BA2" s="713" t="s">
+      <c r="AY2" s="717"/>
+      <c r="AZ2" s="717"/>
+      <c r="BA2" s="717" t="s">
         <v>91</v>
       </c>
-      <c r="BB2" s="713"/>
-      <c r="BC2" s="714"/>
-      <c r="BD2" s="717" t="s">
+      <c r="BB2" s="717"/>
+      <c r="BC2" s="718"/>
+      <c r="BD2" s="721" t="s">
         <v>90</v>
       </c>
-      <c r="BE2" s="718"/>
-      <c r="BF2" s="718"/>
-      <c r="BG2" s="718" t="s">
+      <c r="BE2" s="722"/>
+      <c r="BF2" s="722"/>
+      <c r="BG2" s="722" t="s">
         <v>91</v>
       </c>
-      <c r="BH2" s="718"/>
-      <c r="BI2" s="719"/>
-      <c r="BJ2" s="720" t="s">
+      <c r="BH2" s="722"/>
+      <c r="BI2" s="723"/>
+      <c r="BJ2" s="724" t="s">
         <v>90</v>
       </c>
-      <c r="BK2" s="721"/>
-      <c r="BL2" s="721"/>
-      <c r="BM2" s="721" t="s">
+      <c r="BK2" s="725"/>
+      <c r="BL2" s="725"/>
+      <c r="BM2" s="725" t="s">
         <v>91</v>
       </c>
-      <c r="BN2" s="722"/>
-      <c r="BO2" s="722"/>
+      <c r="BN2" s="726"/>
+      <c r="BO2" s="726"/>
       <c r="BP2" s="24" t="s">
         <v>92</v>
       </c>
@@ -35550,7 +36790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -35622,124 +36862,124 @@
         <v>135</v>
       </c>
       <c r="L1" s="42"/>
-      <c r="M1" s="736" t="s">
+      <c r="M1" s="740" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="737" t="s">
+      <c r="N1" s="741" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="738"/>
-      <c r="P1" s="738"/>
-      <c r="Q1" s="738"/>
-      <c r="R1" s="739" t="s">
+      <c r="O1" s="742"/>
+      <c r="P1" s="742"/>
+      <c r="Q1" s="742"/>
+      <c r="R1" s="743" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="740"/>
-      <c r="T1" s="740"/>
-      <c r="U1" s="740"/>
-      <c r="V1" s="740"/>
-      <c r="W1" s="740"/>
-      <c r="X1" s="741"/>
-      <c r="Y1" s="742" t="s">
+      <c r="S1" s="744"/>
+      <c r="T1" s="744"/>
+      <c r="U1" s="744"/>
+      <c r="V1" s="744"/>
+      <c r="W1" s="744"/>
+      <c r="X1" s="745"/>
+      <c r="Y1" s="746" t="s">
         <v>139</v>
       </c>
-      <c r="Z1" s="743"/>
-      <c r="AA1" s="746" t="s">
+      <c r="Z1" s="747"/>
+      <c r="AA1" s="750" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" s="748" t="s">
+      <c r="AB1" s="752" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="756" t="s">
+      <c r="AC1" s="760" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" s="757"/>
-      <c r="AE1" s="757"/>
-      <c r="AF1" s="758"/>
-      <c r="AG1" s="759" t="s">
+      <c r="AD1" s="761"/>
+      <c r="AE1" s="761"/>
+      <c r="AF1" s="762"/>
+      <c r="AG1" s="763" t="s">
         <v>142</v>
       </c>
-      <c r="AH1" s="740"/>
-      <c r="AI1" s="740"/>
-      <c r="AJ1" s="740"/>
-      <c r="AK1" s="740"/>
-      <c r="AL1" s="740"/>
-      <c r="AM1" s="740"/>
-      <c r="AN1" s="740"/>
-      <c r="AO1" s="748" t="s">
+      <c r="AH1" s="744"/>
+      <c r="AI1" s="744"/>
+      <c r="AJ1" s="744"/>
+      <c r="AK1" s="744"/>
+      <c r="AL1" s="744"/>
+      <c r="AM1" s="744"/>
+      <c r="AN1" s="744"/>
+      <c r="AO1" s="752" t="s">
         <v>143</v>
       </c>
-      <c r="AP1" s="742" t="s">
+      <c r="AP1" s="746" t="s">
         <v>144</v>
       </c>
-      <c r="AQ1" s="743"/>
-      <c r="AR1" s="743"/>
-      <c r="AS1" s="728"/>
-      <c r="AT1" s="760" t="s">
+      <c r="AQ1" s="747"/>
+      <c r="AR1" s="747"/>
+      <c r="AS1" s="732"/>
+      <c r="AT1" s="764" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="761"/>
-      <c r="AV1" s="761"/>
-      <c r="AW1" s="761"/>
-      <c r="AX1" s="761"/>
-      <c r="AY1" s="761"/>
-      <c r="AZ1" s="761"/>
-      <c r="BA1" s="761"/>
-      <c r="BB1" s="761"/>
-      <c r="BC1" s="761"/>
-      <c r="BD1" s="761"/>
-      <c r="BE1" s="761"/>
-      <c r="BF1" s="761"/>
-      <c r="BG1" s="761"/>
-      <c r="BH1" s="761"/>
-      <c r="BI1" s="761"/>
-      <c r="BJ1" s="761"/>
-      <c r="BK1" s="761"/>
-      <c r="BL1" s="761"/>
-      <c r="BM1" s="761"/>
-      <c r="BN1" s="761"/>
-      <c r="BO1" s="761"/>
-      <c r="BP1" s="761"/>
-      <c r="BQ1" s="761"/>
-      <c r="BR1" s="761"/>
-      <c r="BS1" s="761"/>
-      <c r="BT1" s="761"/>
-      <c r="BU1" s="761"/>
-      <c r="BV1" s="761"/>
-      <c r="BW1" s="748" t="s">
+      <c r="AU1" s="765"/>
+      <c r="AV1" s="765"/>
+      <c r="AW1" s="765"/>
+      <c r="AX1" s="765"/>
+      <c r="AY1" s="765"/>
+      <c r="AZ1" s="765"/>
+      <c r="BA1" s="765"/>
+      <c r="BB1" s="765"/>
+      <c r="BC1" s="765"/>
+      <c r="BD1" s="765"/>
+      <c r="BE1" s="765"/>
+      <c r="BF1" s="765"/>
+      <c r="BG1" s="765"/>
+      <c r="BH1" s="765"/>
+      <c r="BI1" s="765"/>
+      <c r="BJ1" s="765"/>
+      <c r="BK1" s="765"/>
+      <c r="BL1" s="765"/>
+      <c r="BM1" s="765"/>
+      <c r="BN1" s="765"/>
+      <c r="BO1" s="765"/>
+      <c r="BP1" s="765"/>
+      <c r="BQ1" s="765"/>
+      <c r="BR1" s="765"/>
+      <c r="BS1" s="765"/>
+      <c r="BT1" s="765"/>
+      <c r="BU1" s="765"/>
+      <c r="BV1" s="765"/>
+      <c r="BW1" s="752" t="s">
         <v>146</v>
       </c>
-      <c r="BX1" s="742" t="s">
+      <c r="BX1" s="746" t="s">
         <v>147</v>
       </c>
-      <c r="BY1" s="743"/>
-      <c r="BZ1" s="743"/>
-      <c r="CA1" s="728"/>
-      <c r="CB1" s="750" t="s">
+      <c r="BY1" s="747"/>
+      <c r="BZ1" s="747"/>
+      <c r="CA1" s="732"/>
+      <c r="CB1" s="754" t="s">
         <v>50</v>
       </c>
-      <c r="CC1" s="750"/>
-      <c r="CD1" s="750"/>
-      <c r="CE1" s="750"/>
-      <c r="CF1" s="750"/>
-      <c r="CG1" s="750"/>
-      <c r="CH1" s="750"/>
-      <c r="CI1" s="750"/>
-      <c r="CJ1" s="750"/>
-      <c r="CK1" s="750"/>
-      <c r="CL1" s="750"/>
-      <c r="CM1" s="750"/>
+      <c r="CC1" s="754"/>
+      <c r="CD1" s="754"/>
+      <c r="CE1" s="754"/>
+      <c r="CF1" s="754"/>
+      <c r="CG1" s="754"/>
+      <c r="CH1" s="754"/>
+      <c r="CI1" s="754"/>
+      <c r="CJ1" s="754"/>
+      <c r="CK1" s="754"/>
+      <c r="CL1" s="754"/>
+      <c r="CM1" s="754"/>
       <c r="CN1" s="43"/>
-      <c r="CO1" s="751" t="s">
+      <c r="CO1" s="755" t="s">
         <v>55</v>
       </c>
-      <c r="CP1" s="697"/>
-      <c r="CQ1" s="697"/>
-      <c r="CR1" s="697"/>
-      <c r="CS1" s="697"/>
-      <c r="CT1" s="697"/>
-      <c r="CU1" s="697"/>
-      <c r="CV1" s="716"/>
+      <c r="CP1" s="701"/>
+      <c r="CQ1" s="701"/>
+      <c r="CR1" s="701"/>
+      <c r="CS1" s="701"/>
+      <c r="CT1" s="701"/>
+      <c r="CU1" s="701"/>
+      <c r="CV1" s="720"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -35778,7 +37018,7 @@
       <c r="L2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="736"/>
+      <c r="M2" s="740"/>
       <c r="N2" s="49" t="s">
         <v>152</v>
       </c>
@@ -35794,22 +37034,22 @@
       <c r="R2" s="579" t="s">
         <v>397</v>
       </c>
-      <c r="S2" s="752" t="s">
+      <c r="S2" s="756" t="s">
         <v>155</v>
       </c>
-      <c r="T2" s="722"/>
-      <c r="U2" s="753" t="s">
+      <c r="T2" s="726"/>
+      <c r="U2" s="757" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="753"/>
-      <c r="W2" s="753" t="s">
+      <c r="V2" s="757"/>
+      <c r="W2" s="757" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="754"/>
-      <c r="Y2" s="744"/>
-      <c r="Z2" s="745"/>
-      <c r="AA2" s="747"/>
-      <c r="AB2" s="749"/>
+      <c r="X2" s="758"/>
+      <c r="Y2" s="748"/>
+      <c r="Z2" s="749"/>
+      <c r="AA2" s="751"/>
+      <c r="AB2" s="753"/>
       <c r="AC2" s="50" t="s">
         <v>156</v>
       </c>
@@ -35822,81 +37062,81 @@
       <c r="AF2" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="AG2" s="755" t="s">
+      <c r="AG2" s="759" t="s">
         <v>160</v>
       </c>
-      <c r="AH2" s="734"/>
-      <c r="AI2" s="734" t="s">
+      <c r="AH2" s="738"/>
+      <c r="AI2" s="738" t="s">
         <v>161</v>
       </c>
-      <c r="AJ2" s="734"/>
-      <c r="AK2" s="734" t="s">
+      <c r="AJ2" s="738"/>
+      <c r="AK2" s="738" t="s">
         <v>162</v>
       </c>
-      <c r="AL2" s="734"/>
+      <c r="AL2" s="738"/>
       <c r="AM2" s="51" t="s">
         <v>461</v>
       </c>
       <c r="AN2" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="AO2" s="749"/>
-      <c r="AP2" s="744" t="s">
+      <c r="AO2" s="753"/>
+      <c r="AP2" s="748" t="s">
         <v>163</v>
       </c>
-      <c r="AQ2" s="745"/>
-      <c r="AR2" s="732" t="s">
+      <c r="AQ2" s="749"/>
+      <c r="AR2" s="736" t="s">
         <v>164</v>
       </c>
-      <c r="AS2" s="733"/>
-      <c r="AT2" s="734" t="s">
+      <c r="AS2" s="737"/>
+      <c r="AT2" s="738" t="s">
         <v>165</v>
       </c>
-      <c r="AU2" s="734"/>
-      <c r="AV2" s="735" t="s">
+      <c r="AU2" s="738"/>
+      <c r="AV2" s="739" t="s">
         <v>166</v>
       </c>
-      <c r="AW2" s="735"/>
-      <c r="AX2" s="735" t="s">
+      <c r="AW2" s="739"/>
+      <c r="AX2" s="739" t="s">
         <v>167</v>
       </c>
-      <c r="AY2" s="735"/>
+      <c r="AY2" s="739"/>
       <c r="AZ2" s="51" t="s">
         <v>463</v>
       </c>
       <c r="BA2" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="BB2" s="734" t="s">
+      <c r="BB2" s="738" t="s">
         <v>168</v>
       </c>
-      <c r="BC2" s="734"/>
-      <c r="BD2" s="735" t="s">
+      <c r="BC2" s="738"/>
+      <c r="BD2" s="739" t="s">
         <v>169</v>
       </c>
-      <c r="BE2" s="735"/>
-      <c r="BF2" s="735" t="s">
+      <c r="BE2" s="739"/>
+      <c r="BF2" s="739" t="s">
         <v>170</v>
       </c>
-      <c r="BG2" s="735"/>
+      <c r="BG2" s="739"/>
       <c r="BH2" s="51" t="s">
         <v>465</v>
       </c>
       <c r="BI2" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="BJ2" s="734" t="s">
+      <c r="BJ2" s="738" t="s">
         <v>171</v>
       </c>
-      <c r="BK2" s="734"/>
-      <c r="BL2" s="735" t="s">
+      <c r="BK2" s="738"/>
+      <c r="BL2" s="739" t="s">
         <v>172</v>
       </c>
-      <c r="BM2" s="735"/>
-      <c r="BN2" s="735" t="s">
+      <c r="BM2" s="739"/>
+      <c r="BN2" s="739" t="s">
         <v>173</v>
       </c>
-      <c r="BO2" s="735"/>
+      <c r="BO2" s="739"/>
       <c r="BP2" s="51" t="s">
         <v>467</v>
       </c>
@@ -35918,15 +37158,15 @@
       <c r="BV2" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="BW2" s="749"/>
-      <c r="BX2" s="744" t="s">
+      <c r="BW2" s="753"/>
+      <c r="BX2" s="748" t="s">
         <v>163</v>
       </c>
-      <c r="BY2" s="745"/>
-      <c r="BZ2" s="732" t="s">
+      <c r="BY2" s="749"/>
+      <c r="BZ2" s="736" t="s">
         <v>164</v>
       </c>
-      <c r="CA2" s="733"/>
+      <c r="CA2" s="737"/>
       <c r="CB2" s="20" t="s">
         <v>71</v>
       </c>
@@ -35966,22 +37206,22 @@
       <c r="CN2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="CO2" s="764" t="s">
+      <c r="CO2" s="768" t="s">
         <v>178</v>
       </c>
-      <c r="CP2" s="765"/>
-      <c r="CQ2" s="762" t="s">
+      <c r="CP2" s="769"/>
+      <c r="CQ2" s="766" t="s">
         <v>179</v>
       </c>
-      <c r="CR2" s="762"/>
-      <c r="CS2" s="765" t="s">
+      <c r="CR2" s="766"/>
+      <c r="CS2" s="769" t="s">
         <v>180</v>
       </c>
-      <c r="CT2" s="765"/>
-      <c r="CU2" s="762" t="s">
+      <c r="CT2" s="769"/>
+      <c r="CU2" s="766" t="s">
         <v>181</v>
       </c>
-      <c r="CV2" s="763"/>
+      <c r="CV2" s="767"/>
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="597"/>
@@ -36314,7 +37554,7 @@
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" s="596"/>
       <c r="B5" s="596"/>
-      <c r="C5" s="838"/>
+      <c r="C5" s="688"/>
       <c r="D5" s="596"/>
       <c r="E5" s="596"/>
       <c r="F5" s="596"/>
@@ -36328,69 +37568,69 @@
       <c r="N5" s="674"/>
       <c r="O5" s="675"/>
       <c r="P5" s="676"/>
-      <c r="Q5" s="836"/>
+      <c r="Q5" s="686"/>
       <c r="R5" s="685"/>
-      <c r="S5" s="837"/>
-      <c r="T5" s="838"/>
-      <c r="U5" s="837"/>
-      <c r="V5" s="838"/>
-      <c r="W5" s="837"/>
-      <c r="X5" s="838"/>
-      <c r="Y5" s="837"/>
-      <c r="Z5" s="838"/>
+      <c r="S5" s="687"/>
+      <c r="T5" s="688"/>
+      <c r="U5" s="687"/>
+      <c r="V5" s="688"/>
+      <c r="W5" s="687"/>
+      <c r="X5" s="688"/>
+      <c r="Y5" s="687"/>
+      <c r="Z5" s="688"/>
       <c r="AA5" s="596"/>
       <c r="AB5" s="596"/>
-      <c r="AC5" s="838"/>
-      <c r="AD5" s="837"/>
-      <c r="AE5" s="838"/>
-      <c r="AF5" s="837"/>
-      <c r="AG5" s="837"/>
-      <c r="AH5" s="838"/>
-      <c r="AI5" s="837"/>
-      <c r="AJ5" s="838"/>
-      <c r="AK5" s="837"/>
-      <c r="AL5" s="838"/>
+      <c r="AC5" s="688"/>
+      <c r="AD5" s="687"/>
+      <c r="AE5" s="688"/>
+      <c r="AF5" s="687"/>
+      <c r="AG5" s="687"/>
+      <c r="AH5" s="688"/>
+      <c r="AI5" s="687"/>
+      <c r="AJ5" s="688"/>
+      <c r="AK5" s="687"/>
+      <c r="AL5" s="688"/>
       <c r="AM5" s="596"/>
       <c r="AN5" s="596"/>
       <c r="AO5" s="596"/>
-      <c r="AP5" s="837"/>
-      <c r="AQ5" s="838"/>
-      <c r="AR5" s="837"/>
-      <c r="AS5" s="838"/>
-      <c r="AT5" s="837"/>
-      <c r="AU5" s="838"/>
-      <c r="AV5" s="837"/>
-      <c r="AW5" s="838"/>
-      <c r="AX5" s="837"/>
-      <c r="AY5" s="838"/>
+      <c r="AP5" s="687"/>
+      <c r="AQ5" s="688"/>
+      <c r="AR5" s="687"/>
+      <c r="AS5" s="688"/>
+      <c r="AT5" s="687"/>
+      <c r="AU5" s="688"/>
+      <c r="AV5" s="687"/>
+      <c r="AW5" s="688"/>
+      <c r="AX5" s="687"/>
+      <c r="AY5" s="688"/>
       <c r="AZ5" s="596"/>
       <c r="BA5" s="596"/>
-      <c r="BB5" s="837"/>
-      <c r="BC5" s="838"/>
-      <c r="BD5" s="837"/>
-      <c r="BE5" s="838"/>
-      <c r="BF5" s="837"/>
-      <c r="BG5" s="838"/>
+      <c r="BB5" s="687"/>
+      <c r="BC5" s="688"/>
+      <c r="BD5" s="687"/>
+      <c r="BE5" s="688"/>
+      <c r="BF5" s="687"/>
+      <c r="BG5" s="688"/>
       <c r="BH5" s="596"/>
       <c r="BI5" s="596"/>
-      <c r="BJ5" s="837"/>
-      <c r="BK5" s="838"/>
-      <c r="BL5" s="837"/>
-      <c r="BM5" s="838"/>
-      <c r="BN5" s="837"/>
-      <c r="BO5" s="838"/>
+      <c r="BJ5" s="687"/>
+      <c r="BK5" s="688"/>
+      <c r="BL5" s="687"/>
+      <c r="BM5" s="688"/>
+      <c r="BN5" s="687"/>
+      <c r="BO5" s="688"/>
       <c r="BP5" s="596"/>
       <c r="BQ5" s="596"/>
-      <c r="BR5" s="838"/>
-      <c r="BS5" s="838"/>
-      <c r="BT5" s="838"/>
+      <c r="BR5" s="688"/>
+      <c r="BS5" s="688"/>
+      <c r="BT5" s="688"/>
       <c r="BU5" s="596"/>
       <c r="BV5" s="596"/>
       <c r="BW5" s="596"/>
-      <c r="BX5" s="837"/>
-      <c r="BY5" s="838"/>
-      <c r="BZ5" s="837"/>
-      <c r="CA5" s="838"/>
+      <c r="BX5" s="687"/>
+      <c r="BY5" s="688"/>
+      <c r="BZ5" s="687"/>
+      <c r="CA5" s="688"/>
       <c r="CB5" s="596"/>
       <c r="CC5" s="596"/>
       <c r="CD5" s="596"/>
@@ -36404,19 +37644,19 @@
       <c r="CL5" s="596"/>
       <c r="CM5" s="596"/>
       <c r="CN5" s="596"/>
-      <c r="CO5" s="837"/>
-      <c r="CP5" s="838"/>
-      <c r="CQ5" s="837"/>
-      <c r="CR5" s="838"/>
-      <c r="CS5" s="837"/>
-      <c r="CT5" s="838"/>
-      <c r="CU5" s="837"/>
-      <c r="CV5" s="838"/>
+      <c r="CO5" s="687"/>
+      <c r="CP5" s="688"/>
+      <c r="CQ5" s="687"/>
+      <c r="CR5" s="688"/>
+      <c r="CS5" s="687"/>
+      <c r="CT5" s="688"/>
+      <c r="CU5" s="687"/>
+      <c r="CV5" s="688"/>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" s="596"/>
       <c r="B6" s="596"/>
-      <c r="C6" s="838"/>
+      <c r="C6" s="688"/>
       <c r="D6" s="596"/>
       <c r="E6" s="596"/>
       <c r="F6" s="596"/>
@@ -36430,69 +37670,69 @@
       <c r="N6" s="674"/>
       <c r="O6" s="675"/>
       <c r="P6" s="676"/>
-      <c r="Q6" s="836"/>
+      <c r="Q6" s="686"/>
       <c r="R6" s="596"/>
-      <c r="S6" s="837"/>
-      <c r="T6" s="838"/>
-      <c r="U6" s="837"/>
-      <c r="V6" s="838"/>
-      <c r="W6" s="837"/>
-      <c r="X6" s="838"/>
-      <c r="Y6" s="837"/>
-      <c r="Z6" s="838"/>
+      <c r="S6" s="687"/>
+      <c r="T6" s="688"/>
+      <c r="U6" s="687"/>
+      <c r="V6" s="688"/>
+      <c r="W6" s="687"/>
+      <c r="X6" s="688"/>
+      <c r="Y6" s="687"/>
+      <c r="Z6" s="688"/>
       <c r="AA6" s="596"/>
       <c r="AB6" s="596"/>
-      <c r="AC6" s="838"/>
-      <c r="AD6" s="837"/>
-      <c r="AE6" s="838"/>
-      <c r="AF6" s="837"/>
-      <c r="AG6" s="837"/>
-      <c r="AH6" s="838"/>
-      <c r="AI6" s="837"/>
-      <c r="AJ6" s="838"/>
-      <c r="AK6" s="837"/>
-      <c r="AL6" s="838"/>
+      <c r="AC6" s="688"/>
+      <c r="AD6" s="687"/>
+      <c r="AE6" s="688"/>
+      <c r="AF6" s="687"/>
+      <c r="AG6" s="687"/>
+      <c r="AH6" s="688"/>
+      <c r="AI6" s="687"/>
+      <c r="AJ6" s="688"/>
+      <c r="AK6" s="687"/>
+      <c r="AL6" s="688"/>
       <c r="AM6" s="596"/>
       <c r="AN6" s="596"/>
       <c r="AO6" s="596"/>
-      <c r="AP6" s="837"/>
-      <c r="AQ6" s="838"/>
-      <c r="AR6" s="837"/>
-      <c r="AS6" s="838"/>
-      <c r="AT6" s="837"/>
-      <c r="AU6" s="838"/>
-      <c r="AV6" s="837"/>
-      <c r="AW6" s="838"/>
-      <c r="AX6" s="837"/>
-      <c r="AY6" s="838"/>
+      <c r="AP6" s="687"/>
+      <c r="AQ6" s="688"/>
+      <c r="AR6" s="687"/>
+      <c r="AS6" s="688"/>
+      <c r="AT6" s="687"/>
+      <c r="AU6" s="688"/>
+      <c r="AV6" s="687"/>
+      <c r="AW6" s="688"/>
+      <c r="AX6" s="687"/>
+      <c r="AY6" s="688"/>
       <c r="AZ6" s="596"/>
       <c r="BA6" s="596"/>
-      <c r="BB6" s="837"/>
-      <c r="BC6" s="838"/>
-      <c r="BD6" s="837"/>
-      <c r="BE6" s="838"/>
-      <c r="BF6" s="837"/>
-      <c r="BG6" s="838"/>
+      <c r="BB6" s="687"/>
+      <c r="BC6" s="688"/>
+      <c r="BD6" s="687"/>
+      <c r="BE6" s="688"/>
+      <c r="BF6" s="687"/>
+      <c r="BG6" s="688"/>
       <c r="BH6" s="596"/>
       <c r="BI6" s="596"/>
-      <c r="BJ6" s="837"/>
-      <c r="BK6" s="838"/>
-      <c r="BL6" s="837"/>
-      <c r="BM6" s="838"/>
-      <c r="BN6" s="837"/>
-      <c r="BO6" s="838"/>
+      <c r="BJ6" s="687"/>
+      <c r="BK6" s="688"/>
+      <c r="BL6" s="687"/>
+      <c r="BM6" s="688"/>
+      <c r="BN6" s="687"/>
+      <c r="BO6" s="688"/>
       <c r="BP6" s="596"/>
       <c r="BQ6" s="596"/>
-      <c r="BR6" s="838"/>
-      <c r="BS6" s="838"/>
-      <c r="BT6" s="838"/>
+      <c r="BR6" s="688"/>
+      <c r="BS6" s="688"/>
+      <c r="BT6" s="688"/>
       <c r="BU6" s="596"/>
       <c r="BV6" s="596"/>
       <c r="BW6" s="596"/>
-      <c r="BX6" s="837"/>
-      <c r="BY6" s="838"/>
-      <c r="BZ6" s="837"/>
-      <c r="CA6" s="838"/>
+      <c r="BX6" s="687"/>
+      <c r="BY6" s="688"/>
+      <c r="BZ6" s="687"/>
+      <c r="CA6" s="688"/>
       <c r="CB6" s="596"/>
       <c r="CC6" s="596"/>
       <c r="CD6" s="596"/>
@@ -36506,14 +37746,14 @@
       <c r="CL6" s="596"/>
       <c r="CM6" s="596"/>
       <c r="CN6" s="596"/>
-      <c r="CO6" s="837"/>
-      <c r="CP6" s="838"/>
-      <c r="CQ6" s="837"/>
-      <c r="CR6" s="838"/>
-      <c r="CS6" s="837"/>
-      <c r="CT6" s="838"/>
-      <c r="CU6" s="837"/>
-      <c r="CV6" s="838"/>
+      <c r="CO6" s="687"/>
+      <c r="CP6" s="688"/>
+      <c r="CQ6" s="687"/>
+      <c r="CR6" s="688"/>
+      <c r="CS6" s="687"/>
+      <c r="CT6" s="688"/>
+      <c r="CU6" s="687"/>
+      <c r="CV6" s="688"/>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -41263,8 +42503,8 @@
       <c r="B2" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="766"/>
-      <c r="D2" s="766"/>
+      <c r="C2" s="770"/>
+      <c r="D2" s="770"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
       <c r="G2" s="111"/>
@@ -41389,32 +42629,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
-      <c r="B7" s="767" t="s">
+      <c r="B7" s="771" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="767"/>
-      <c r="D7" s="767"/>
+      <c r="C7" s="771"/>
+      <c r="D7" s="771"/>
       <c r="E7" s="111"/>
       <c r="F7" s="111"/>
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
-      <c r="J7" s="767" t="s">
+      <c r="J7" s="771" t="s">
         <v>200</v>
       </c>
-      <c r="K7" s="767"/>
-      <c r="L7" s="767"/>
+      <c r="K7" s="771"/>
+      <c r="L7" s="771"/>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
       <c r="O7" s="111"/>
       <c r="P7" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="Q7" s="767" t="s">
+      <c r="Q7" s="771" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="767"/>
-      <c r="S7" s="767"/>
+      <c r="R7" s="771"/>
+      <c r="S7" s="771"/>
       <c r="T7" s="111"/>
       <c r="U7" s="125" t="s">
         <v>202</v>
@@ -41448,41 +42688,41 @@
       <c r="B9" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="C9" s="768" t="s">
+      <c r="C9" s="772" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="769"/>
-      <c r="E9" s="768" t="s">
+      <c r="D9" s="773"/>
+      <c r="E9" s="772" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="769"/>
+      <c r="F9" s="773"/>
       <c r="G9" s="111"/>
       <c r="H9" s="111"/>
       <c r="I9" s="111"/>
       <c r="J9" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="K9" s="768" t="s">
+      <c r="K9" s="772" t="s">
         <v>204</v>
       </c>
-      <c r="L9" s="769"/>
-      <c r="M9" s="768" t="s">
+      <c r="L9" s="773"/>
+      <c r="M9" s="772" t="s">
         <v>205</v>
       </c>
-      <c r="N9" s="769"/>
+      <c r="N9" s="773"/>
       <c r="O9" s="111"/>
       <c r="P9" s="111"/>
       <c r="Q9" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="R9" s="768" t="s">
+      <c r="R9" s="772" t="s">
         <v>204</v>
       </c>
-      <c r="S9" s="769"/>
-      <c r="T9" s="768" t="s">
+      <c r="S9" s="773"/>
+      <c r="T9" s="772" t="s">
         <v>205</v>
       </c>
-      <c r="U9" s="769"/>
+      <c r="U9" s="773"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
@@ -41544,10 +42784,10 @@
       </c>
       <c r="C11" s="131"/>
       <c r="D11" s="131"/>
-      <c r="E11" s="770" t="s">
+      <c r="E11" s="774" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="771"/>
+      <c r="F11" s="775"/>
       <c r="G11" s="132"/>
       <c r="H11" s="132"/>
       <c r="I11" s="132"/>
@@ -41556,10 +42796,10 @@
       </c>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
-      <c r="M11" s="773" t="s">
+      <c r="M11" s="777" t="s">
         <v>210</v>
       </c>
-      <c r="N11" s="774"/>
+      <c r="N11" s="778"/>
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
       <c r="Q11" s="130" t="s">
@@ -41567,10 +42807,10 @@
       </c>
       <c r="R11" s="131"/>
       <c r="S11" s="131"/>
-      <c r="T11" s="770" t="s">
+      <c r="T11" s="774" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="771"/>
+      <c r="U11" s="775"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
@@ -41805,10 +43045,10 @@
       </c>
       <c r="C20" s="426"/>
       <c r="D20" s="159"/>
-      <c r="E20" s="770" t="s">
+      <c r="E20" s="774" t="s">
         <v>449</v>
       </c>
-      <c r="F20" s="771"/>
+      <c r="F20" s="775"/>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
       <c r="I20" s="111"/>
@@ -41817,10 +43057,10 @@
       </c>
       <c r="K20" s="426"/>
       <c r="L20" s="159"/>
-      <c r="M20" s="770" t="s">
+      <c r="M20" s="774" t="s">
         <v>449</v>
       </c>
-      <c r="N20" s="771"/>
+      <c r="N20" s="775"/>
       <c r="O20" s="150"/>
       <c r="P20" s="150"/>
       <c r="Q20" s="130" t="s">
@@ -41828,10 +43068,10 @@
       </c>
       <c r="R20" s="426"/>
       <c r="S20" s="159"/>
-      <c r="T20" s="770" t="s">
+      <c r="T20" s="774" t="s">
         <v>449</v>
       </c>
-      <c r="U20" s="771"/>
+      <c r="U20" s="775"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
@@ -42095,10 +43335,10 @@
       </c>
       <c r="C30" s="426"/>
       <c r="D30" s="159"/>
-      <c r="E30" s="770" t="s">
+      <c r="E30" s="774" t="s">
         <v>449</v>
       </c>
-      <c r="F30" s="771"/>
+      <c r="F30" s="775"/>
       <c r="G30" s="140"/>
       <c r="H30" s="140"/>
       <c r="I30" s="111"/>
@@ -42107,10 +43347,10 @@
       </c>
       <c r="K30" s="426"/>
       <c r="L30" s="159"/>
-      <c r="M30" s="770" t="s">
+      <c r="M30" s="774" t="s">
         <v>449</v>
       </c>
-      <c r="N30" s="771"/>
+      <c r="N30" s="775"/>
       <c r="O30" s="150"/>
       <c r="P30" s="150"/>
       <c r="Q30" s="130" t="s">
@@ -42118,10 +43358,10 @@
       </c>
       <c r="R30" s="426"/>
       <c r="S30" s="159"/>
-      <c r="T30" s="770" t="s">
+      <c r="T30" s="774" t="s">
         <v>449</v>
       </c>
-      <c r="U30" s="771"/>
+      <c r="U30" s="775"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="172"/>
@@ -42444,11 +43684,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="772"/>
-      <c r="C42" s="772"/>
-      <c r="D42" s="772"/>
-      <c r="E42" s="772"/>
-      <c r="F42" s="772"/>
+      <c r="B42" s="776"/>
+      <c r="C42" s="776"/>
+      <c r="D42" s="776"/>
+      <c r="E42" s="776"/>
+      <c r="F42" s="776"/>
       <c r="G42" s="150"/>
       <c r="H42" s="111"/>
       <c r="I42" s="150"/>
@@ -42644,8 +43884,8 @@
       <c r="B3" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="775"/>
-      <c r="D3" s="775"/>
+      <c r="C3" s="779"/>
+      <c r="D3" s="779"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="195"/>
@@ -42678,10 +43918,10 @@
       <c r="D10" s="203" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="776" t="s">
+      <c r="E10" s="780" t="s">
         <v>233</v>
       </c>
-      <c r="F10" s="777"/>
+      <c r="F10" s="781"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="204" t="s">
@@ -42832,10 +44072,10 @@
       <c r="D30" s="215" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="776" t="s">
+      <c r="E30" s="780" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="777"/>
+      <c r="F30" s="781"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="204" t="s">
@@ -42983,10 +44223,10 @@
       <c r="D49" s="215" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="776" t="s">
+      <c r="E49" s="780" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="777"/>
+      <c r="F49" s="781"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="204" t="s">
@@ -43154,8 +44394,8 @@
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
-      <c r="E2" s="766"/>
-      <c r="F2" s="766"/>
+      <c r="E2" s="770"/>
+      <c r="F2" s="770"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="112"/>
@@ -43187,13 +44427,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
-      <c r="B6" s="767" t="s">
+      <c r="B6" s="771" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="767"/>
-      <c r="D6" s="767"/>
-      <c r="E6" s="767"/>
-      <c r="F6" s="767"/>
+      <c r="C6" s="771"/>
+      <c r="D6" s="771"/>
+      <c r="E6" s="771"/>
+      <c r="F6" s="771"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
@@ -43208,14 +44448,14 @@
       <c r="B8" s="461" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="778" t="s">
+      <c r="C8" s="782" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="779"/>
-      <c r="E8" s="780" t="s">
+      <c r="D8" s="783"/>
+      <c r="E8" s="784" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="779"/>
+      <c r="F8" s="783"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
@@ -43351,11 +44591,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
-      <c r="B22" s="772"/>
-      <c r="C22" s="772"/>
-      <c r="D22" s="772"/>
-      <c r="E22" s="772"/>
-      <c r="F22" s="772"/>
+      <c r="B22" s="776"/>
+      <c r="C22" s="776"/>
+      <c r="D22" s="776"/>
+      <c r="E22" s="776"/>
+      <c r="F22" s="776"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
@@ -43425,13 +44665,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="781" t="s">
+      <c r="B2" s="785" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="782" t="s">
+      <c r="C2" s="786" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="782" t="s">
+      <c r="D2" s="786" t="s">
         <v>150</v>
       </c>
       <c r="E2" s="232" t="s">
@@ -43466,9 +44706,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="781"/>
-      <c r="C3" s="783"/>
-      <c r="D3" s="783"/>
+      <c r="B3" s="785"/>
+      <c r="C3" s="787"/>
+      <c r="D3" s="787"/>
       <c r="E3" s="672" t="s">
         <v>259</v>
       </c>
@@ -43501,7 +44741,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="784" t="s">
+      <c r="B4" s="788" t="s">
         <v>262</v>
       </c>
       <c r="C4" s="233" t="s">
@@ -43520,7 +44760,7 @@
       <c r="N4" s="235"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="784"/>
+      <c r="B5" s="788"/>
       <c r="C5" s="233" t="s">
         <v>60</v>
       </c>
@@ -43537,7 +44777,7 @@
       <c r="N5" s="235"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="785"/>
+      <c r="B6" s="789"/>
       <c r="C6" s="562" t="s">
         <v>453</v>
       </c>
@@ -43651,24 +44891,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="588" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="786" t="s">
+      <c r="A1" s="790" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="787"/>
-      <c r="C1" s="788"/>
-      <c r="D1" s="789" t="s">
+      <c r="B1" s="791"/>
+      <c r="C1" s="792"/>
+      <c r="D1" s="793" t="s">
         <v>458</v>
       </c>
-      <c r="E1" s="789"/>
-      <c r="F1" s="790"/>
-      <c r="G1" s="799" t="s">
+      <c r="E1" s="793"/>
+      <c r="F1" s="794"/>
+      <c r="G1" s="803" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="800"/>
-      <c r="I1" s="800"/>
-      <c r="J1" s="800"/>
-      <c r="K1" s="801"/>
-      <c r="L1" s="791" t="s">
+      <c r="H1" s="804"/>
+      <c r="I1" s="804"/>
+      <c r="J1" s="804"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="795" t="s">
         <v>265</v>
       </c>
     </row>
@@ -43706,7 +44946,7 @@
       <c r="K2" s="251" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="792"/>
+      <c r="L2" s="796"/>
     </row>
     <row r="3" spans="1:12" s="588" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="252"/>
@@ -43714,19 +44954,19 @@
       <c r="C3" s="254" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="793" t="s">
+      <c r="D3" s="797" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="794"/>
-      <c r="F3" s="795"/>
-      <c r="G3" s="796" t="s">
+      <c r="E3" s="798"/>
+      <c r="F3" s="799"/>
+      <c r="G3" s="800" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="797"/>
-      <c r="I3" s="797"/>
-      <c r="J3" s="797"/>
-      <c r="K3" s="798"/>
-      <c r="L3" s="792"/>
+      <c r="H3" s="801"/>
+      <c r="I3" s="801"/>
+      <c r="J3" s="801"/>
+      <c r="K3" s="802"/>
+      <c r="L3" s="796"/>
     </row>
     <row r="4" spans="1:12" s="588" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="252"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="17" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'New agglomerations'!$A$5:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'New treatment plants'!$A$4:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Nuts2_level analyse'!$A$4:$AC$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Summary_big_cities!$A$4:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Summary_big_cities!$A$4:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'UWWTP Level'!$A$4:$CQ$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">UWWTPsout!$A$5:$F$5</definedName>
   </definedNames>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="547">
   <si>
     <t>Sensitive areas reported for reference date</t>
   </si>
@@ -2186,6 +2186,9 @@
   </si>
   <si>
     <t>IAS [Individual &amp; appropriated system] in place</t>
+  </si>
+  <si>
+    <t>Big dischargers</t>
   </si>
 </sst>
 </file>
@@ -3015,7 +3018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -3906,6 +3909,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3928,7 +3957,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="840">
+  <cellXfs count="842">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5580,6 +5609,12 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="77" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6277,7 +6312,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6354,13 +6388,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62F2E86C-083F-435F-8772-482FE995B353}" type="CELLRANGE">
+                    <a:fld id="{0CC6E555-A852-4B8F-AB60-78455AB107F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6378,7 +6411,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -6386,13 +6418,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51F33832-80FC-4287-898B-808E5E653548}" type="CELLRANGE">
+                    <a:fld id="{378FA0FC-5683-4112-B6CE-BA8C54FBCB51}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6410,7 +6441,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6419,13 +6449,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D58B840-B8CC-47D1-A17F-6BB98A1BCA3C}" type="CELLRANGE">
+                    <a:fld id="{424299A1-3C1B-4B78-9F9F-852CF1FB76B5}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6443,7 +6472,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6489,7 +6517,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6596,13 +6623,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6436A324-10C8-45FB-B520-CC0FFB67F1A7}" type="CELLRANGE">
+                    <a:fld id="{F037B659-BC67-4D52-8A2C-D92474CA0FD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6620,7 +6646,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -6628,13 +6653,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B753F9E7-DB98-4E30-8C03-B471B572CFCD}" type="CELLRANGE">
+                    <a:fld id="{758EB137-1BB7-4883-9F17-FD2D027EB38F}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6652,7 +6676,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6661,13 +6684,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDDF6030-4E13-430B-85F2-F0D24B2A471E}" type="CELLRANGE">
+                    <a:fld id="{84933F70-C383-4929-9ED6-46C39D52AFC1}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6685,7 +6707,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -6731,7 +6752,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6819,11 +6839,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1989722032"/>
-        <c:axId val="-1989728560"/>
+        <c:axId val="-1583083968"/>
+        <c:axId val="-1435657152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989722032"/>
+        <c:axId val="-1583083968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,7 +6886,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989728560"/>
+        <c:crossAx val="-1435657152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6874,7 +6894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989728560"/>
+        <c:axId val="-1435657152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6906,7 +6926,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6967,7 +6986,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989722032"/>
+        <c:crossAx val="-1583083968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7102,7 +7121,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7354,11 +7372,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989728016"/>
-        <c:axId val="-1989719312"/>
+        <c:axId val="-1401760048"/>
+        <c:axId val="-1401755696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989728016"/>
+        <c:axId val="-1401760048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7390,7 +7408,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7457,7 +7474,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989719312"/>
+        <c:crossAx val="-1401755696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7465,7 +7482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989719312"/>
+        <c:axId val="-1401755696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7585,7 +7602,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989728016"/>
+        <c:crossAx val="-1401760048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7715,7 +7732,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8470,11 +8486,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989726384"/>
-        <c:axId val="-1989722576"/>
+        <c:axId val="-1401758960"/>
+        <c:axId val="-1401758416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989726384"/>
+        <c:axId val="-1401758960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8577,7 +8593,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989722576"/>
+        <c:crossAx val="-1401758416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8585,7 +8601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989722576"/>
+        <c:axId val="-1401758416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8636,7 +8652,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989726384"/>
+        <c:crossAx val="-1401758960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9001,11 +9017,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989717680"/>
-        <c:axId val="-1989716048"/>
+        <c:axId val="-1401748624"/>
+        <c:axId val="-1401756784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989717680"/>
+        <c:axId val="-1401748624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9116,7 +9132,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989716048"/>
+        <c:crossAx val="-1401756784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9124,7 +9140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989716048"/>
+        <c:axId val="-1401756784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9230,7 +9246,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989717680"/>
+        <c:crossAx val="-1401748624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9600,11 +9616,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989725296"/>
-        <c:axId val="-1989719856"/>
+        <c:axId val="-1401757872"/>
+        <c:axId val="-1401746448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989725296"/>
+        <c:axId val="-1401757872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9715,7 +9731,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989719856"/>
+        <c:crossAx val="-1401746448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9723,7 +9739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989719856"/>
+        <c:axId val="-1401746448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9837,7 +9853,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989725296"/>
+        <c:crossAx val="-1401757872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9972,7 +9988,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10319,11 +10334,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989718768"/>
-        <c:axId val="-1989718224"/>
+        <c:axId val="-1401757328"/>
+        <c:axId val="-1401755152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989718768"/>
+        <c:axId val="-1401757328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10429,7 +10444,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989718224"/>
+        <c:crossAx val="-1401755152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10437,7 +10452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989718224"/>
+        <c:axId val="-1401755152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10559,7 +10574,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989718768"/>
+        <c:crossAx val="-1401757328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10895,11 +10910,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989717136"/>
-        <c:axId val="-1989715504"/>
+        <c:axId val="-1401752432"/>
+        <c:axId val="-1401751888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989717136"/>
+        <c:axId val="-1401752432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11010,7 +11025,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989715504"/>
+        <c:crossAx val="-1401751888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11018,7 +11033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989715504"/>
+        <c:axId val="-1401751888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11132,7 +11147,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989717136"/>
+        <c:crossAx val="-1401752432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11468,11 +11483,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1987468016"/>
-        <c:axId val="-1987468560"/>
+        <c:axId val="-1401750800"/>
+        <c:axId val="-1401750256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1987468016"/>
+        <c:axId val="-1401750800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11583,7 +11598,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987468560"/>
+        <c:crossAx val="-1401750256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11591,7 +11606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987468560"/>
+        <c:axId val="-1401750256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11705,7 +11720,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987468016"/>
+        <c:crossAx val="-1401750800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11840,7 +11855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12087,11 +12101,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1987473456"/>
-        <c:axId val="-1987470192"/>
+        <c:axId val="-1401749168"/>
+        <c:axId val="-1428994944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1987473456"/>
+        <c:axId val="-1401749168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12123,7 +12137,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12190,7 +12203,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987470192"/>
+        <c:crossAx val="-1428994944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12198,7 +12211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987470192"/>
+        <c:axId val="-1428994944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12317,7 +12330,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987473456"/>
+        <c:crossAx val="-1401749168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12822,11 +12835,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1987475632"/>
-        <c:axId val="-1987474544"/>
+        <c:axId val="-1428990048"/>
+        <c:axId val="-1428996032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1987475632"/>
+        <c:axId val="-1428990048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12869,7 +12882,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987474544"/>
+        <c:crossAx val="-1428996032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12877,7 +12890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987474544"/>
+        <c:axId val="-1428996032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12983,7 +12996,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987475632"/>
+        <c:crossAx val="-1428990048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13108,7 +13121,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13185,13 +13197,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5173D7CE-2C95-4584-8C0A-96B9CA809F47}" type="CELLRANGE">
+                    <a:fld id="{E3341B8A-4DAB-4788-96C0-C168F4A7C6AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13209,7 +13220,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -13217,13 +13227,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEAAA4D9-8776-40CD-9ACF-48DDE5164D11}" type="CELLRANGE">
+                    <a:fld id="{DF965D3E-EFC0-4F68-B177-0A3487EA7BFB}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13241,7 +13250,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13250,13 +13258,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0F27F48-D8CF-4B63-A31A-3468F562054F}" type="CELLRANGE">
+                    <a:fld id="{E168B9EC-FC07-483C-96B5-9270A40B4746}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13274,7 +13281,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13320,7 +13326,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13427,13 +13432,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BB92A20-24BF-4B4D-AEB2-FBB27C6B1F03}" type="CELLRANGE">
+                    <a:fld id="{AC77DA9F-8F71-456E-949A-A31DC08B4835}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13451,7 +13455,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -13459,13 +13462,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF6568E4-7599-4C53-BB3A-8693A87E91FD}" type="CELLRANGE">
+                    <a:fld id="{27882B1C-79FF-43C1-AAC0-CFAF3E949A24}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13483,7 +13485,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13492,13 +13493,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{402E5C3B-FCD3-4CC2-A62E-4F0FA16C0817}" type="CELLRANGE">
+                    <a:fld id="{C84AF084-78C5-411A-9446-E19DA60A4CEE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13516,7 +13516,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13562,7 +13561,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13650,11 +13648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1989725840"/>
-        <c:axId val="-1989723664"/>
+        <c:axId val="-1401754064"/>
+        <c:axId val="-1401760592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989725840"/>
+        <c:axId val="-1401754064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13686,7 +13684,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13753,7 +13750,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989723664"/>
+        <c:crossAx val="-1401760592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13761,7 +13758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989723664"/>
+        <c:axId val="-1401760592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13861,7 +13858,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989725840"/>
+        <c:crossAx val="-1401754064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13991,7 +13988,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14092,7 +14088,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14214,7 +14209,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14283,11 +14277,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1987466928"/>
-        <c:axId val="-1987469648"/>
+        <c:axId val="-1429004192"/>
+        <c:axId val="-1428993856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1987466928"/>
+        <c:axId val="-1429004192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14330,7 +14324,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987469648"/>
+        <c:crossAx val="-1428993856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14338,7 +14332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987469648"/>
+        <c:axId val="-1428993856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14359,7 +14353,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14420,7 +14413,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987466928"/>
+        <c:crossAx val="-1429004192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14434,7 +14427,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14541,7 +14533,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14772,9 +14763,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -14978,7 +14967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15333,11 +15321,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989723120"/>
-        <c:axId val="-1989729648"/>
+        <c:axId val="-1401753520"/>
+        <c:axId val="-1401754608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989723120"/>
+        <c:axId val="-1401753520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15369,7 +15357,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15436,7 +15423,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989729648"/>
+        <c:crossAx val="-1401754608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15444,7 +15431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989729648"/>
+        <c:axId val="-1401754608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15490,7 +15477,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15551,7 +15537,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989723120"/>
+        <c:crossAx val="-1401753520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15682,7 +15668,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16010,11 +15995,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1989724752"/>
-        <c:axId val="-1989730736"/>
+        <c:axId val="-1401748080"/>
+        <c:axId val="-1401759504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989724752"/>
+        <c:axId val="-1401748080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16046,7 +16031,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16113,7 +16097,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989730736"/>
+        <c:crossAx val="-1401759504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16121,7 +16105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989730736"/>
+        <c:axId val="-1401759504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16221,7 +16205,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989724752"/>
+        <c:crossAx val="-1401748080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16352,7 +16336,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16680,11 +16663,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1989716592"/>
-        <c:axId val="-1989727472"/>
+        <c:axId val="-1401761680"/>
+        <c:axId val="-1401761136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989716592"/>
+        <c:axId val="-1401761680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16716,7 +16699,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16783,7 +16765,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989727472"/>
+        <c:crossAx val="-1401761136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16791,7 +16773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989727472"/>
+        <c:axId val="-1401761136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16891,7 +16873,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989716592"/>
+        <c:crossAx val="-1401761680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17027,7 +17009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17423,11 +17404,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989720400"/>
-        <c:axId val="-1989726928"/>
+        <c:axId val="-1401751344"/>
+        <c:axId val="-1401749712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989720400"/>
+        <c:axId val="-1401751344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17470,7 +17451,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989726928"/>
+        <c:crossAx val="-1401749712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17478,7 +17459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989726928"/>
+        <c:axId val="-1401749712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17529,7 +17510,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17590,7 +17570,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989720400"/>
+        <c:crossAx val="-1401751344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18120,11 +18100,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989724208"/>
-        <c:axId val="-1989730192"/>
+        <c:axId val="-1401752976"/>
+        <c:axId val="-1401747536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989724208"/>
+        <c:axId val="-1401752976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18167,7 +18147,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989730192"/>
+        <c:crossAx val="-1401747536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18175,7 +18155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989730192"/>
+        <c:axId val="-1401747536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18294,7 +18274,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989724208"/>
+        <c:crossAx val="-1401752976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18388,7 +18368,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18635,11 +18614,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1989721488"/>
-        <c:axId val="-1989729104"/>
+        <c:axId val="-1401756240"/>
+        <c:axId val="-1401746992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989721488"/>
+        <c:axId val="-1401756240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18668,7 +18647,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18735,7 +18713,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989729104"/>
+        <c:crossAx val="-1401746992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18743,7 +18721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989729104"/>
+        <c:axId val="-1401746992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -18863,7 +18841,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989721488"/>
+        <c:crossAx val="-1401756240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31167,23 +31145,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="574" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="694" t="s">
+      <c r="A1" s="696" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="695"/>
-      <c r="C1" s="695"/>
-      <c r="D1" s="695"/>
+      <c r="B1" s="697"/>
+      <c r="C1" s="697"/>
+      <c r="D1" s="697"/>
       <c r="E1" s="565"/>
-      <c r="F1" s="811" t="s">
+      <c r="F1" s="813" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="812"/>
-      <c r="H1" s="812"/>
+      <c r="G1" s="814"/>
+      <c r="H1" s="814"/>
       <c r="I1" s="570"/>
       <c r="J1" s="255"/>
       <c r="K1" s="570"/>
       <c r="L1" s="256"/>
-      <c r="M1" s="806" t="s">
+      <c r="M1" s="808" t="s">
         <v>272</v>
       </c>
       <c r="N1" s="257"/>
@@ -31195,19 +31173,19 @@
       <c r="R1" s="255"/>
       <c r="S1" s="570"/>
       <c r="T1" s="256"/>
-      <c r="U1" s="806" t="s">
+      <c r="U1" s="808" t="s">
         <v>274</v>
       </c>
       <c r="V1" s="257"/>
-      <c r="W1" s="813" t="s">
+      <c r="W1" s="815" t="s">
         <v>275</v>
       </c>
-      <c r="X1" s="813"/>
-      <c r="Y1" s="813"/>
-      <c r="Z1" s="813"/>
-      <c r="AA1" s="813"/>
-      <c r="AB1" s="814"/>
-      <c r="AC1" s="806" t="s">
+      <c r="X1" s="815"/>
+      <c r="Y1" s="815"/>
+      <c r="Z1" s="815"/>
+      <c r="AA1" s="815"/>
+      <c r="AB1" s="816"/>
+      <c r="AC1" s="808" t="s">
         <v>276</v>
       </c>
     </row>
@@ -31221,52 +31199,52 @@
       <c r="C2" s="569" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="808" t="s">
+      <c r="D2" s="810" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="808"/>
+      <c r="E2" s="810"/>
       <c r="F2" s="259"/>
-      <c r="G2" s="809" t="s">
+      <c r="G2" s="811" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="809"/>
-      <c r="I2" s="809" t="s">
+      <c r="H2" s="811"/>
+      <c r="I2" s="811" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="809"/>
-      <c r="K2" s="809" t="s">
+      <c r="J2" s="811"/>
+      <c r="K2" s="811" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="810"/>
-      <c r="M2" s="807"/>
+      <c r="L2" s="812"/>
+      <c r="M2" s="809"/>
       <c r="N2" s="260"/>
-      <c r="O2" s="809" t="s">
+      <c r="O2" s="811" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="809"/>
-      <c r="Q2" s="809" t="s">
+      <c r="P2" s="811"/>
+      <c r="Q2" s="811" t="s">
         <v>161</v>
       </c>
-      <c r="R2" s="809"/>
-      <c r="S2" s="809" t="s">
+      <c r="R2" s="811"/>
+      <c r="S2" s="811" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="810"/>
-      <c r="U2" s="807"/>
+      <c r="T2" s="812"/>
+      <c r="U2" s="809"/>
       <c r="V2" s="260"/>
-      <c r="W2" s="809" t="s">
+      <c r="W2" s="811" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="809"/>
-      <c r="Y2" s="809" t="s">
+      <c r="X2" s="811"/>
+      <c r="Y2" s="811" t="s">
         <v>161</v>
       </c>
-      <c r="Z2" s="809"/>
-      <c r="AA2" s="809" t="s">
+      <c r="Z2" s="811"/>
+      <c r="AA2" s="811" t="s">
         <v>162</v>
       </c>
-      <c r="AB2" s="810"/>
-      <c r="AC2" s="807"/>
+      <c r="AB2" s="812"/>
+      <c r="AC2" s="809"/>
     </row>
     <row r="3" spans="1:29" s="589" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
@@ -31635,8 +31613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z132" sqref="Z132"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB131" sqref="AB131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31661,35 +31639,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="815" t="s">
+      <c r="A1" s="817" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="816"/>
-      <c r="C1" s="816"/>
+      <c r="B1" s="818"/>
+      <c r="C1" s="818"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="824" t="s">
+      <c r="A3" s="826" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="826" t="s">
+      <c r="B3" s="828" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="827"/>
-      <c r="D3" s="822" t="s">
+      <c r="C3" s="829"/>
+      <c r="D3" s="824" t="s">
         <v>438</v>
       </c>
-      <c r="E3" s="823"/>
-      <c r="AA3" s="839" t="s">
+      <c r="E3" s="825"/>
+      <c r="AA3" s="841" t="s">
         <v>332</v>
       </c>
-      <c r="AB3" s="839"/>
-      <c r="AC3" s="839" t="s">
+      <c r="AB3" s="841"/>
+      <c r="AC3" s="841" t="s">
         <v>416</v>
       </c>
-      <c r="AD3" s="839"/>
+      <c r="AD3" s="841"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="825"/>
+      <c r="A4" s="827"/>
       <c r="B4" s="311" t="s">
         <v>415</v>
       </c>
@@ -31832,14 +31810,14 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="363"/>
-      <c r="AA10" s="839" t="s">
+      <c r="AA10" s="841" t="s">
         <v>417</v>
       </c>
-      <c r="AB10" s="839"/>
-      <c r="AC10" s="839" t="s">
+      <c r="AB10" s="841"/>
+      <c r="AC10" s="841" t="s">
         <v>418</v>
       </c>
-      <c r="AD10" s="839"/>
+      <c r="AD10" s="841"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="363" t="s">
@@ -31884,7 +31862,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="824" t="s">
+      <c r="A13" s="826" t="s">
         <v>320</v>
       </c>
       <c r="B13" s="310" t="str">
@@ -31916,7 +31894,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="825"/>
+      <c r="A14" s="827"/>
       <c r="B14" s="313" t="s">
         <v>321</v>
       </c>
@@ -32002,27 +31980,27 @@
       <c r="A21" t="s">
         <v>422</v>
       </c>
-      <c r="B21" s="817" t="s">
+      <c r="B21" s="819" t="s">
         <v>431</v>
       </c>
-      <c r="C21" s="817"/>
-      <c r="D21" s="817"/>
-      <c r="E21" s="817"/>
+      <c r="C21" s="819"/>
+      <c r="D21" s="819"/>
+      <c r="E21" s="819"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="315" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="828" t="str">
+      <c r="B22" s="830" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="829"/>
-      <c r="D22" s="828" t="str">
+      <c r="C22" s="831"/>
+      <c r="D22" s="830" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="829"/>
+      <c r="E22" s="831"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="316"/>
@@ -32397,16 +32375,16 @@
       <c r="A41" s="318" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="818" t="str">
+      <c r="B41" s="820" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="819"/>
-      <c r="D41" s="820" t="str">
+      <c r="C41" s="821"/>
+      <c r="D41" s="822" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="821"/>
+      <c r="E41" s="823"/>
       <c r="AA41" t="s">
         <v>412</v>
       </c>
@@ -32556,11 +32534,11 @@
       <c r="AA48" t="s">
         <v>422</v>
       </c>
-      <c r="AB48" s="817" t="s">
+      <c r="AB48" s="819" t="s">
         <v>443</v>
       </c>
-      <c r="AC48" s="817"/>
-      <c r="AD48" s="817"/>
+      <c r="AC48" s="819"/>
+      <c r="AD48" s="819"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="384" t="s">
@@ -32834,11 +32812,11 @@
       <c r="AA62" t="s">
         <v>422</v>
       </c>
-      <c r="AB62" s="817" t="s">
+      <c r="AB62" s="819" t="s">
         <v>444</v>
       </c>
-      <c r="AC62" s="817"/>
-      <c r="AD62" s="817"/>
+      <c r="AC62" s="819"/>
+      <c r="AD62" s="819"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="312"/>
@@ -33073,12 +33051,12 @@
       <c r="A74" s="530" t="s">
         <v>426</v>
       </c>
-      <c r="B74" s="817" t="s">
+      <c r="B74" s="819" t="s">
         <v>427</v>
       </c>
-      <c r="C74" s="817"/>
-      <c r="D74" s="817"/>
-      <c r="E74" s="817"/>
+      <c r="C74" s="819"/>
+      <c r="D74" s="819"/>
+      <c r="E74" s="819"/>
     </row>
     <row r="75" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="333" t="s">
@@ -33371,16 +33349,16 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="832" t="str">
+      <c r="B85" s="834" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="833"/>
-      <c r="D85" s="832" t="str">
+      <c r="C85" s="835"/>
+      <c r="D85" s="834" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="833"/>
+      <c r="E85" s="835"/>
       <c r="Z85" t="s">
         <v>401</v>
       </c>
@@ -33394,14 +33372,14 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="201"/>
-      <c r="B86" s="834" t="s">
+      <c r="B86" s="836" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="781"/>
-      <c r="D86" s="834" t="s">
+      <c r="C86" s="783"/>
+      <c r="D86" s="836" t="s">
         <v>233</v>
       </c>
-      <c r="E86" s="781"/>
+      <c r="E86" s="783"/>
       <c r="Z86" s="341" t="s">
         <v>234</v>
       </c>
@@ -33607,27 +33585,27 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="832" t="str">
+      <c r="B101" s="834" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="833"/>
-      <c r="D101" s="832" t="str">
+      <c r="C101" s="835"/>
+      <c r="D101" s="834" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="833"/>
+      <c r="E101" s="835"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="201"/>
-      <c r="B102" s="834" t="s">
+      <c r="B102" s="836" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="781"/>
-      <c r="D102" s="834" t="s">
+      <c r="C102" s="783"/>
+      <c r="D102" s="836" t="s">
         <v>233</v>
       </c>
-      <c r="E102" s="781"/>
+      <c r="E102" s="783"/>
       <c r="Z102" t="s">
         <v>401</v>
       </c>
@@ -33841,27 +33819,27 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="835" t="str">
+      <c r="B116" s="837" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="836"/>
-      <c r="D116" s="835" t="str">
+      <c r="C116" s="838"/>
+      <c r="D116" s="837" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="836"/>
+      <c r="E116" s="838"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="346"/>
-      <c r="B117" s="837" t="s">
+      <c r="B117" s="839" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="838"/>
-      <c r="D117" s="837" t="s">
+      <c r="C117" s="840"/>
+      <c r="D117" s="839" t="s">
         <v>233</v>
       </c>
-      <c r="E117" s="838"/>
+      <c r="E117" s="840"/>
       <c r="Z117" t="s">
         <v>401</v>
       </c>
@@ -34093,12 +34071,12 @@
       <c r="A129" s="350" t="s">
         <v>320</v>
       </c>
-      <c r="B129" s="830" t="str">
+      <c r="B129" s="832" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="831"/>
-      <c r="D129" s="831"/>
+      <c r="C129" s="833"/>
+      <c r="D129" s="833"/>
       <c r="Z129" t="str">
         <f>CONCATENATE("Collection 
 ", B3, " : target ", AB118, " p.e.")</f>
@@ -34132,11 +34110,11 @@
 [#current_year#]  : target 0 p.e.</v>
       </c>
       <c r="AA130" s="364">
-        <f>E122+E123</f>
+        <f>E123</f>
         <v>0</v>
       </c>
       <c r="AB130" s="364">
-        <f>C122+C123</f>
+        <f>C123</f>
         <v>0</v>
       </c>
     </row>
@@ -34156,11 +34134,11 @@
 [#current_year#]  : target 0 p.e.</v>
       </c>
       <c r="AA131" s="364">
-        <f>E125+E126</f>
+        <f>E126</f>
         <v>0</v>
       </c>
       <c r="AB131" s="364">
-        <f>C125+C126</f>
+        <f>C126</f>
         <v>0</v>
       </c>
     </row>
@@ -35225,54 +35203,54 @@
       <c r="AR3" s="5"/>
     </row>
     <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="690" t="s">
+      <c r="A4" s="692" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="691"/>
-      <c r="C4" s="691"/>
-      <c r="D4" s="691"/>
-      <c r="E4" s="692"/>
-      <c r="F4" s="692"/>
-      <c r="G4" s="692"/>
-      <c r="H4" s="692"/>
-      <c r="I4" s="692"/>
-      <c r="J4" s="692"/>
-      <c r="K4" s="692"/>
-      <c r="L4" s="692"/>
-      <c r="M4" s="692"/>
-      <c r="N4" s="692"/>
-      <c r="O4" s="692"/>
-      <c r="P4" s="692"/>
-      <c r="Q4" s="692"/>
-      <c r="R4" s="692"/>
-      <c r="S4" s="692"/>
-      <c r="T4" s="692"/>
-      <c r="U4" s="692"/>
-      <c r="V4" s="692"/>
-      <c r="W4" s="692"/>
-      <c r="X4" s="692"/>
-      <c r="Y4" s="692"/>
-      <c r="Z4" s="692"/>
-      <c r="AA4" s="692"/>
-      <c r="AB4" s="692"/>
-      <c r="AC4" s="692"/>
-      <c r="AD4" s="692"/>
-      <c r="AE4" s="692"/>
-      <c r="AF4" s="692"/>
-      <c r="AG4" s="692"/>
-      <c r="AH4" s="692"/>
-      <c r="AI4" s="692"/>
-      <c r="AJ4" s="692"/>
-      <c r="AK4" s="692"/>
-      <c r="AL4" s="692"/>
-      <c r="AM4" s="692"/>
-      <c r="AN4" s="692"/>
-      <c r="AO4" s="692"/>
-      <c r="AP4" s="692"/>
-      <c r="AQ4" s="693" t="s">
+      <c r="B4" s="693"/>
+      <c r="C4" s="693"/>
+      <c r="D4" s="693"/>
+      <c r="E4" s="694"/>
+      <c r="F4" s="694"/>
+      <c r="G4" s="694"/>
+      <c r="H4" s="694"/>
+      <c r="I4" s="694"/>
+      <c r="J4" s="694"/>
+      <c r="K4" s="694"/>
+      <c r="L4" s="694"/>
+      <c r="M4" s="694"/>
+      <c r="N4" s="694"/>
+      <c r="O4" s="694"/>
+      <c r="P4" s="694"/>
+      <c r="Q4" s="694"/>
+      <c r="R4" s="694"/>
+      <c r="S4" s="694"/>
+      <c r="T4" s="694"/>
+      <c r="U4" s="694"/>
+      <c r="V4" s="694"/>
+      <c r="W4" s="694"/>
+      <c r="X4" s="694"/>
+      <c r="Y4" s="694"/>
+      <c r="Z4" s="694"/>
+      <c r="AA4" s="694"/>
+      <c r="AB4" s="694"/>
+      <c r="AC4" s="694"/>
+      <c r="AD4" s="694"/>
+      <c r="AE4" s="694"/>
+      <c r="AF4" s="694"/>
+      <c r="AG4" s="694"/>
+      <c r="AH4" s="694"/>
+      <c r="AI4" s="694"/>
+      <c r="AJ4" s="694"/>
+      <c r="AK4" s="694"/>
+      <c r="AL4" s="694"/>
+      <c r="AM4" s="694"/>
+      <c r="AN4" s="694"/>
+      <c r="AO4" s="694"/>
+      <c r="AP4" s="694"/>
+      <c r="AQ4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="AR4" s="693"/>
+      <c r="AR4" s="695"/>
     </row>
     <row r="5" spans="1:44" s="573" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="299" t="s">
@@ -35460,123 +35438,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="574" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="694" t="s">
+      <c r="A1" s="696" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="695"/>
-      <c r="C1" s="695"/>
-      <c r="D1" s="695"/>
-      <c r="E1" s="695"/>
-      <c r="F1" s="695"/>
-      <c r="G1" s="695"/>
-      <c r="H1" s="696" t="s">
+      <c r="B1" s="697"/>
+      <c r="C1" s="697"/>
+      <c r="D1" s="697"/>
+      <c r="E1" s="697"/>
+      <c r="F1" s="697"/>
+      <c r="G1" s="697"/>
+      <c r="H1" s="698" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="697"/>
-      <c r="J1" s="697"/>
-      <c r="K1" s="697"/>
-      <c r="L1" s="697"/>
-      <c r="M1" s="698"/>
-      <c r="N1" s="699" t="s">
+      <c r="I1" s="699"/>
+      <c r="J1" s="699"/>
+      <c r="K1" s="699"/>
+      <c r="L1" s="699"/>
+      <c r="M1" s="700"/>
+      <c r="N1" s="701" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="700"/>
-      <c r="P1" s="700"/>
-      <c r="Q1" s="701"/>
-      <c r="R1" s="701"/>
-      <c r="S1" s="700"/>
-      <c r="T1" s="700"/>
-      <c r="U1" s="700"/>
-      <c r="V1" s="702" t="s">
+      <c r="O1" s="702"/>
+      <c r="P1" s="702"/>
+      <c r="Q1" s="703"/>
+      <c r="R1" s="703"/>
+      <c r="S1" s="702"/>
+      <c r="T1" s="702"/>
+      <c r="U1" s="702"/>
+      <c r="V1" s="704" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="703"/>
-      <c r="X1" s="704"/>
-      <c r="Y1" s="704"/>
-      <c r="Z1" s="705"/>
-      <c r="AA1" s="706" t="s">
+      <c r="W1" s="705"/>
+      <c r="X1" s="706"/>
+      <c r="Y1" s="706"/>
+      <c r="Z1" s="707"/>
+      <c r="AA1" s="708" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="707"/>
-      <c r="AC1" s="707"/>
-      <c r="AD1" s="707"/>
-      <c r="AE1" s="707"/>
-      <c r="AF1" s="707"/>
-      <c r="AG1" s="707"/>
-      <c r="AH1" s="707"/>
-      <c r="AI1" s="707"/>
-      <c r="AJ1" s="707"/>
-      <c r="AK1" s="707"/>
-      <c r="AL1" s="707"/>
-      <c r="AM1" s="707"/>
+      <c r="AB1" s="709"/>
+      <c r="AC1" s="709"/>
+      <c r="AD1" s="709"/>
+      <c r="AE1" s="709"/>
+      <c r="AF1" s="709"/>
+      <c r="AG1" s="709"/>
+      <c r="AH1" s="709"/>
+      <c r="AI1" s="709"/>
+      <c r="AJ1" s="709"/>
+      <c r="AK1" s="709"/>
+      <c r="AL1" s="709"/>
+      <c r="AM1" s="709"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="719" t="s">
+      <c r="AP1" s="721" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="700"/>
-      <c r="AR1" s="700"/>
-      <c r="AS1" s="700"/>
-      <c r="AT1" s="700"/>
-      <c r="AU1" s="700"/>
-      <c r="AV1" s="700"/>
-      <c r="AW1" s="720"/>
-      <c r="AX1" s="727" t="s">
+      <c r="AQ1" s="702"/>
+      <c r="AR1" s="702"/>
+      <c r="AS1" s="702"/>
+      <c r="AT1" s="702"/>
+      <c r="AU1" s="702"/>
+      <c r="AV1" s="702"/>
+      <c r="AW1" s="722"/>
+      <c r="AX1" s="729" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="728"/>
-      <c r="AZ1" s="728"/>
-      <c r="BA1" s="728"/>
-      <c r="BB1" s="728"/>
-      <c r="BC1" s="729"/>
-      <c r="BD1" s="730" t="s">
+      <c r="AY1" s="730"/>
+      <c r="AZ1" s="730"/>
+      <c r="BA1" s="730"/>
+      <c r="BB1" s="730"/>
+      <c r="BC1" s="731"/>
+      <c r="BD1" s="732" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="731"/>
-      <c r="BF1" s="731"/>
-      <c r="BG1" s="731"/>
-      <c r="BH1" s="731"/>
-      <c r="BI1" s="732"/>
-      <c r="BJ1" s="733" t="s">
+      <c r="BE1" s="733"/>
+      <c r="BF1" s="733"/>
+      <c r="BG1" s="733"/>
+      <c r="BH1" s="733"/>
+      <c r="BI1" s="734"/>
+      <c r="BJ1" s="735" t="s">
         <v>54</v>
       </c>
-      <c r="BK1" s="734"/>
-      <c r="BL1" s="734"/>
-      <c r="BM1" s="734"/>
-      <c r="BN1" s="734"/>
-      <c r="BO1" s="734"/>
-      <c r="BP1" s="735"/>
-      <c r="BQ1" s="708" t="s">
+      <c r="BK1" s="736"/>
+      <c r="BL1" s="736"/>
+      <c r="BM1" s="736"/>
+      <c r="BN1" s="736"/>
+      <c r="BO1" s="736"/>
+      <c r="BP1" s="737"/>
+      <c r="BQ1" s="710" t="s">
         <v>55</v>
       </c>
-      <c r="BR1" s="709"/>
-      <c r="BS1" s="709"/>
-      <c r="BT1" s="709"/>
-      <c r="BU1" s="709"/>
-      <c r="BV1" s="709"/>
+      <c r="BR1" s="711"/>
+      <c r="BS1" s="711"/>
+      <c r="BT1" s="711"/>
+      <c r="BU1" s="711"/>
+      <c r="BV1" s="711"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="710" t="s">
+      <c r="BY1" s="712" t="s">
         <v>56</v>
       </c>
-      <c r="BZ1" s="711"/>
-      <c r="CA1" s="711"/>
-      <c r="CB1" s="711"/>
-      <c r="CC1" s="711"/>
-      <c r="CD1" s="711"/>
-      <c r="CE1" s="711"/>
-      <c r="CF1" s="712"/>
-      <c r="CG1" s="712"/>
-      <c r="CH1" s="712"/>
-      <c r="CI1" s="712"/>
-      <c r="CJ1" s="712"/>
-      <c r="CK1" s="712"/>
-      <c r="CL1" s="712"/>
-      <c r="CM1" s="712"/>
-      <c r="CN1" s="712"/>
-      <c r="CO1" s="712"/>
-      <c r="CP1" s="712"/>
-      <c r="CQ1" s="712"/>
+      <c r="BZ1" s="713"/>
+      <c r="CA1" s="713"/>
+      <c r="CB1" s="713"/>
+      <c r="CC1" s="713"/>
+      <c r="CD1" s="713"/>
+      <c r="CE1" s="713"/>
+      <c r="CF1" s="714"/>
+      <c r="CG1" s="714"/>
+      <c r="CH1" s="714"/>
+      <c r="CI1" s="714"/>
+      <c r="CJ1" s="714"/>
+      <c r="CK1" s="714"/>
+      <c r="CL1" s="714"/>
+      <c r="CM1" s="714"/>
+      <c r="CN1" s="714"/>
+      <c r="CO1" s="714"/>
+      <c r="CP1" s="714"/>
+      <c r="CQ1" s="714"/>
     </row>
     <row r="2" spans="1:95" s="574" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -35600,18 +35578,18 @@
       <c r="G2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="713" t="s">
+      <c r="H2" s="715" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="714"/>
-      <c r="J2" s="714" t="s">
+      <c r="I2" s="716"/>
+      <c r="J2" s="716" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="714"/>
-      <c r="L2" s="714" t="s">
+      <c r="K2" s="716"/>
+      <c r="L2" s="716" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="715"/>
+      <c r="M2" s="717"/>
       <c r="N2" s="12" t="s">
         <v>57</v>
       </c>
@@ -35720,36 +35698,36 @@
       <c r="AW2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AX2" s="716" t="s">
+      <c r="AX2" s="718" t="s">
         <v>90</v>
       </c>
-      <c r="AY2" s="717"/>
-      <c r="AZ2" s="717"/>
-      <c r="BA2" s="717" t="s">
+      <c r="AY2" s="719"/>
+      <c r="AZ2" s="719"/>
+      <c r="BA2" s="719" t="s">
         <v>91</v>
       </c>
-      <c r="BB2" s="717"/>
-      <c r="BC2" s="718"/>
-      <c r="BD2" s="721" t="s">
+      <c r="BB2" s="719"/>
+      <c r="BC2" s="720"/>
+      <c r="BD2" s="723" t="s">
         <v>90</v>
       </c>
-      <c r="BE2" s="722"/>
-      <c r="BF2" s="722"/>
-      <c r="BG2" s="722" t="s">
+      <c r="BE2" s="724"/>
+      <c r="BF2" s="724"/>
+      <c r="BG2" s="724" t="s">
         <v>91</v>
       </c>
-      <c r="BH2" s="722"/>
-      <c r="BI2" s="723"/>
-      <c r="BJ2" s="724" t="s">
+      <c r="BH2" s="724"/>
+      <c r="BI2" s="725"/>
+      <c r="BJ2" s="726" t="s">
         <v>90</v>
       </c>
-      <c r="BK2" s="725"/>
-      <c r="BL2" s="725"/>
-      <c r="BM2" s="725" t="s">
+      <c r="BK2" s="727"/>
+      <c r="BL2" s="727"/>
+      <c r="BM2" s="727" t="s">
         <v>91</v>
       </c>
-      <c r="BN2" s="726"/>
-      <c r="BO2" s="726"/>
+      <c r="BN2" s="728"/>
+      <c r="BO2" s="728"/>
       <c r="BP2" s="24" t="s">
         <v>92</v>
       </c>
@@ -36794,7 +36772,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36862,124 +36840,124 @@
         <v>135</v>
       </c>
       <c r="L1" s="42"/>
-      <c r="M1" s="740" t="s">
+      <c r="M1" s="742" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="741" t="s">
+      <c r="N1" s="743" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="742"/>
-      <c r="P1" s="742"/>
-      <c r="Q1" s="742"/>
-      <c r="R1" s="743" t="s">
+      <c r="O1" s="744"/>
+      <c r="P1" s="744"/>
+      <c r="Q1" s="744"/>
+      <c r="R1" s="745" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="744"/>
-      <c r="T1" s="744"/>
-      <c r="U1" s="744"/>
-      <c r="V1" s="744"/>
-      <c r="W1" s="744"/>
-      <c r="X1" s="745"/>
-      <c r="Y1" s="746" t="s">
+      <c r="S1" s="746"/>
+      <c r="T1" s="746"/>
+      <c r="U1" s="746"/>
+      <c r="V1" s="746"/>
+      <c r="W1" s="746"/>
+      <c r="X1" s="747"/>
+      <c r="Y1" s="748" t="s">
         <v>139</v>
       </c>
-      <c r="Z1" s="747"/>
-      <c r="AA1" s="750" t="s">
+      <c r="Z1" s="749"/>
+      <c r="AA1" s="752" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" s="752" t="s">
+      <c r="AB1" s="754" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="760" t="s">
+      <c r="AC1" s="762" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" s="761"/>
-      <c r="AE1" s="761"/>
-      <c r="AF1" s="762"/>
-      <c r="AG1" s="763" t="s">
+      <c r="AD1" s="763"/>
+      <c r="AE1" s="763"/>
+      <c r="AF1" s="764"/>
+      <c r="AG1" s="765" t="s">
         <v>142</v>
       </c>
-      <c r="AH1" s="744"/>
-      <c r="AI1" s="744"/>
-      <c r="AJ1" s="744"/>
-      <c r="AK1" s="744"/>
-      <c r="AL1" s="744"/>
-      <c r="AM1" s="744"/>
-      <c r="AN1" s="744"/>
-      <c r="AO1" s="752" t="s">
+      <c r="AH1" s="746"/>
+      <c r="AI1" s="746"/>
+      <c r="AJ1" s="746"/>
+      <c r="AK1" s="746"/>
+      <c r="AL1" s="746"/>
+      <c r="AM1" s="746"/>
+      <c r="AN1" s="746"/>
+      <c r="AO1" s="754" t="s">
         <v>143</v>
       </c>
-      <c r="AP1" s="746" t="s">
+      <c r="AP1" s="748" t="s">
         <v>144</v>
       </c>
-      <c r="AQ1" s="747"/>
-      <c r="AR1" s="747"/>
-      <c r="AS1" s="732"/>
-      <c r="AT1" s="764" t="s">
+      <c r="AQ1" s="749"/>
+      <c r="AR1" s="749"/>
+      <c r="AS1" s="734"/>
+      <c r="AT1" s="766" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="765"/>
-      <c r="AV1" s="765"/>
-      <c r="AW1" s="765"/>
-      <c r="AX1" s="765"/>
-      <c r="AY1" s="765"/>
-      <c r="AZ1" s="765"/>
-      <c r="BA1" s="765"/>
-      <c r="BB1" s="765"/>
-      <c r="BC1" s="765"/>
-      <c r="BD1" s="765"/>
-      <c r="BE1" s="765"/>
-      <c r="BF1" s="765"/>
-      <c r="BG1" s="765"/>
-      <c r="BH1" s="765"/>
-      <c r="BI1" s="765"/>
-      <c r="BJ1" s="765"/>
-      <c r="BK1" s="765"/>
-      <c r="BL1" s="765"/>
-      <c r="BM1" s="765"/>
-      <c r="BN1" s="765"/>
-      <c r="BO1" s="765"/>
-      <c r="BP1" s="765"/>
-      <c r="BQ1" s="765"/>
-      <c r="BR1" s="765"/>
-      <c r="BS1" s="765"/>
-      <c r="BT1" s="765"/>
-      <c r="BU1" s="765"/>
-      <c r="BV1" s="765"/>
-      <c r="BW1" s="752" t="s">
+      <c r="AU1" s="767"/>
+      <c r="AV1" s="767"/>
+      <c r="AW1" s="767"/>
+      <c r="AX1" s="767"/>
+      <c r="AY1" s="767"/>
+      <c r="AZ1" s="767"/>
+      <c r="BA1" s="767"/>
+      <c r="BB1" s="767"/>
+      <c r="BC1" s="767"/>
+      <c r="BD1" s="767"/>
+      <c r="BE1" s="767"/>
+      <c r="BF1" s="767"/>
+      <c r="BG1" s="767"/>
+      <c r="BH1" s="767"/>
+      <c r="BI1" s="767"/>
+      <c r="BJ1" s="767"/>
+      <c r="BK1" s="767"/>
+      <c r="BL1" s="767"/>
+      <c r="BM1" s="767"/>
+      <c r="BN1" s="767"/>
+      <c r="BO1" s="767"/>
+      <c r="BP1" s="767"/>
+      <c r="BQ1" s="767"/>
+      <c r="BR1" s="767"/>
+      <c r="BS1" s="767"/>
+      <c r="BT1" s="767"/>
+      <c r="BU1" s="767"/>
+      <c r="BV1" s="767"/>
+      <c r="BW1" s="754" t="s">
         <v>146</v>
       </c>
-      <c r="BX1" s="746" t="s">
+      <c r="BX1" s="748" t="s">
         <v>147</v>
       </c>
-      <c r="BY1" s="747"/>
-      <c r="BZ1" s="747"/>
-      <c r="CA1" s="732"/>
-      <c r="CB1" s="754" t="s">
+      <c r="BY1" s="749"/>
+      <c r="BZ1" s="749"/>
+      <c r="CA1" s="734"/>
+      <c r="CB1" s="756" t="s">
         <v>50</v>
       </c>
-      <c r="CC1" s="754"/>
-      <c r="CD1" s="754"/>
-      <c r="CE1" s="754"/>
-      <c r="CF1" s="754"/>
-      <c r="CG1" s="754"/>
-      <c r="CH1" s="754"/>
-      <c r="CI1" s="754"/>
-      <c r="CJ1" s="754"/>
-      <c r="CK1" s="754"/>
-      <c r="CL1" s="754"/>
-      <c r="CM1" s="754"/>
+      <c r="CC1" s="756"/>
+      <c r="CD1" s="756"/>
+      <c r="CE1" s="756"/>
+      <c r="CF1" s="756"/>
+      <c r="CG1" s="756"/>
+      <c r="CH1" s="756"/>
+      <c r="CI1" s="756"/>
+      <c r="CJ1" s="756"/>
+      <c r="CK1" s="756"/>
+      <c r="CL1" s="756"/>
+      <c r="CM1" s="756"/>
       <c r="CN1" s="43"/>
-      <c r="CO1" s="755" t="s">
+      <c r="CO1" s="757" t="s">
         <v>55</v>
       </c>
-      <c r="CP1" s="701"/>
-      <c r="CQ1" s="701"/>
-      <c r="CR1" s="701"/>
-      <c r="CS1" s="701"/>
-      <c r="CT1" s="701"/>
-      <c r="CU1" s="701"/>
-      <c r="CV1" s="720"/>
+      <c r="CP1" s="703"/>
+      <c r="CQ1" s="703"/>
+      <c r="CR1" s="703"/>
+      <c r="CS1" s="703"/>
+      <c r="CT1" s="703"/>
+      <c r="CU1" s="703"/>
+      <c r="CV1" s="722"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -37018,7 +36996,7 @@
       <c r="L2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="740"/>
+      <c r="M2" s="742"/>
       <c r="N2" s="49" t="s">
         <v>152</v>
       </c>
@@ -37034,22 +37012,22 @@
       <c r="R2" s="579" t="s">
         <v>397</v>
       </c>
-      <c r="S2" s="756" t="s">
+      <c r="S2" s="758" t="s">
         <v>155</v>
       </c>
-      <c r="T2" s="726"/>
-      <c r="U2" s="757" t="s">
+      <c r="T2" s="728"/>
+      <c r="U2" s="759" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="757"/>
-      <c r="W2" s="757" t="s">
+      <c r="V2" s="759"/>
+      <c r="W2" s="759" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="758"/>
-      <c r="Y2" s="748"/>
-      <c r="Z2" s="749"/>
-      <c r="AA2" s="751"/>
-      <c r="AB2" s="753"/>
+      <c r="X2" s="760"/>
+      <c r="Y2" s="750"/>
+      <c r="Z2" s="751"/>
+      <c r="AA2" s="753"/>
+      <c r="AB2" s="755"/>
       <c r="AC2" s="50" t="s">
         <v>156</v>
       </c>
@@ -37062,81 +37040,81 @@
       <c r="AF2" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="AG2" s="759" t="s">
+      <c r="AG2" s="761" t="s">
         <v>160</v>
       </c>
-      <c r="AH2" s="738"/>
-      <c r="AI2" s="738" t="s">
+      <c r="AH2" s="740"/>
+      <c r="AI2" s="740" t="s">
         <v>161</v>
       </c>
-      <c r="AJ2" s="738"/>
-      <c r="AK2" s="738" t="s">
+      <c r="AJ2" s="740"/>
+      <c r="AK2" s="740" t="s">
         <v>162</v>
       </c>
-      <c r="AL2" s="738"/>
+      <c r="AL2" s="740"/>
       <c r="AM2" s="51" t="s">
         <v>461</v>
       </c>
       <c r="AN2" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="AO2" s="753"/>
-      <c r="AP2" s="748" t="s">
+      <c r="AO2" s="755"/>
+      <c r="AP2" s="750" t="s">
         <v>163</v>
       </c>
-      <c r="AQ2" s="749"/>
-      <c r="AR2" s="736" t="s">
+      <c r="AQ2" s="751"/>
+      <c r="AR2" s="738" t="s">
         <v>164</v>
       </c>
-      <c r="AS2" s="737"/>
-      <c r="AT2" s="738" t="s">
+      <c r="AS2" s="739"/>
+      <c r="AT2" s="740" t="s">
         <v>165</v>
       </c>
-      <c r="AU2" s="738"/>
-      <c r="AV2" s="739" t="s">
+      <c r="AU2" s="740"/>
+      <c r="AV2" s="741" t="s">
         <v>166</v>
       </c>
-      <c r="AW2" s="739"/>
-      <c r="AX2" s="739" t="s">
+      <c r="AW2" s="741"/>
+      <c r="AX2" s="741" t="s">
         <v>167</v>
       </c>
-      <c r="AY2" s="739"/>
+      <c r="AY2" s="741"/>
       <c r="AZ2" s="51" t="s">
         <v>463</v>
       </c>
       <c r="BA2" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="BB2" s="738" t="s">
+      <c r="BB2" s="740" t="s">
         <v>168</v>
       </c>
-      <c r="BC2" s="738"/>
-      <c r="BD2" s="739" t="s">
+      <c r="BC2" s="740"/>
+      <c r="BD2" s="741" t="s">
         <v>169</v>
       </c>
-      <c r="BE2" s="739"/>
-      <c r="BF2" s="739" t="s">
+      <c r="BE2" s="741"/>
+      <c r="BF2" s="741" t="s">
         <v>170</v>
       </c>
-      <c r="BG2" s="739"/>
+      <c r="BG2" s="741"/>
       <c r="BH2" s="51" t="s">
         <v>465</v>
       </c>
       <c r="BI2" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="BJ2" s="738" t="s">
+      <c r="BJ2" s="740" t="s">
         <v>171</v>
       </c>
-      <c r="BK2" s="738"/>
-      <c r="BL2" s="739" t="s">
+      <c r="BK2" s="740"/>
+      <c r="BL2" s="741" t="s">
         <v>172</v>
       </c>
-      <c r="BM2" s="739"/>
-      <c r="BN2" s="739" t="s">
+      <c r="BM2" s="741"/>
+      <c r="BN2" s="741" t="s">
         <v>173</v>
       </c>
-      <c r="BO2" s="739"/>
+      <c r="BO2" s="741"/>
       <c r="BP2" s="51" t="s">
         <v>467</v>
       </c>
@@ -37158,15 +37136,15 @@
       <c r="BV2" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="BW2" s="753"/>
-      <c r="BX2" s="748" t="s">
+      <c r="BW2" s="755"/>
+      <c r="BX2" s="750" t="s">
         <v>163</v>
       </c>
-      <c r="BY2" s="749"/>
-      <c r="BZ2" s="736" t="s">
+      <c r="BY2" s="751"/>
+      <c r="BZ2" s="738" t="s">
         <v>164</v>
       </c>
-      <c r="CA2" s="737"/>
+      <c r="CA2" s="739"/>
       <c r="CB2" s="20" t="s">
         <v>71</v>
       </c>
@@ -37206,22 +37184,22 @@
       <c r="CN2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="CO2" s="768" t="s">
+      <c r="CO2" s="770" t="s">
         <v>178</v>
       </c>
-      <c r="CP2" s="769"/>
-      <c r="CQ2" s="766" t="s">
+      <c r="CP2" s="771"/>
+      <c r="CQ2" s="768" t="s">
         <v>179</v>
       </c>
-      <c r="CR2" s="766"/>
-      <c r="CS2" s="769" t="s">
+      <c r="CR2" s="768"/>
+      <c r="CS2" s="771" t="s">
         <v>180</v>
       </c>
-      <c r="CT2" s="769"/>
-      <c r="CU2" s="766" t="s">
+      <c r="CT2" s="771"/>
+      <c r="CU2" s="768" t="s">
         <v>181</v>
       </c>
-      <c r="CV2" s="767"/>
+      <c r="CV2" s="769"/>
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="597"/>
@@ -42503,8 +42481,8 @@
       <c r="B2" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="770"/>
-      <c r="D2" s="770"/>
+      <c r="C2" s="772"/>
+      <c r="D2" s="772"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
       <c r="G2" s="111"/>
@@ -42629,32 +42607,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
-      <c r="B7" s="771" t="s">
+      <c r="B7" s="773" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="771"/>
-      <c r="D7" s="771"/>
+      <c r="C7" s="773"/>
+      <c r="D7" s="773"/>
       <c r="E7" s="111"/>
       <c r="F7" s="111"/>
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
-      <c r="J7" s="771" t="s">
+      <c r="J7" s="773" t="s">
         <v>200</v>
       </c>
-      <c r="K7" s="771"/>
-      <c r="L7" s="771"/>
+      <c r="K7" s="773"/>
+      <c r="L7" s="773"/>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
       <c r="O7" s="111"/>
       <c r="P7" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="Q7" s="771" t="s">
+      <c r="Q7" s="773" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="771"/>
-      <c r="S7" s="771"/>
+      <c r="R7" s="773"/>
+      <c r="S7" s="773"/>
       <c r="T7" s="111"/>
       <c r="U7" s="125" t="s">
         <v>202</v>
@@ -42688,41 +42666,41 @@
       <c r="B9" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="C9" s="772" t="s">
+      <c r="C9" s="774" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="773"/>
-      <c r="E9" s="772" t="s">
+      <c r="D9" s="775"/>
+      <c r="E9" s="774" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="773"/>
+      <c r="F9" s="775"/>
       <c r="G9" s="111"/>
       <c r="H9" s="111"/>
       <c r="I9" s="111"/>
       <c r="J9" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="K9" s="772" t="s">
+      <c r="K9" s="774" t="s">
         <v>204</v>
       </c>
-      <c r="L9" s="773"/>
-      <c r="M9" s="772" t="s">
+      <c r="L9" s="775"/>
+      <c r="M9" s="774" t="s">
         <v>205</v>
       </c>
-      <c r="N9" s="773"/>
+      <c r="N9" s="775"/>
       <c r="O9" s="111"/>
       <c r="P9" s="111"/>
       <c r="Q9" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="R9" s="772" t="s">
+      <c r="R9" s="774" t="s">
         <v>204</v>
       </c>
-      <c r="S9" s="773"/>
-      <c r="T9" s="772" t="s">
+      <c r="S9" s="775"/>
+      <c r="T9" s="774" t="s">
         <v>205</v>
       </c>
-      <c r="U9" s="773"/>
+      <c r="U9" s="775"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
@@ -42784,10 +42762,10 @@
       </c>
       <c r="C11" s="131"/>
       <c r="D11" s="131"/>
-      <c r="E11" s="774" t="s">
+      <c r="E11" s="776" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="775"/>
+      <c r="F11" s="777"/>
       <c r="G11" s="132"/>
       <c r="H11" s="132"/>
       <c r="I11" s="132"/>
@@ -42796,10 +42774,10 @@
       </c>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
-      <c r="M11" s="777" t="s">
+      <c r="M11" s="779" t="s">
         <v>210</v>
       </c>
-      <c r="N11" s="778"/>
+      <c r="N11" s="780"/>
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
       <c r="Q11" s="130" t="s">
@@ -42807,10 +42785,10 @@
       </c>
       <c r="R11" s="131"/>
       <c r="S11" s="131"/>
-      <c r="T11" s="774" t="s">
+      <c r="T11" s="776" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="775"/>
+      <c r="U11" s="777"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
@@ -43045,10 +43023,10 @@
       </c>
       <c r="C20" s="426"/>
       <c r="D20" s="159"/>
-      <c r="E20" s="774" t="s">
+      <c r="E20" s="776" t="s">
         <v>449</v>
       </c>
-      <c r="F20" s="775"/>
+      <c r="F20" s="777"/>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
       <c r="I20" s="111"/>
@@ -43057,10 +43035,10 @@
       </c>
       <c r="K20" s="426"/>
       <c r="L20" s="159"/>
-      <c r="M20" s="774" t="s">
+      <c r="M20" s="776" t="s">
         <v>449</v>
       </c>
-      <c r="N20" s="775"/>
+      <c r="N20" s="777"/>
       <c r="O20" s="150"/>
       <c r="P20" s="150"/>
       <c r="Q20" s="130" t="s">
@@ -43068,10 +43046,10 @@
       </c>
       <c r="R20" s="426"/>
       <c r="S20" s="159"/>
-      <c r="T20" s="774" t="s">
+      <c r="T20" s="776" t="s">
         <v>449</v>
       </c>
-      <c r="U20" s="775"/>
+      <c r="U20" s="777"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
@@ -43335,10 +43313,10 @@
       </c>
       <c r="C30" s="426"/>
       <c r="D30" s="159"/>
-      <c r="E30" s="774" t="s">
+      <c r="E30" s="776" t="s">
         <v>449</v>
       </c>
-      <c r="F30" s="775"/>
+      <c r="F30" s="777"/>
       <c r="G30" s="140"/>
       <c r="H30" s="140"/>
       <c r="I30" s="111"/>
@@ -43347,10 +43325,10 @@
       </c>
       <c r="K30" s="426"/>
       <c r="L30" s="159"/>
-      <c r="M30" s="774" t="s">
+      <c r="M30" s="776" t="s">
         <v>449</v>
       </c>
-      <c r="N30" s="775"/>
+      <c r="N30" s="777"/>
       <c r="O30" s="150"/>
       <c r="P30" s="150"/>
       <c r="Q30" s="130" t="s">
@@ -43358,10 +43336,10 @@
       </c>
       <c r="R30" s="426"/>
       <c r="S30" s="159"/>
-      <c r="T30" s="774" t="s">
+      <c r="T30" s="776" t="s">
         <v>449</v>
       </c>
-      <c r="U30" s="775"/>
+      <c r="U30" s="777"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="172"/>
@@ -43684,11 +43662,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="776"/>
-      <c r="C42" s="776"/>
-      <c r="D42" s="776"/>
-      <c r="E42" s="776"/>
-      <c r="F42" s="776"/>
+      <c r="B42" s="778"/>
+      <c r="C42" s="778"/>
+      <c r="D42" s="778"/>
+      <c r="E42" s="778"/>
+      <c r="F42" s="778"/>
       <c r="G42" s="150"/>
       <c r="H42" s="111"/>
       <c r="I42" s="150"/>
@@ -43884,8 +43862,8 @@
       <c r="B3" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="779"/>
-      <c r="D3" s="779"/>
+      <c r="C3" s="781"/>
+      <c r="D3" s="781"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="195"/>
@@ -43918,10 +43896,10 @@
       <c r="D10" s="203" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="780" t="s">
+      <c r="E10" s="782" t="s">
         <v>233</v>
       </c>
-      <c r="F10" s="781"/>
+      <c r="F10" s="783"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="204" t="s">
@@ -44072,10 +44050,10 @@
       <c r="D30" s="215" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="780" t="s">
+      <c r="E30" s="782" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="781"/>
+      <c r="F30" s="783"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="204" t="s">
@@ -44223,10 +44201,10 @@
       <c r="D49" s="215" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="780" t="s">
+      <c r="E49" s="782" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="781"/>
+      <c r="F49" s="783"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="204" t="s">
@@ -44394,8 +44372,8 @@
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
-      <c r="E2" s="770"/>
-      <c r="F2" s="770"/>
+      <c r="E2" s="772"/>
+      <c r="F2" s="772"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="112"/>
@@ -44427,13 +44405,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
-      <c r="B6" s="771" t="s">
+      <c r="B6" s="773" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="771"/>
-      <c r="D6" s="771"/>
-      <c r="E6" s="771"/>
-      <c r="F6" s="771"/>
+      <c r="C6" s="773"/>
+      <c r="D6" s="773"/>
+      <c r="E6" s="773"/>
+      <c r="F6" s="773"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
@@ -44448,14 +44426,14 @@
       <c r="B8" s="461" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="782" t="s">
+      <c r="C8" s="784" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="783"/>
-      <c r="E8" s="784" t="s">
+      <c r="D8" s="785"/>
+      <c r="E8" s="786" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="783"/>
+      <c r="F8" s="785"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
@@ -44591,11 +44569,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
-      <c r="B22" s="776"/>
-      <c r="C22" s="776"/>
-      <c r="D22" s="776"/>
-      <c r="E22" s="776"/>
-      <c r="F22" s="776"/>
+      <c r="B22" s="778"/>
+      <c r="C22" s="778"/>
+      <c r="D22" s="778"/>
+      <c r="E22" s="778"/>
+      <c r="F22" s="778"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
@@ -44665,13 +44643,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="785" t="s">
+      <c r="B2" s="787" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="786" t="s">
+      <c r="C2" s="788" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="786" t="s">
+      <c r="D2" s="788" t="s">
         <v>150</v>
       </c>
       <c r="E2" s="232" t="s">
@@ -44706,9 +44684,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="785"/>
-      <c r="C3" s="787"/>
-      <c r="D3" s="787"/>
+      <c r="B3" s="787"/>
+      <c r="C3" s="789"/>
+      <c r="D3" s="789"/>
       <c r="E3" s="672" t="s">
         <v>259</v>
       </c>
@@ -44741,7 +44719,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="788" t="s">
+      <c r="B4" s="790" t="s">
         <v>262</v>
       </c>
       <c r="C4" s="233" t="s">
@@ -44760,7 +44738,7 @@
       <c r="N4" s="235"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="788"/>
+      <c r="B5" s="790"/>
       <c r="C5" s="233" t="s">
         <v>60</v>
       </c>
@@ -44777,7 +44755,7 @@
       <c r="N5" s="235"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="789"/>
+      <c r="B6" s="791"/>
       <c r="C6" s="562" t="s">
         <v>453</v>
       </c>
@@ -44871,155 +44849,180 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="46.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="46.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="588" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="790" t="s">
+    <row r="1" spans="1:15" s="588" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="792" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="791"/>
-      <c r="C1" s="792"/>
-      <c r="D1" s="793" t="s">
+      <c r="B1" s="793"/>
+      <c r="C1" s="793"/>
+      <c r="D1" s="794"/>
+      <c r="E1" s="795" t="s">
         <v>458</v>
       </c>
-      <c r="E1" s="793"/>
-      <c r="F1" s="794"/>
-      <c r="G1" s="803" t="s">
+      <c r="F1" s="795"/>
+      <c r="G1" s="796"/>
+      <c r="H1" s="805" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="804"/>
-      <c r="I1" s="804"/>
-      <c r="J1" s="804"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="795" t="s">
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="797" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="588" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="N1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" s="588" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="243" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="244" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="244" t="s">
+      <c r="C2" s="244" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="245" t="s">
+      <c r="D2" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="246" t="s">
+      <c r="E2" s="246" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="247" t="s">
+      <c r="F2" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="248" t="s">
+      <c r="G2" s="248" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="249">
+      <c r="H2" s="249">
         <v>0</v>
       </c>
-      <c r="H2" s="249">
+      <c r="I2" s="249">
         <v>1</v>
       </c>
-      <c r="I2" s="249">
+      <c r="J2" s="249">
         <v>2</v>
       </c>
-      <c r="J2" s="250" t="s">
+      <c r="K2" s="250" t="s">
         <v>268</v>
       </c>
-      <c r="K2" s="251" t="s">
+      <c r="L2" s="251" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="796"/>
-    </row>
-    <row r="3" spans="1:12" s="588" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="798"/>
+      <c r="N2" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="588" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="252"/>
       <c r="B3" s="253"/>
-      <c r="C3" s="254" t="s">
+      <c r="C3" s="253"/>
+      <c r="D3" s="254" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="797" t="s">
+      <c r="E3" s="799" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="798"/>
-      <c r="F3" s="799"/>
-      <c r="G3" s="800" t="s">
+      <c r="F3" s="800"/>
+      <c r="G3" s="801"/>
+      <c r="H3" s="802" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="801"/>
-      <c r="I3" s="801"/>
-      <c r="J3" s="801"/>
-      <c r="K3" s="802"/>
-      <c r="L3" s="796"/>
-    </row>
-    <row r="4" spans="1:12" s="588" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="803"/>
+      <c r="J3" s="803"/>
+      <c r="K3" s="803"/>
+      <c r="L3" s="804"/>
+      <c r="M3" s="798"/>
+      <c r="N3" s="597"/>
+      <c r="O3" s="598"/>
+    </row>
+    <row r="4" spans="1:15" s="588" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="252"/>
       <c r="B4" s="253"/>
       <c r="C4" s="253"/>
-      <c r="D4" s="567"/>
+      <c r="D4" s="253"/>
       <c r="E4" s="567"/>
       <c r="F4" s="567"/>
-      <c r="G4" s="568"/>
+      <c r="G4" s="567"/>
       <c r="H4" s="568"/>
       <c r="I4" s="568"/>
       <c r="J4" s="568"/>
       <c r="K4" s="568"/>
-      <c r="L4" s="566"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="568"/>
+      <c r="M4" s="566"/>
+      <c r="N4" s="597"/>
+      <c r="O4" s="597"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="302"/>
-      <c r="B5" s="303"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="481"/>
-      <c r="E5" s="483"/>
+      <c r="B5" s="690"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="481"/>
       <c r="F5" s="483"/>
       <c r="G5" s="483"/>
       <c r="H5" s="483"/>
       <c r="I5" s="483"/>
       <c r="J5" s="483"/>
       <c r="K5" s="483"/>
-      <c r="L5" s="305"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="483"/>
+      <c r="O5" s="305"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="306"/>
-      <c r="B6" s="307"/>
-      <c r="C6" s="308"/>
-      <c r="D6" s="482"/>
-      <c r="E6" s="484"/>
-      <c r="F6" s="482"/>
-      <c r="G6" s="484"/>
+      <c r="B6" s="691"/>
+      <c r="C6" s="307"/>
+      <c r="D6" s="308"/>
+      <c r="E6" s="482"/>
+      <c r="F6" s="484"/>
+      <c r="G6" s="482"/>
       <c r="H6" s="484"/>
       <c r="I6" s="484"/>
       <c r="J6" s="484"/>
       <c r="K6" s="484"/>
-      <c r="L6" s="309"/>
+      <c r="L6" s="484"/>
+      <c r="M6" s="484"/>
+      <c r="N6" s="484"/>
+      <c r="O6" s="309"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
+  <autoFilter ref="A4:O4"/>
   <mergeCells count="6">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="17" r:id="rId1"/>
@@ -5571,6 +5571,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6009,9 +6012,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -6378,7 +6378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74B5685F-79AC-4FD1-B4D9-8D9988094225}" type="CELLRANGE">
+                    <a:fld id="{691DA024-59E2-45C3-8177-1329B0CCD024}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6409,7 +6409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5516AA31-1FCE-41F7-9B4D-6130FC31144A}" type="CELLRANGE">
+                    <a:fld id="{E04A1F23-8048-4902-87AB-3CFDCF68BA81}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6613,7 +6613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74FB3516-ADA4-46BF-BF84-7D7199A6B7A0}" type="CELLRANGE">
+                    <a:fld id="{15EDE4B4-55B2-41F3-8116-6A2F4DDEFC43}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6644,7 +6644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29783046-DC8C-4D7E-AFAD-E4DF2C1E5780}" type="CELLRANGE">
+                    <a:fld id="{B921E833-1845-4B3E-998C-04A550BEC955}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6794,11 +6794,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1877310768"/>
-        <c:axId val="-1997249552"/>
+        <c:axId val="724010688"/>
+        <c:axId val="724015040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1877310768"/>
+        <c:axId val="724010688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6841,7 +6841,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1997249552"/>
+        <c:crossAx val="724015040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6849,7 +6849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1997249552"/>
+        <c:axId val="724015040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6941,7 +6941,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877310768"/>
+        <c:crossAx val="724010688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7327,11 +7327,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829390048"/>
-        <c:axId val="-1829391136"/>
+        <c:axId val="724012320"/>
+        <c:axId val="724022656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829390048"/>
+        <c:axId val="724012320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7429,7 +7429,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829391136"/>
+        <c:crossAx val="724022656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7437,7 +7437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829391136"/>
+        <c:axId val="724022656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7557,7 +7557,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829390048"/>
+        <c:crossAx val="724012320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8441,11 +8441,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829387872"/>
-        <c:axId val="-1829388960"/>
+        <c:axId val="724010144"/>
+        <c:axId val="724016128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829387872"/>
+        <c:axId val="724010144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8548,7 +8548,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829388960"/>
+        <c:crossAx val="724016128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8556,7 +8556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829388960"/>
+        <c:axId val="724016128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8607,7 +8607,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829387872"/>
+        <c:crossAx val="724010144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8972,11 +8972,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829392224"/>
-        <c:axId val="-1829397664"/>
+        <c:axId val="724013952"/>
+        <c:axId val="724023200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829392224"/>
+        <c:axId val="724013952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9087,7 +9087,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829397664"/>
+        <c:crossAx val="724023200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9095,7 +9095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829397664"/>
+        <c:axId val="724023200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9201,7 +9201,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829392224"/>
+        <c:crossAx val="724013952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9571,11 +9571,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829386784"/>
-        <c:axId val="-1829397120"/>
+        <c:axId val="724017760"/>
+        <c:axId val="724014496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829386784"/>
+        <c:axId val="724017760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9686,7 +9686,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829397120"/>
+        <c:crossAx val="724014496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9694,7 +9694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829397120"/>
+        <c:axId val="724014496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9808,7 +9808,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829386784"/>
+        <c:crossAx val="724017760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10289,11 +10289,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829387328"/>
-        <c:axId val="-1829386240"/>
+        <c:axId val="724016672"/>
+        <c:axId val="724023744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829387328"/>
+        <c:axId val="724016672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10399,7 +10399,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829386240"/>
+        <c:crossAx val="724023744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10407,7 +10407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829386240"/>
+        <c:axId val="724023744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10529,7 +10529,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829387328"/>
+        <c:crossAx val="724016672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10865,11 +10865,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829385696"/>
-        <c:axId val="-1829385152"/>
+        <c:axId val="727366224"/>
+        <c:axId val="727364592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829385696"/>
+        <c:axId val="727366224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10980,7 +10980,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829385152"/>
+        <c:crossAx val="727364592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10988,7 +10988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829385152"/>
+        <c:axId val="727364592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11102,7 +11102,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829385696"/>
+        <c:crossAx val="727366224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11438,11 +11438,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829399296"/>
-        <c:axId val="-1829396576"/>
+        <c:axId val="727374384"/>
+        <c:axId val="727368944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829399296"/>
+        <c:axId val="727374384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11553,7 +11553,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829396576"/>
+        <c:crossAx val="727368944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11561,7 +11561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829396576"/>
+        <c:axId val="727368944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11675,7 +11675,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829399296"/>
+        <c:crossAx val="727374384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12056,11 +12056,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829395488"/>
-        <c:axId val="-1829396032"/>
+        <c:axId val="727364048"/>
+        <c:axId val="727359152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829395488"/>
+        <c:axId val="727364048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12158,7 +12158,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829396032"/>
+        <c:crossAx val="727359152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12166,7 +12166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829396032"/>
+        <c:axId val="727359152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12285,7 +12285,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829395488"/>
+        <c:crossAx val="727364048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12790,11 +12790,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1829394944"/>
-        <c:axId val="-1829393312"/>
+        <c:axId val="727359696"/>
+        <c:axId val="727368400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829394944"/>
+        <c:axId val="727359696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12837,7 +12837,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829393312"/>
+        <c:crossAx val="727368400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12845,7 +12845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829393312"/>
+        <c:axId val="727368400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12951,7 +12951,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829394944"/>
+        <c:crossAx val="727359696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13187,7 +13187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F1EDF10-22E9-4DC0-9FE0-CB36F9F1D2CE}" type="CELLRANGE">
+                    <a:fld id="{013A282C-7CBE-4D56-A3F1-67BB1790A90D}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13218,7 +13218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A713EAA-C1C2-4B55-92CD-F77D864F553B}" type="CELLRANGE">
+                    <a:fld id="{7FCDCFF2-268A-4081-9394-44ED42075411}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13422,7 +13422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4C92FC6-BDCE-4324-ABA9-B6019CACE480}" type="CELLRANGE">
+                    <a:fld id="{F5E53786-5973-4110-BB14-B26BFA18DCD8}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13453,7 +13453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40AC505A-FA69-4A51-B32A-DA38D9F86AA6}" type="CELLRANGE">
+                    <a:fld id="{7B7DC801-0C6A-4B71-A08B-0AF48A46BCFE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13603,11 +13603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1997241392"/>
-        <c:axId val="-1997240848"/>
+        <c:axId val="724024288"/>
+        <c:axId val="724012864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1997241392"/>
+        <c:axId val="724024288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13705,7 +13705,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1997240848"/>
+        <c:crossAx val="724012864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13713,7 +13713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1997240848"/>
+        <c:axId val="724012864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13813,7 +13813,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1997241392"/>
+        <c:crossAx val="724024288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14232,11 +14232,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829392768"/>
-        <c:axId val="-1873589248"/>
+        <c:axId val="727365136"/>
+        <c:axId val="727360784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829392768"/>
+        <c:axId val="727365136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14279,7 +14279,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1873589248"/>
+        <c:crossAx val="727360784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14287,7 +14287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1873589248"/>
+        <c:axId val="727360784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14368,7 +14368,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829392768"/>
+        <c:crossAx val="727365136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15276,11 +15276,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-59155056"/>
-        <c:axId val="-59153424"/>
+        <c:axId val="724019936"/>
+        <c:axId val="724019392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-59155056"/>
+        <c:axId val="724019936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15378,7 +15378,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-59153424"/>
+        <c:crossAx val="724019392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15386,7 +15386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-59153424"/>
+        <c:axId val="724019392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15492,7 +15492,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-59155056"/>
+        <c:crossAx val="724019936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15950,11 +15950,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1829400384"/>
-        <c:axId val="-1829393856"/>
+        <c:axId val="724021024"/>
+        <c:axId val="724021568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829400384"/>
+        <c:axId val="724021024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16052,7 +16052,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829393856"/>
+        <c:crossAx val="724021568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16060,7 +16060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829393856"/>
+        <c:axId val="724021568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16160,7 +16160,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829400384"/>
+        <c:crossAx val="724021024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16618,11 +16618,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1829398752"/>
-        <c:axId val="-1829388416"/>
+        <c:axId val="724022112"/>
+        <c:axId val="724009600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829398752"/>
+        <c:axId val="724022112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16720,7 +16720,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829388416"/>
+        <c:crossAx val="724009600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16728,7 +16728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829388416"/>
+        <c:axId val="724009600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16828,7 +16828,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829398752"/>
+        <c:crossAx val="724022112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17359,11 +17359,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829389504"/>
-        <c:axId val="-1829398208"/>
+        <c:axId val="724018848"/>
+        <c:axId val="724011232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829389504"/>
+        <c:axId val="724018848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17406,7 +17406,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829398208"/>
+        <c:crossAx val="724011232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17414,7 +17414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829398208"/>
+        <c:axId val="724011232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17525,7 +17525,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829389504"/>
+        <c:crossAx val="724018848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18055,11 +18055,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829399840"/>
-        <c:axId val="-1829394400"/>
+        <c:axId val="724015584"/>
+        <c:axId val="724020480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829399840"/>
+        <c:axId val="724015584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18102,7 +18102,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829394400"/>
+        <c:crossAx val="724020480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18110,7 +18110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829394400"/>
+        <c:axId val="724020480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18229,7 +18229,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829399840"/>
+        <c:crossAx val="724015584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18569,11 +18569,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1829390592"/>
-        <c:axId val="-1829391680"/>
+        <c:axId val="724011776"/>
+        <c:axId val="724013408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1829390592"/>
+        <c:axId val="724011776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18668,7 +18668,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829391680"/>
+        <c:crossAx val="724013408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18676,7 +18676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1829391680"/>
+        <c:axId val="724013408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -18796,7 +18796,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1829390592"/>
+        <c:crossAx val="724011776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30742,9 +30742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31100,23 +31098,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="570" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="721" t="s">
+      <c r="A1" s="722" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="722"/>
-      <c r="C1" s="722"/>
-      <c r="D1" s="722"/>
+      <c r="B1" s="723"/>
+      <c r="C1" s="723"/>
+      <c r="D1" s="723"/>
       <c r="E1" s="561"/>
-      <c r="F1" s="808" t="s">
+      <c r="F1" s="809" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="809"/>
-      <c r="H1" s="809"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
       <c r="I1" s="566"/>
       <c r="J1" s="253"/>
       <c r="K1" s="566"/>
       <c r="L1" s="254"/>
-      <c r="M1" s="803" t="s">
+      <c r="M1" s="804" t="s">
         <v>272</v>
       </c>
       <c r="N1" s="255"/>
@@ -31128,19 +31126,19 @@
       <c r="R1" s="253"/>
       <c r="S1" s="566"/>
       <c r="T1" s="254"/>
-      <c r="U1" s="803" t="s">
+      <c r="U1" s="804" t="s">
         <v>274</v>
       </c>
       <c r="V1" s="255"/>
-      <c r="W1" s="810" t="s">
+      <c r="W1" s="811" t="s">
         <v>275</v>
       </c>
-      <c r="X1" s="810"/>
-      <c r="Y1" s="810"/>
-      <c r="Z1" s="810"/>
-      <c r="AA1" s="810"/>
-      <c r="AB1" s="811"/>
-      <c r="AC1" s="803" t="s">
+      <c r="X1" s="811"/>
+      <c r="Y1" s="811"/>
+      <c r="Z1" s="811"/>
+      <c r="AA1" s="811"/>
+      <c r="AB1" s="812"/>
+      <c r="AC1" s="804" t="s">
         <v>276</v>
       </c>
     </row>
@@ -31154,52 +31152,52 @@
       <c r="C2" s="565" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="805" t="s">
+      <c r="D2" s="806" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="805"/>
+      <c r="E2" s="806"/>
       <c r="F2" s="257"/>
-      <c r="G2" s="806" t="s">
+      <c r="G2" s="807" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="806"/>
-      <c r="I2" s="806" t="s">
+      <c r="H2" s="807"/>
+      <c r="I2" s="807" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="806"/>
-      <c r="K2" s="806" t="s">
+      <c r="J2" s="807"/>
+      <c r="K2" s="807" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="807"/>
-      <c r="M2" s="804"/>
+      <c r="L2" s="808"/>
+      <c r="M2" s="805"/>
       <c r="N2" s="258"/>
-      <c r="O2" s="806" t="s">
+      <c r="O2" s="807" t="s">
         <v>160</v>
       </c>
-      <c r="P2" s="806"/>
-      <c r="Q2" s="806" t="s">
+      <c r="P2" s="807"/>
+      <c r="Q2" s="807" t="s">
         <v>161</v>
       </c>
-      <c r="R2" s="806"/>
-      <c r="S2" s="806" t="s">
+      <c r="R2" s="807"/>
+      <c r="S2" s="807" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="807"/>
-      <c r="U2" s="804"/>
+      <c r="T2" s="808"/>
+      <c r="U2" s="805"/>
       <c r="V2" s="258"/>
-      <c r="W2" s="806" t="s">
+      <c r="W2" s="807" t="s">
         <v>160</v>
       </c>
-      <c r="X2" s="806"/>
-      <c r="Y2" s="806" t="s">
+      <c r="X2" s="807"/>
+      <c r="Y2" s="807" t="s">
         <v>161</v>
       </c>
-      <c r="Z2" s="806"/>
-      <c r="AA2" s="806" t="s">
+      <c r="Z2" s="807"/>
+      <c r="AA2" s="807" t="s">
         <v>162</v>
       </c>
-      <c r="AB2" s="807"/>
-      <c r="AC2" s="804"/>
+      <c r="AB2" s="808"/>
+      <c r="AC2" s="805"/>
     </row>
     <row r="3" spans="1:29" s="585" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
@@ -31594,35 +31592,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="823" t="s">
+      <c r="A1" s="824" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="824"/>
-      <c r="C1" s="824"/>
+      <c r="B1" s="825"/>
+      <c r="C1" s="825"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="831" t="s">
+      <c r="A3" s="832" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="833" t="s">
+      <c r="B3" s="834" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="834"/>
-      <c r="D3" s="829" t="s">
+      <c r="C3" s="835"/>
+      <c r="D3" s="830" t="s">
         <v>438</v>
       </c>
-      <c r="E3" s="830"/>
-      <c r="AA3" s="813" t="s">
+      <c r="E3" s="831"/>
+      <c r="AA3" s="814" t="s">
         <v>332</v>
       </c>
-      <c r="AB3" s="813"/>
-      <c r="AC3" s="813" t="s">
+      <c r="AB3" s="814"/>
+      <c r="AC3" s="814" t="s">
         <v>416</v>
       </c>
-      <c r="AD3" s="813"/>
+      <c r="AD3" s="814"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="832"/>
+      <c r="A4" s="833"/>
       <c r="B4" s="307" t="s">
         <v>415</v>
       </c>
@@ -31765,14 +31763,14 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z10" s="359"/>
-      <c r="AA10" s="813" t="s">
+      <c r="AA10" s="814" t="s">
         <v>417</v>
       </c>
-      <c r="AB10" s="813"/>
-      <c r="AC10" s="813" t="s">
+      <c r="AB10" s="814"/>
+      <c r="AC10" s="814" t="s">
         <v>418</v>
       </c>
-      <c r="AD10" s="813"/>
+      <c r="AD10" s="814"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Z11" s="359" t="s">
@@ -31817,7 +31815,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="831" t="s">
+      <c r="A13" s="832" t="s">
         <v>320</v>
       </c>
       <c r="B13" s="306" t="str">
@@ -31849,7 +31847,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="832"/>
+      <c r="A14" s="833"/>
       <c r="B14" s="309" t="s">
         <v>321</v>
       </c>
@@ -31935,27 +31933,27 @@
       <c r="A21" t="s">
         <v>422</v>
       </c>
-      <c r="B21" s="812" t="s">
+      <c r="B21" s="813" t="s">
         <v>431</v>
       </c>
-      <c r="C21" s="812"/>
-      <c r="D21" s="812"/>
-      <c r="E21" s="812"/>
+      <c r="C21" s="813"/>
+      <c r="D21" s="813"/>
+      <c r="E21" s="813"/>
     </row>
     <row r="22" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="311" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="835" t="str">
+      <c r="B22" s="836" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C22" s="836"/>
-      <c r="D22" s="835" t="str">
+      <c r="C22" s="837"/>
+      <c r="D22" s="836" t="str">
         <f>D3</f>
         <v>[#previous_year#]*</v>
       </c>
-      <c r="E22" s="836"/>
+      <c r="E22" s="837"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="312"/>
@@ -32330,16 +32328,16 @@
       <c r="A41" s="314" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="825" t="str">
+      <c r="B41" s="826" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C41" s="826"/>
-      <c r="D41" s="827" t="str">
+      <c r="C41" s="827"/>
+      <c r="D41" s="828" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E41" s="828"/>
+      <c r="E41" s="829"/>
       <c r="AA41" t="s">
         <v>412</v>
       </c>
@@ -32489,11 +32487,11 @@
       <c r="AA48" t="s">
         <v>422</v>
       </c>
-      <c r="AB48" s="812" t="s">
+      <c r="AB48" s="813" t="s">
         <v>443</v>
       </c>
-      <c r="AC48" s="812"/>
-      <c r="AD48" s="812"/>
+      <c r="AC48" s="813"/>
+      <c r="AD48" s="813"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="380" t="s">
@@ -32767,11 +32765,11 @@
       <c r="AA62" t="s">
         <v>422</v>
       </c>
-      <c r="AB62" s="812" t="s">
+      <c r="AB62" s="813" t="s">
         <v>444</v>
       </c>
-      <c r="AC62" s="812"/>
-      <c r="AD62" s="812"/>
+      <c r="AC62" s="813"/>
+      <c r="AD62" s="813"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="308"/>
@@ -33006,12 +33004,12 @@
       <c r="A74" s="526" t="s">
         <v>426</v>
       </c>
-      <c r="B74" s="812" t="s">
+      <c r="B74" s="813" t="s">
         <v>427</v>
       </c>
-      <c r="C74" s="812"/>
-      <c r="D74" s="812"/>
-      <c r="E74" s="812"/>
+      <c r="C74" s="813"/>
+      <c r="D74" s="813"/>
+      <c r="E74" s="813"/>
     </row>
     <row r="75" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="329" t="s">
@@ -33304,16 +33302,16 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85" s="816" t="str">
+      <c r="B85" s="817" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C85" s="817"/>
-      <c r="D85" s="816" t="str">
+      <c r="C85" s="818"/>
+      <c r="D85" s="817" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E85" s="817"/>
+      <c r="E85" s="818"/>
       <c r="Z85" t="s">
         <v>401</v>
       </c>
@@ -33327,14 +33325,14 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="201"/>
-      <c r="B86" s="818" t="s">
+      <c r="B86" s="819" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="779"/>
-      <c r="D86" s="818" t="s">
+      <c r="C86" s="780"/>
+      <c r="D86" s="819" t="s">
         <v>233</v>
       </c>
-      <c r="E86" s="779"/>
+      <c r="E86" s="780"/>
       <c r="Z86" s="337" t="s">
         <v>234</v>
       </c>
@@ -33540,27 +33538,27 @@
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B101" s="816" t="str">
+      <c r="B101" s="817" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C101" s="817"/>
-      <c r="D101" s="816" t="str">
+      <c r="C101" s="818"/>
+      <c r="D101" s="817" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E101" s="817"/>
+      <c r="E101" s="818"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="201"/>
-      <c r="B102" s="818" t="s">
+      <c r="B102" s="819" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="779"/>
-      <c r="D102" s="818" t="s">
+      <c r="C102" s="780"/>
+      <c r="D102" s="819" t="s">
         <v>233</v>
       </c>
-      <c r="E102" s="779"/>
+      <c r="E102" s="780"/>
       <c r="Z102" t="s">
         <v>401</v>
       </c>
@@ -33774,27 +33772,27 @@
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="819" t="str">
+      <c r="B116" s="820" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C116" s="820"/>
-      <c r="D116" s="819" t="str">
+      <c r="C116" s="821"/>
+      <c r="D116" s="820" t="str">
         <f>C13</f>
         <v>[#previous_year#]</v>
       </c>
-      <c r="E116" s="820"/>
+      <c r="E116" s="821"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="342"/>
-      <c r="B117" s="821" t="s">
+      <c r="B117" s="822" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="822"/>
-      <c r="D117" s="821" t="s">
+      <c r="C117" s="823"/>
+      <c r="D117" s="822" t="s">
         <v>233</v>
       </c>
-      <c r="E117" s="822"/>
+      <c r="E117" s="823"/>
       <c r="Z117" t="s">
         <v>401</v>
       </c>
@@ -34026,12 +34024,12 @@
       <c r="A129" s="346" t="s">
         <v>320</v>
       </c>
-      <c r="B129" s="814" t="str">
+      <c r="B129" s="815" t="str">
         <f>B3</f>
         <v xml:space="preserve">[#current_year#] </v>
       </c>
-      <c r="C129" s="815"/>
-      <c r="D129" s="815"/>
+      <c r="C129" s="816"/>
+      <c r="D129" s="816"/>
       <c r="Z129" t="str">
         <f>CONCATENATE("Collection 
 ", B3, " : target ", AB118, " p.e.")</f>
@@ -35158,54 +35156,54 @@
       <c r="AR3" s="5"/>
     </row>
     <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="688" t="s">
+      <c r="A4" s="689" t="s">
         <v>448</v>
       </c>
-      <c r="B4" s="689"/>
-      <c r="C4" s="689"/>
-      <c r="D4" s="689"/>
-      <c r="E4" s="690"/>
-      <c r="F4" s="690"/>
-      <c r="G4" s="690"/>
-      <c r="H4" s="690"/>
-      <c r="I4" s="690"/>
-      <c r="J4" s="690"/>
-      <c r="K4" s="690"/>
-      <c r="L4" s="690"/>
-      <c r="M4" s="690"/>
-      <c r="N4" s="690"/>
-      <c r="O4" s="690"/>
-      <c r="P4" s="690"/>
-      <c r="Q4" s="690"/>
-      <c r="R4" s="690"/>
-      <c r="S4" s="690"/>
-      <c r="T4" s="690"/>
-      <c r="U4" s="690"/>
-      <c r="V4" s="690"/>
-      <c r="W4" s="690"/>
-      <c r="X4" s="690"/>
-      <c r="Y4" s="690"/>
-      <c r="Z4" s="690"/>
-      <c r="AA4" s="690"/>
-      <c r="AB4" s="690"/>
-      <c r="AC4" s="690"/>
-      <c r="AD4" s="690"/>
-      <c r="AE4" s="690"/>
-      <c r="AF4" s="690"/>
-      <c r="AG4" s="690"/>
-      <c r="AH4" s="690"/>
-      <c r="AI4" s="690"/>
-      <c r="AJ4" s="690"/>
-      <c r="AK4" s="690"/>
-      <c r="AL4" s="690"/>
-      <c r="AM4" s="690"/>
-      <c r="AN4" s="690"/>
-      <c r="AO4" s="690"/>
-      <c r="AP4" s="690"/>
-      <c r="AQ4" s="691" t="s">
+      <c r="B4" s="690"/>
+      <c r="C4" s="690"/>
+      <c r="D4" s="690"/>
+      <c r="E4" s="691"/>
+      <c r="F4" s="691"/>
+      <c r="G4" s="691"/>
+      <c r="H4" s="691"/>
+      <c r="I4" s="691"/>
+      <c r="J4" s="691"/>
+      <c r="K4" s="691"/>
+      <c r="L4" s="691"/>
+      <c r="M4" s="691"/>
+      <c r="N4" s="691"/>
+      <c r="O4" s="691"/>
+      <c r="P4" s="691"/>
+      <c r="Q4" s="691"/>
+      <c r="R4" s="691"/>
+      <c r="S4" s="691"/>
+      <c r="T4" s="691"/>
+      <c r="U4" s="691"/>
+      <c r="V4" s="691"/>
+      <c r="W4" s="691"/>
+      <c r="X4" s="691"/>
+      <c r="Y4" s="691"/>
+      <c r="Z4" s="691"/>
+      <c r="AA4" s="691"/>
+      <c r="AB4" s="691"/>
+      <c r="AC4" s="691"/>
+      <c r="AD4" s="691"/>
+      <c r="AE4" s="691"/>
+      <c r="AF4" s="691"/>
+      <c r="AG4" s="691"/>
+      <c r="AH4" s="691"/>
+      <c r="AI4" s="691"/>
+      <c r="AJ4" s="691"/>
+      <c r="AK4" s="691"/>
+      <c r="AL4" s="691"/>
+      <c r="AM4" s="691"/>
+      <c r="AN4" s="691"/>
+      <c r="AO4" s="691"/>
+      <c r="AP4" s="691"/>
+      <c r="AQ4" s="692" t="s">
         <v>2</v>
       </c>
-      <c r="AR4" s="691"/>
+      <c r="AR4" s="692"/>
     </row>
     <row r="5" spans="1:44" s="569" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="297" t="s">
@@ -35393,123 +35391,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" s="570" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="721" t="s">
+      <c r="A1" s="722" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="722"/>
-      <c r="C1" s="722"/>
-      <c r="D1" s="722"/>
-      <c r="E1" s="722"/>
-      <c r="F1" s="722"/>
-      <c r="G1" s="722"/>
-      <c r="H1" s="723" t="s">
+      <c r="B1" s="723"/>
+      <c r="C1" s="723"/>
+      <c r="D1" s="723"/>
+      <c r="E1" s="723"/>
+      <c r="F1" s="723"/>
+      <c r="G1" s="723"/>
+      <c r="H1" s="724" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="724"/>
-      <c r="J1" s="724"/>
-      <c r="K1" s="724"/>
-      <c r="L1" s="724"/>
-      <c r="M1" s="725"/>
-      <c r="N1" s="726" t="s">
+      <c r="I1" s="725"/>
+      <c r="J1" s="725"/>
+      <c r="K1" s="725"/>
+      <c r="L1" s="725"/>
+      <c r="M1" s="726"/>
+      <c r="N1" s="727" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="704"/>
-      <c r="P1" s="704"/>
-      <c r="Q1" s="727"/>
-      <c r="R1" s="727"/>
-      <c r="S1" s="704"/>
-      <c r="T1" s="704"/>
-      <c r="U1" s="704"/>
-      <c r="V1" s="728" t="s">
+      <c r="O1" s="705"/>
+      <c r="P1" s="705"/>
+      <c r="Q1" s="728"/>
+      <c r="R1" s="728"/>
+      <c r="S1" s="705"/>
+      <c r="T1" s="705"/>
+      <c r="U1" s="705"/>
+      <c r="V1" s="729" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="729"/>
-      <c r="X1" s="730"/>
-      <c r="Y1" s="730"/>
-      <c r="Z1" s="731"/>
-      <c r="AA1" s="732" t="s">
+      <c r="W1" s="730"/>
+      <c r="X1" s="731"/>
+      <c r="Y1" s="731"/>
+      <c r="Z1" s="732"/>
+      <c r="AA1" s="733" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="733"/>
-      <c r="AC1" s="733"/>
-      <c r="AD1" s="733"/>
-      <c r="AE1" s="733"/>
-      <c r="AF1" s="733"/>
-      <c r="AG1" s="733"/>
-      <c r="AH1" s="733"/>
-      <c r="AI1" s="733"/>
-      <c r="AJ1" s="733"/>
-      <c r="AK1" s="733"/>
-      <c r="AL1" s="733"/>
-      <c r="AM1" s="733"/>
+      <c r="AB1" s="734"/>
+      <c r="AC1" s="734"/>
+      <c r="AD1" s="734"/>
+      <c r="AE1" s="734"/>
+      <c r="AF1" s="734"/>
+      <c r="AG1" s="734"/>
+      <c r="AH1" s="734"/>
+      <c r="AI1" s="734"/>
+      <c r="AJ1" s="734"/>
+      <c r="AK1" s="734"/>
+      <c r="AL1" s="734"/>
+      <c r="AM1" s="734"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="8"/>
-      <c r="AP1" s="703" t="s">
+      <c r="AP1" s="704" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="704"/>
-      <c r="AR1" s="704"/>
-      <c r="AS1" s="704"/>
-      <c r="AT1" s="704"/>
-      <c r="AU1" s="704"/>
-      <c r="AV1" s="704"/>
-      <c r="AW1" s="705"/>
-      <c r="AX1" s="712" t="s">
+      <c r="AQ1" s="705"/>
+      <c r="AR1" s="705"/>
+      <c r="AS1" s="705"/>
+      <c r="AT1" s="705"/>
+      <c r="AU1" s="705"/>
+      <c r="AV1" s="705"/>
+      <c r="AW1" s="706"/>
+      <c r="AX1" s="713" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="713"/>
-      <c r="AZ1" s="713"/>
-      <c r="BA1" s="713"/>
-      <c r="BB1" s="713"/>
-      <c r="BC1" s="714"/>
-      <c r="BD1" s="715" t="s">
+      <c r="AY1" s="714"/>
+      <c r="AZ1" s="714"/>
+      <c r="BA1" s="714"/>
+      <c r="BB1" s="714"/>
+      <c r="BC1" s="715"/>
+      <c r="BD1" s="716" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="716"/>
-      <c r="BF1" s="716"/>
-      <c r="BG1" s="716"/>
-      <c r="BH1" s="716"/>
-      <c r="BI1" s="717"/>
-      <c r="BJ1" s="718" t="s">
+      <c r="BE1" s="717"/>
+      <c r="BF1" s="717"/>
+      <c r="BG1" s="717"/>
+      <c r="BH1" s="717"/>
+      <c r="BI1" s="718"/>
+      <c r="BJ1" s="719" t="s">
         <v>54</v>
       </c>
-      <c r="BK1" s="719"/>
-      <c r="BL1" s="719"/>
-      <c r="BM1" s="719"/>
-      <c r="BN1" s="719"/>
-      <c r="BO1" s="719"/>
-      <c r="BP1" s="720"/>
-      <c r="BQ1" s="692" t="s">
+      <c r="BK1" s="720"/>
+      <c r="BL1" s="720"/>
+      <c r="BM1" s="720"/>
+      <c r="BN1" s="720"/>
+      <c r="BO1" s="720"/>
+      <c r="BP1" s="721"/>
+      <c r="BQ1" s="693" t="s">
         <v>55</v>
       </c>
-      <c r="BR1" s="693"/>
-      <c r="BS1" s="693"/>
-      <c r="BT1" s="693"/>
-      <c r="BU1" s="693"/>
-      <c r="BV1" s="693"/>
+      <c r="BR1" s="694"/>
+      <c r="BS1" s="694"/>
+      <c r="BT1" s="694"/>
+      <c r="BU1" s="694"/>
+      <c r="BV1" s="694"/>
       <c r="BW1" s="8"/>
       <c r="BX1" s="9"/>
-      <c r="BY1" s="694" t="s">
+      <c r="BY1" s="695" t="s">
         <v>56</v>
       </c>
-      <c r="BZ1" s="695"/>
-      <c r="CA1" s="695"/>
-      <c r="CB1" s="695"/>
-      <c r="CC1" s="695"/>
-      <c r="CD1" s="695"/>
-      <c r="CE1" s="695"/>
-      <c r="CF1" s="696"/>
-      <c r="CG1" s="696"/>
-      <c r="CH1" s="696"/>
-      <c r="CI1" s="696"/>
-      <c r="CJ1" s="696"/>
-      <c r="CK1" s="696"/>
-      <c r="CL1" s="696"/>
-      <c r="CM1" s="696"/>
-      <c r="CN1" s="696"/>
-      <c r="CO1" s="696"/>
-      <c r="CP1" s="696"/>
-      <c r="CQ1" s="696"/>
+      <c r="BZ1" s="696"/>
+      <c r="CA1" s="696"/>
+      <c r="CB1" s="696"/>
+      <c r="CC1" s="696"/>
+      <c r="CD1" s="696"/>
+      <c r="CE1" s="696"/>
+      <c r="CF1" s="697"/>
+      <c r="CG1" s="697"/>
+      <c r="CH1" s="697"/>
+      <c r="CI1" s="697"/>
+      <c r="CJ1" s="697"/>
+      <c r="CK1" s="697"/>
+      <c r="CL1" s="697"/>
+      <c r="CM1" s="697"/>
+      <c r="CN1" s="697"/>
+      <c r="CO1" s="697"/>
+      <c r="CP1" s="697"/>
+      <c r="CQ1" s="697"/>
     </row>
     <row r="2" spans="1:95" s="570" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -35533,18 +35531,18 @@
       <c r="G2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="697" t="s">
+      <c r="H2" s="698" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="698"/>
-      <c r="J2" s="698" t="s">
+      <c r="I2" s="699"/>
+      <c r="J2" s="699" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="698"/>
-      <c r="L2" s="698" t="s">
+      <c r="K2" s="699"/>
+      <c r="L2" s="699" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="699"/>
+      <c r="M2" s="700"/>
       <c r="N2" s="12" t="s">
         <v>57</v>
       </c>
@@ -35653,36 +35651,36 @@
       <c r="AW2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AX2" s="700" t="s">
+      <c r="AX2" s="701" t="s">
         <v>90</v>
       </c>
-      <c r="AY2" s="701"/>
-      <c r="AZ2" s="701"/>
-      <c r="BA2" s="701" t="s">
+      <c r="AY2" s="702"/>
+      <c r="AZ2" s="702"/>
+      <c r="BA2" s="702" t="s">
         <v>91</v>
       </c>
-      <c r="BB2" s="701"/>
-      <c r="BC2" s="702"/>
-      <c r="BD2" s="706" t="s">
+      <c r="BB2" s="702"/>
+      <c r="BC2" s="703"/>
+      <c r="BD2" s="707" t="s">
         <v>90</v>
       </c>
-      <c r="BE2" s="707"/>
-      <c r="BF2" s="707"/>
-      <c r="BG2" s="707" t="s">
+      <c r="BE2" s="708"/>
+      <c r="BF2" s="708"/>
+      <c r="BG2" s="708" t="s">
         <v>91</v>
       </c>
-      <c r="BH2" s="707"/>
-      <c r="BI2" s="708"/>
-      <c r="BJ2" s="709" t="s">
+      <c r="BH2" s="708"/>
+      <c r="BI2" s="709"/>
+      <c r="BJ2" s="710" t="s">
         <v>90</v>
       </c>
-      <c r="BK2" s="710"/>
-      <c r="BL2" s="710"/>
-      <c r="BM2" s="710" t="s">
+      <c r="BK2" s="711"/>
+      <c r="BL2" s="711"/>
+      <c r="BM2" s="711" t="s">
         <v>91</v>
       </c>
-      <c r="BN2" s="711"/>
-      <c r="BO2" s="711"/>
+      <c r="BN2" s="712"/>
+      <c r="BO2" s="712"/>
       <c r="BP2" s="24" t="s">
         <v>92</v>
       </c>
@@ -36795,124 +36793,124 @@
         <v>135</v>
       </c>
       <c r="L1" s="42"/>
-      <c r="M1" s="761" t="s">
+      <c r="M1" s="762" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="762" t="s">
+      <c r="N1" s="763" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="763"/>
-      <c r="P1" s="763"/>
-      <c r="Q1" s="763"/>
-      <c r="R1" s="764" t="s">
+      <c r="O1" s="764"/>
+      <c r="P1" s="764"/>
+      <c r="Q1" s="764"/>
+      <c r="R1" s="765" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="756"/>
-      <c r="T1" s="756"/>
-      <c r="U1" s="756"/>
-      <c r="V1" s="756"/>
-      <c r="W1" s="756"/>
-      <c r="X1" s="765"/>
-      <c r="Y1" s="744" t="s">
+      <c r="S1" s="757"/>
+      <c r="T1" s="757"/>
+      <c r="U1" s="757"/>
+      <c r="V1" s="757"/>
+      <c r="W1" s="757"/>
+      <c r="X1" s="766"/>
+      <c r="Y1" s="745" t="s">
         <v>139</v>
       </c>
-      <c r="Z1" s="745"/>
-      <c r="AA1" s="766" t="s">
+      <c r="Z1" s="746"/>
+      <c r="AA1" s="767" t="s">
         <v>140</v>
       </c>
-      <c r="AB1" s="757" t="s">
+      <c r="AB1" s="758" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="752" t="s">
+      <c r="AC1" s="753" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" s="753"/>
-      <c r="AE1" s="753"/>
-      <c r="AF1" s="754"/>
-      <c r="AG1" s="755" t="s">
+      <c r="AD1" s="754"/>
+      <c r="AE1" s="754"/>
+      <c r="AF1" s="755"/>
+      <c r="AG1" s="756" t="s">
         <v>142</v>
       </c>
-      <c r="AH1" s="756"/>
-      <c r="AI1" s="756"/>
-      <c r="AJ1" s="756"/>
-      <c r="AK1" s="756"/>
-      <c r="AL1" s="756"/>
-      <c r="AM1" s="756"/>
-      <c r="AN1" s="756"/>
-      <c r="AO1" s="757" t="s">
+      <c r="AH1" s="757"/>
+      <c r="AI1" s="757"/>
+      <c r="AJ1" s="757"/>
+      <c r="AK1" s="757"/>
+      <c r="AL1" s="757"/>
+      <c r="AM1" s="757"/>
+      <c r="AN1" s="757"/>
+      <c r="AO1" s="758" t="s">
         <v>143</v>
       </c>
-      <c r="AP1" s="744" t="s">
+      <c r="AP1" s="745" t="s">
         <v>144</v>
       </c>
-      <c r="AQ1" s="745"/>
-      <c r="AR1" s="745"/>
-      <c r="AS1" s="717"/>
-      <c r="AT1" s="759" t="s">
+      <c r="AQ1" s="746"/>
+      <c r="AR1" s="746"/>
+      <c r="AS1" s="718"/>
+      <c r="AT1" s="760" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="760"/>
-      <c r="AV1" s="760"/>
-      <c r="AW1" s="760"/>
-      <c r="AX1" s="760"/>
-      <c r="AY1" s="760"/>
-      <c r="AZ1" s="760"/>
-      <c r="BA1" s="760"/>
-      <c r="BB1" s="760"/>
-      <c r="BC1" s="760"/>
-      <c r="BD1" s="760"/>
-      <c r="BE1" s="760"/>
-      <c r="BF1" s="760"/>
-      <c r="BG1" s="760"/>
-      <c r="BH1" s="760"/>
-      <c r="BI1" s="760"/>
-      <c r="BJ1" s="760"/>
-      <c r="BK1" s="760"/>
-      <c r="BL1" s="760"/>
-      <c r="BM1" s="760"/>
-      <c r="BN1" s="760"/>
-      <c r="BO1" s="760"/>
-      <c r="BP1" s="760"/>
-      <c r="BQ1" s="760"/>
-      <c r="BR1" s="760"/>
-      <c r="BS1" s="760"/>
-      <c r="BT1" s="760"/>
-      <c r="BU1" s="760"/>
-      <c r="BV1" s="760"/>
-      <c r="BW1" s="757" t="s">
+      <c r="AU1" s="761"/>
+      <c r="AV1" s="761"/>
+      <c r="AW1" s="761"/>
+      <c r="AX1" s="761"/>
+      <c r="AY1" s="761"/>
+      <c r="AZ1" s="761"/>
+      <c r="BA1" s="761"/>
+      <c r="BB1" s="761"/>
+      <c r="BC1" s="761"/>
+      <c r="BD1" s="761"/>
+      <c r="BE1" s="761"/>
+      <c r="BF1" s="761"/>
+      <c r="BG1" s="761"/>
+      <c r="BH1" s="761"/>
+      <c r="BI1" s="761"/>
+      <c r="BJ1" s="761"/>
+      <c r="BK1" s="761"/>
+      <c r="BL1" s="761"/>
+      <c r="BM1" s="761"/>
+      <c r="BN1" s="761"/>
+      <c r="BO1" s="761"/>
+      <c r="BP1" s="761"/>
+      <c r="BQ1" s="761"/>
+      <c r="BR1" s="761"/>
+      <c r="BS1" s="761"/>
+      <c r="BT1" s="761"/>
+      <c r="BU1" s="761"/>
+      <c r="BV1" s="761"/>
+      <c r="BW1" s="758" t="s">
         <v>146</v>
       </c>
-      <c r="BX1" s="744" t="s">
+      <c r="BX1" s="745" t="s">
         <v>147</v>
       </c>
-      <c r="BY1" s="745"/>
-      <c r="BZ1" s="745"/>
-      <c r="CA1" s="717"/>
-      <c r="CB1" s="746" t="s">
+      <c r="BY1" s="746"/>
+      <c r="BZ1" s="746"/>
+      <c r="CA1" s="718"/>
+      <c r="CB1" s="747" t="s">
         <v>50</v>
       </c>
-      <c r="CC1" s="746"/>
-      <c r="CD1" s="746"/>
-      <c r="CE1" s="746"/>
-      <c r="CF1" s="746"/>
-      <c r="CG1" s="746"/>
-      <c r="CH1" s="746"/>
-      <c r="CI1" s="746"/>
-      <c r="CJ1" s="746"/>
-      <c r="CK1" s="746"/>
-      <c r="CL1" s="746"/>
-      <c r="CM1" s="746"/>
+      <c r="CC1" s="747"/>
+      <c r="CD1" s="747"/>
+      <c r="CE1" s="747"/>
+      <c r="CF1" s="747"/>
+      <c r="CG1" s="747"/>
+      <c r="CH1" s="747"/>
+      <c r="CI1" s="747"/>
+      <c r="CJ1" s="747"/>
+      <c r="CK1" s="747"/>
+      <c r="CL1" s="747"/>
+      <c r="CM1" s="747"/>
       <c r="CN1" s="43"/>
-      <c r="CO1" s="747" t="s">
+      <c r="CO1" s="748" t="s">
         <v>55</v>
       </c>
-      <c r="CP1" s="727"/>
-      <c r="CQ1" s="727"/>
-      <c r="CR1" s="727"/>
-      <c r="CS1" s="727"/>
-      <c r="CT1" s="727"/>
-      <c r="CU1" s="727"/>
-      <c r="CV1" s="705"/>
+      <c r="CP1" s="728"/>
+      <c r="CQ1" s="728"/>
+      <c r="CR1" s="728"/>
+      <c r="CS1" s="728"/>
+      <c r="CT1" s="728"/>
+      <c r="CU1" s="728"/>
+      <c r="CV1" s="706"/>
     </row>
     <row r="2" spans="1:100" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -36951,7 +36949,7 @@
       <c r="L2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="761"/>
+      <c r="M2" s="762"/>
       <c r="N2" s="49" t="s">
         <v>152</v>
       </c>
@@ -36967,22 +36965,22 @@
       <c r="R2" s="575" t="s">
         <v>397</v>
       </c>
-      <c r="S2" s="748" t="s">
+      <c r="S2" s="749" t="s">
         <v>155</v>
       </c>
-      <c r="T2" s="711"/>
-      <c r="U2" s="749" t="s">
+      <c r="T2" s="712"/>
+      <c r="U2" s="750" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="749"/>
-      <c r="W2" s="749" t="s">
+      <c r="V2" s="750"/>
+      <c r="W2" s="750" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="750"/>
-      <c r="Y2" s="738"/>
-      <c r="Z2" s="739"/>
-      <c r="AA2" s="767"/>
-      <c r="AB2" s="758"/>
+      <c r="X2" s="751"/>
+      <c r="Y2" s="739"/>
+      <c r="Z2" s="740"/>
+      <c r="AA2" s="768"/>
+      <c r="AB2" s="759"/>
       <c r="AC2" s="50" t="s">
         <v>156</v>
       </c>
@@ -36995,81 +36993,81 @@
       <c r="AF2" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="AG2" s="751" t="s">
+      <c r="AG2" s="752" t="s">
         <v>160</v>
       </c>
-      <c r="AH2" s="736"/>
-      <c r="AI2" s="736" t="s">
+      <c r="AH2" s="737"/>
+      <c r="AI2" s="737" t="s">
         <v>161</v>
       </c>
-      <c r="AJ2" s="736"/>
-      <c r="AK2" s="736" t="s">
+      <c r="AJ2" s="737"/>
+      <c r="AK2" s="737" t="s">
         <v>162</v>
       </c>
-      <c r="AL2" s="736"/>
+      <c r="AL2" s="737"/>
       <c r="AM2" s="51" t="s">
         <v>461</v>
       </c>
       <c r="AN2" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="AO2" s="758"/>
-      <c r="AP2" s="738" t="s">
+      <c r="AO2" s="759"/>
+      <c r="AP2" s="739" t="s">
         <v>163</v>
       </c>
-      <c r="AQ2" s="739"/>
-      <c r="AR2" s="740" t="s">
+      <c r="AQ2" s="740"/>
+      <c r="AR2" s="741" t="s">
         <v>164</v>
       </c>
-      <c r="AS2" s="741"/>
-      <c r="AT2" s="736" t="s">
+      <c r="AS2" s="742"/>
+      <c r="AT2" s="737" t="s">
         <v>165</v>
       </c>
-      <c r="AU2" s="736"/>
-      <c r="AV2" s="737" t="s">
+      <c r="AU2" s="737"/>
+      <c r="AV2" s="738" t="s">
         <v>166</v>
       </c>
-      <c r="AW2" s="737"/>
-      <c r="AX2" s="737" t="s">
+      <c r="AW2" s="738"/>
+      <c r="AX2" s="738" t="s">
         <v>167</v>
       </c>
-      <c r="AY2" s="737"/>
+      <c r="AY2" s="738"/>
       <c r="AZ2" s="51" t="s">
         <v>463</v>
       </c>
       <c r="BA2" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="BB2" s="736" t="s">
+      <c r="BB2" s="737" t="s">
         <v>168</v>
       </c>
-      <c r="BC2" s="736"/>
-      <c r="BD2" s="737" t="s">
+      <c r="BC2" s="737"/>
+      <c r="BD2" s="738" t="s">
         <v>169</v>
       </c>
-      <c r="BE2" s="737"/>
-      <c r="BF2" s="737" t="s">
+      <c r="BE2" s="738"/>
+      <c r="BF2" s="738" t="s">
         <v>170</v>
       </c>
-      <c r="BG2" s="737"/>
+      <c r="BG2" s="738"/>
       <c r="BH2" s="51" t="s">
         <v>465</v>
       </c>
       <c r="BI2" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="BJ2" s="736" t="s">
+      <c r="BJ2" s="737" t="s">
         <v>171</v>
       </c>
-      <c r="BK2" s="736"/>
-      <c r="BL2" s="737" t="s">
+      <c r="BK2" s="737"/>
+      <c r="BL2" s="738" t="s">
         <v>172</v>
       </c>
-      <c r="BM2" s="737"/>
-      <c r="BN2" s="737" t="s">
+      <c r="BM2" s="738"/>
+      <c r="BN2" s="738" t="s">
         <v>173</v>
       </c>
-      <c r="BO2" s="737"/>
+      <c r="BO2" s="738"/>
       <c r="BP2" s="51" t="s">
         <v>467</v>
       </c>
@@ -37091,15 +37089,15 @@
       <c r="BV2" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="BW2" s="758"/>
-      <c r="BX2" s="738" t="s">
+      <c r="BW2" s="759"/>
+      <c r="BX2" s="739" t="s">
         <v>163</v>
       </c>
-      <c r="BY2" s="739"/>
-      <c r="BZ2" s="740" t="s">
+      <c r="BY2" s="740"/>
+      <c r="BZ2" s="741" t="s">
         <v>164</v>
       </c>
-      <c r="CA2" s="741"/>
+      <c r="CA2" s="742"/>
       <c r="CB2" s="20" t="s">
         <v>71</v>
       </c>
@@ -37139,22 +37137,22 @@
       <c r="CN2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="CO2" s="742" t="s">
+      <c r="CO2" s="743" t="s">
         <v>178</v>
       </c>
-      <c r="CP2" s="743"/>
-      <c r="CQ2" s="734" t="s">
+      <c r="CP2" s="744"/>
+      <c r="CQ2" s="735" t="s">
         <v>179</v>
       </c>
-      <c r="CR2" s="734"/>
-      <c r="CS2" s="743" t="s">
+      <c r="CR2" s="735"/>
+      <c r="CS2" s="744" t="s">
         <v>180</v>
       </c>
-      <c r="CT2" s="743"/>
-      <c r="CU2" s="734" t="s">
+      <c r="CT2" s="744"/>
+      <c r="CU2" s="735" t="s">
         <v>181</v>
       </c>
-      <c r="CV2" s="735"/>
+      <c r="CV2" s="736"/>
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="593"/>
@@ -42436,8 +42434,8 @@
       <c r="B2" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="775"/>
-      <c r="D2" s="775"/>
+      <c r="C2" s="776"/>
+      <c r="D2" s="776"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
       <c r="G2" s="111"/>
@@ -42562,32 +42560,32 @@
     </row>
     <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
-      <c r="B7" s="776" t="s">
+      <c r="B7" s="777" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="776"/>
-      <c r="D7" s="776"/>
+      <c r="C7" s="777"/>
+      <c r="D7" s="777"/>
       <c r="E7" s="111"/>
       <c r="F7" s="111"/>
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
-      <c r="J7" s="776" t="s">
+      <c r="J7" s="777" t="s">
         <v>200</v>
       </c>
-      <c r="K7" s="776"/>
-      <c r="L7" s="776"/>
+      <c r="K7" s="777"/>
+      <c r="L7" s="777"/>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
       <c r="O7" s="111"/>
       <c r="P7" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="Q7" s="776" t="s">
+      <c r="Q7" s="777" t="s">
         <v>200</v>
       </c>
-      <c r="R7" s="776"/>
-      <c r="S7" s="776"/>
+      <c r="R7" s="777"/>
+      <c r="S7" s="777"/>
       <c r="T7" s="111"/>
       <c r="U7" s="125" t="s">
         <v>202</v>
@@ -42621,41 +42619,41 @@
       <c r="B9" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="C9" s="771" t="s">
+      <c r="C9" s="772" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="772"/>
-      <c r="E9" s="771" t="s">
+      <c r="D9" s="773"/>
+      <c r="E9" s="772" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="772"/>
+      <c r="F9" s="773"/>
       <c r="G9" s="111"/>
       <c r="H9" s="111"/>
       <c r="I9" s="111"/>
       <c r="J9" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="K9" s="771" t="s">
+      <c r="K9" s="772" t="s">
         <v>204</v>
       </c>
-      <c r="L9" s="772"/>
-      <c r="M9" s="771" t="s">
+      <c r="L9" s="773"/>
+      <c r="M9" s="772" t="s">
         <v>205</v>
       </c>
-      <c r="N9" s="772"/>
+      <c r="N9" s="773"/>
       <c r="O9" s="111"/>
       <c r="P9" s="111"/>
       <c r="Q9" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="R9" s="771" t="s">
+      <c r="R9" s="772" t="s">
         <v>204</v>
       </c>
-      <c r="S9" s="772"/>
-      <c r="T9" s="771" t="s">
+      <c r="S9" s="773"/>
+      <c r="T9" s="772" t="s">
         <v>205</v>
       </c>
-      <c r="U9" s="772"/>
+      <c r="U9" s="773"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
@@ -42717,10 +42715,10 @@
       </c>
       <c r="C11" s="131"/>
       <c r="D11" s="131"/>
-      <c r="E11" s="768" t="s">
+      <c r="E11" s="769" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="769"/>
+      <c r="F11" s="770"/>
       <c r="G11" s="132"/>
       <c r="H11" s="132"/>
       <c r="I11" s="132"/>
@@ -42729,10 +42727,10 @@
       </c>
       <c r="K11" s="111"/>
       <c r="L11" s="111"/>
-      <c r="M11" s="773" t="s">
+      <c r="M11" s="774" t="s">
         <v>210</v>
       </c>
-      <c r="N11" s="774"/>
+      <c r="N11" s="775"/>
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
       <c r="Q11" s="130" t="s">
@@ -42740,10 +42738,10 @@
       </c>
       <c r="R11" s="131"/>
       <c r="S11" s="131"/>
-      <c r="T11" s="768" t="s">
+      <c r="T11" s="769" t="s">
         <v>210</v>
       </c>
-      <c r="U11" s="769"/>
+      <c r="U11" s="770"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
@@ -42978,10 +42976,10 @@
       </c>
       <c r="C20" s="422"/>
       <c r="D20" s="159"/>
-      <c r="E20" s="768" t="s">
+      <c r="E20" s="769" t="s">
         <v>449</v>
       </c>
-      <c r="F20" s="769"/>
+      <c r="F20" s="770"/>
       <c r="G20" s="140"/>
       <c r="H20" s="140"/>
       <c r="I20" s="111"/>
@@ -42990,10 +42988,10 @@
       </c>
       <c r="K20" s="422"/>
       <c r="L20" s="159"/>
-      <c r="M20" s="768" t="s">
+      <c r="M20" s="769" t="s">
         <v>449</v>
       </c>
-      <c r="N20" s="769"/>
+      <c r="N20" s="770"/>
       <c r="O20" s="150"/>
       <c r="P20" s="150"/>
       <c r="Q20" s="130" t="s">
@@ -43001,10 +42999,10 @@
       </c>
       <c r="R20" s="422"/>
       <c r="S20" s="159"/>
-      <c r="T20" s="768" t="s">
+      <c r="T20" s="769" t="s">
         <v>449</v>
       </c>
-      <c r="U20" s="769"/>
+      <c r="U20" s="770"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
@@ -43268,10 +43266,10 @@
       </c>
       <c r="C30" s="422"/>
       <c r="D30" s="159"/>
-      <c r="E30" s="768" t="s">
+      <c r="E30" s="769" t="s">
         <v>449</v>
       </c>
-      <c r="F30" s="769"/>
+      <c r="F30" s="770"/>
       <c r="G30" s="140"/>
       <c r="H30" s="140"/>
       <c r="I30" s="111"/>
@@ -43280,10 +43278,10 @@
       </c>
       <c r="K30" s="422"/>
       <c r="L30" s="159"/>
-      <c r="M30" s="768" t="s">
+      <c r="M30" s="769" t="s">
         <v>449</v>
       </c>
-      <c r="N30" s="769"/>
+      <c r="N30" s="770"/>
       <c r="O30" s="150"/>
       <c r="P30" s="150"/>
       <c r="Q30" s="130" t="s">
@@ -43291,10 +43289,10 @@
       </c>
       <c r="R30" s="422"/>
       <c r="S30" s="159"/>
-      <c r="T30" s="768" t="s">
+      <c r="T30" s="769" t="s">
         <v>449</v>
       </c>
-      <c r="U30" s="769"/>
+      <c r="U30" s="770"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="172"/>
@@ -43617,11 +43615,11 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="770"/>
-      <c r="C42" s="770"/>
-      <c r="D42" s="770"/>
-      <c r="E42" s="770"/>
-      <c r="F42" s="770"/>
+      <c r="B42" s="771"/>
+      <c r="C42" s="771"/>
+      <c r="D42" s="771"/>
+      <c r="E42" s="771"/>
+      <c r="F42" s="771"/>
       <c r="G42" s="150"/>
       <c r="H42" s="111"/>
       <c r="I42" s="150"/>
@@ -43817,8 +43815,8 @@
       <c r="B3" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="777"/>
-      <c r="D3" s="777"/>
+      <c r="C3" s="778"/>
+      <c r="D3" s="778"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" s="195"/>
@@ -43851,10 +43849,10 @@
       <c r="D10" s="203" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="778" t="s">
+      <c r="E10" s="779" t="s">
         <v>233</v>
       </c>
-      <c r="F10" s="779"/>
+      <c r="F10" s="780"/>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="204" t="s">
@@ -44005,10 +44003,10 @@
       <c r="D30" s="215" t="s">
         <v>232</v>
       </c>
-      <c r="E30" s="778" t="s">
+      <c r="E30" s="779" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="779"/>
+      <c r="F30" s="780"/>
     </row>
     <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="204" t="s">
@@ -44156,10 +44154,10 @@
       <c r="D49" s="215" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="778" t="s">
+      <c r="E49" s="779" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="779"/>
+      <c r="F49" s="780"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="204" t="s">
@@ -44327,8 +44325,8 @@
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
-      <c r="E2" s="775"/>
-      <c r="F2" s="775"/>
+      <c r="E2" s="776"/>
+      <c r="F2" s="776"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="112"/>
@@ -44360,13 +44358,13 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
-      <c r="B6" s="776" t="s">
+      <c r="B6" s="777" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="776"/>
-      <c r="D6" s="776"/>
-      <c r="E6" s="776"/>
-      <c r="F6" s="776"/>
+      <c r="C6" s="777"/>
+      <c r="D6" s="777"/>
+      <c r="E6" s="777"/>
+      <c r="F6" s="777"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
@@ -44381,14 +44379,14 @@
       <c r="B8" s="457" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="780" t="s">
+      <c r="C8" s="781" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="781"/>
-      <c r="E8" s="782" t="s">
+      <c r="D8" s="782"/>
+      <c r="E8" s="783" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="781"/>
+      <c r="F8" s="782"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
@@ -44524,11 +44522,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
-      <c r="B22" s="770"/>
-      <c r="C22" s="770"/>
-      <c r="D22" s="770"/>
-      <c r="E22" s="770"/>
-      <c r="F22" s="770"/>
+      <c r="B22" s="771"/>
+      <c r="C22" s="771"/>
+      <c r="D22" s="771"/>
+      <c r="E22" s="771"/>
+      <c r="F22" s="771"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
@@ -44598,13 +44596,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="783" t="s">
+      <c r="B2" s="784" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="784" t="s">
+      <c r="C2" s="785" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="784" t="s">
+      <c r="D2" s="785" t="s">
         <v>150</v>
       </c>
       <c r="E2" s="232" t="s">
@@ -44639,9 +44637,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="783"/>
-      <c r="C3" s="785"/>
-      <c r="D3" s="785"/>
+      <c r="B3" s="784"/>
+      <c r="C3" s="786"/>
+      <c r="D3" s="786"/>
       <c r="E3" s="668" t="s">
         <v>259</v>
       </c>
@@ -44674,7 +44672,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="786" t="s">
+      <c r="B4" s="787" t="s">
         <v>262</v>
       </c>
       <c r="C4" s="233" t="s">
@@ -44693,7 +44691,7 @@
       <c r="N4" s="235"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="786"/>
+      <c r="B5" s="787"/>
       <c r="C5" s="233" t="s">
         <v>60</v>
       </c>
@@ -44710,7 +44708,7 @@
       <c r="N5" s="235"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="787"/>
+      <c r="B6" s="788"/>
       <c r="C6" s="558" t="s">
         <v>453</v>
       </c>
@@ -44806,11 +44804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44818,30 +44816,31 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="46.85546875" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="584" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="788" t="s">
+      <c r="A1" s="789" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="789"/>
-      <c r="C1" s="837"/>
-      <c r="D1" s="790" t="s">
+      <c r="B1" s="790"/>
+      <c r="C1" s="688"/>
+      <c r="D1" s="791" t="s">
         <v>458</v>
       </c>
-      <c r="E1" s="790"/>
-      <c r="F1" s="791"/>
-      <c r="G1" s="800" t="s">
+      <c r="E1" s="791"/>
+      <c r="F1" s="792"/>
+      <c r="G1" s="801" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="801"/>
-      <c r="I1" s="801"/>
-      <c r="J1" s="801"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="792" t="s">
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="803"/>
+      <c r="L1" s="793" t="s">
         <v>265</v>
       </c>
       <c r="M1" s="38" t="s">
@@ -44883,7 +44882,7 @@
       <c r="K2" s="250" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="793"/>
+      <c r="L2" s="794"/>
       <c r="M2" s="44" t="s">
         <v>57</v>
       </c>
@@ -44897,19 +44896,19 @@
       <c r="C3" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="794" t="s">
+      <c r="D3" s="795" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="795"/>
-      <c r="F3" s="796"/>
-      <c r="G3" s="797" t="s">
+      <c r="E3" s="796"/>
+      <c r="F3" s="797"/>
+      <c r="G3" s="798" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="798"/>
-      <c r="I3" s="798"/>
-      <c r="J3" s="798"/>
-      <c r="K3" s="799"/>
-      <c r="L3" s="793"/>
+      <c r="H3" s="799"/>
+      <c r="I3" s="799"/>
+      <c r="J3" s="799"/>
+      <c r="K3" s="800"/>
+      <c r="L3" s="794"/>
       <c r="M3" s="593"/>
       <c r="N3" s="594"/>
     </row>
@@ -44962,12 +44961,12 @@
   </sheetData>
   <autoFilter ref="A4:N4"/>
   <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
+++ b/uwwtd website/sites/all/modules/uwwtd/model/2018_register_model_20181015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.vincent\Documents\siif\20181108\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.vincent\Documents\siif\20181114\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="17" r:id="rId1"/>
@@ -6864,7 +6864,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6941,13 +6940,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CC6E555-A852-4B8F-AB60-78455AB107F6}" type="CELLRANGE">
+                    <a:fld id="{AD0F4099-65B1-4015-ADA1-EB429552EC5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6965,7 +6963,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -6973,13 +6970,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDFAD27B-4A38-4AA2-9D4B-F79318A748F8}" type="CELLRANGE">
+                    <a:fld id="{6C228DF3-D727-4443-A78E-799D232469FE}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -6997,7 +6993,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -7006,13 +7001,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2105794-5A8F-4628-9C1F-5090A805CB8B}" type="CELLRANGE">
+                    <a:fld id="{B176D9F2-2E04-486D-A013-BA84BFE62B08}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -7030,7 +7024,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -7076,7 +7069,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7183,13 +7175,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F037B659-BC67-4D52-8A2C-D92474CA0FD4}" type="CELLRANGE">
+                    <a:fld id="{64467F9E-DAF0-41ED-A222-330D137377DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -7207,7 +7198,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -7215,13 +7205,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79404535-C5F0-4124-9C0D-1CE2D5D951F4}" type="CELLRANGE">
+                    <a:fld id="{562A6FC1-8D2C-4286-96ED-C1FF658F0F09}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -7239,7 +7228,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -7248,13 +7236,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{875FC3C0-254A-42CE-81D1-4C43F8C336CC}" type="CELLRANGE">
+                    <a:fld id="{2F904D73-F29E-41A4-8F40-8E21F28643E2}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -7272,7 +7259,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -7318,7 +7304,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7406,11 +7391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="513773088"/>
-        <c:axId val="513779072"/>
+        <c:axId val="1141116352"/>
+        <c:axId val="1141115808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513773088"/>
+        <c:axId val="1141116352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7453,7 +7438,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513779072"/>
+        <c:crossAx val="1141115808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7461,7 +7446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513779072"/>
+        <c:axId val="1141115808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7493,7 +7478,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7554,7 +7538,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513773088"/>
+        <c:crossAx val="1141116352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7940,11 +7924,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514156336"/>
-        <c:axId val="514163952"/>
+        <c:axId val="1141123424"/>
+        <c:axId val="1141127232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514156336"/>
+        <c:axId val="1141123424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8042,7 +8026,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514163952"/>
+        <c:crossAx val="1141127232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8050,7 +8034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514163952"/>
+        <c:axId val="1141127232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8170,7 +8154,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514156336"/>
+        <c:crossAx val="1141123424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9054,11 +9038,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514157424"/>
-        <c:axId val="514162320"/>
+        <c:axId val="1141113088"/>
+        <c:axId val="1141123968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514157424"/>
+        <c:axId val="1141113088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9161,7 +9145,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514162320"/>
+        <c:crossAx val="1141123968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9169,7 +9153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514162320"/>
+        <c:axId val="1141123968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9220,7 +9204,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514157424"/>
+        <c:crossAx val="1141113088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9585,11 +9569,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514157968"/>
-        <c:axId val="514158512"/>
+        <c:axId val="1141113632"/>
+        <c:axId val="1146932704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514157968"/>
+        <c:axId val="1141113632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9700,7 +9684,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514158512"/>
+        <c:crossAx val="1146932704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9708,7 +9692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514158512"/>
+        <c:axId val="1146932704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9814,7 +9798,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514157968"/>
+        <c:crossAx val="1141113632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10184,11 +10168,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514151984"/>
-        <c:axId val="514151440"/>
+        <c:axId val="1146922368"/>
+        <c:axId val="1146929984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514151984"/>
+        <c:axId val="1146922368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10299,7 +10283,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514151440"/>
+        <c:crossAx val="1146929984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10307,7 +10291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514151440"/>
+        <c:axId val="1146929984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10421,7 +10405,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514151984"/>
+        <c:crossAx val="1146922368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10556,7 +10540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10903,11 +10886,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514149808"/>
-        <c:axId val="514160688"/>
+        <c:axId val="1146933248"/>
+        <c:axId val="1146925088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514149808"/>
+        <c:axId val="1146933248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11013,7 +10996,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514160688"/>
+        <c:crossAx val="1146925088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11021,7 +11004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514160688"/>
+        <c:axId val="1146925088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11143,7 +11126,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514149808"/>
+        <c:crossAx val="1146933248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11479,11 +11462,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514159056"/>
-        <c:axId val="514162864"/>
+        <c:axId val="1146928352"/>
+        <c:axId val="1146930528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514159056"/>
+        <c:axId val="1146928352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11594,7 +11577,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514162864"/>
+        <c:crossAx val="1146930528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11602,7 +11585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514162864"/>
+        <c:axId val="1146930528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11716,7 +11699,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514159056"/>
+        <c:crossAx val="1146928352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12052,11 +12035,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514159600"/>
-        <c:axId val="514152528"/>
+        <c:axId val="1146929440"/>
+        <c:axId val="1146923456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514159600"/>
+        <c:axId val="1146929440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12167,7 +12150,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514152528"/>
+        <c:crossAx val="1146923456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12175,7 +12158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514152528"/>
+        <c:axId val="1146923456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12289,7 +12272,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514159600"/>
+        <c:crossAx val="1146929440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12670,11 +12653,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514164496"/>
-        <c:axId val="514150352"/>
+        <c:axId val="1146931616"/>
+        <c:axId val="1146926720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514164496"/>
+        <c:axId val="1146931616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12772,7 +12755,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514150352"/>
+        <c:crossAx val="1146926720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12780,7 +12763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514150352"/>
+        <c:axId val="1146926720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12899,7 +12882,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514164496"/>
+        <c:crossAx val="1146931616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13404,11 +13387,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="514150896"/>
-        <c:axId val="514153072"/>
+        <c:axId val="1146933792"/>
+        <c:axId val="1146934880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514150896"/>
+        <c:axId val="1146933792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13451,7 +13434,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514153072"/>
+        <c:crossAx val="1146934880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13459,7 +13442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514153072"/>
+        <c:axId val="1146934880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13565,7 +13548,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514150896"/>
+        <c:crossAx val="1146933792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13690,7 +13673,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13767,13 +13749,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3341B8A-4DAB-4788-96C0-C168F4A7C6AC}" type="CELLRANGE">
+                    <a:fld id="{E39E6194-0F25-41B8-8B69-45A0814B2C69}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13791,7 +13772,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -13799,13 +13779,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56CE18FA-9DE2-4C8C-B99D-ADCB6A3F9BAC}" type="CELLRANGE">
+                    <a:fld id="{FBFAD580-82EC-4F6C-A6AF-18DF754F16DF}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13823,7 +13802,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13832,13 +13810,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C143CA3-7DBC-4ABE-A3AA-DC5893DF63DB}" type="CELLRANGE">
+                    <a:fld id="{BA58353D-4593-432C-849A-188B59931F87}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -13856,7 +13833,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -13902,7 +13878,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14009,13 +13984,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC77DA9F-8F71-456E-949A-A31DC08B4835}" type="CELLRANGE">
+                    <a:fld id="{E1321B54-C058-404F-8D0E-8551DBBA30F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -14033,7 +14007,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -14041,13 +14014,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57C76C76-9EC8-4DB4-A14E-6D3325696836}" type="CELLRANGE">
+                    <a:fld id="{2C708F7E-82B4-47CE-AC90-EE972C14945B}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -14065,7 +14037,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -14074,13 +14045,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0923F60-2FB4-47D4-97BF-28CA9C510FBB}" type="CELLRANGE">
+                    <a:fld id="{A6C4EABD-BA0B-4852-801A-0216135FA0BC}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -14098,7 +14068,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -14144,7 +14113,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14232,11 +14200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="513773632"/>
-        <c:axId val="513776352"/>
+        <c:axId val="1141117440"/>
+        <c:axId val="1141117984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513773632"/>
+        <c:axId val="1141117440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14268,7 +14236,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14335,7 +14302,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513776352"/>
+        <c:crossAx val="1141117984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14343,7 +14310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513776352"/>
+        <c:axId val="1141117984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14443,7 +14410,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513773632"/>
+        <c:crossAx val="1141117440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14862,11 +14829,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514160144"/>
-        <c:axId val="514163408"/>
+        <c:axId val="1146925632"/>
+        <c:axId val="1146934336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514160144"/>
+        <c:axId val="1146925632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14909,7 +14876,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514163408"/>
+        <c:crossAx val="1146934336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14917,7 +14884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514163408"/>
+        <c:axId val="1146934336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14998,7 +14965,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514160144"/>
+        <c:crossAx val="1146925632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15012,6 +14979,4376 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Number of agglomeration per agglomeration size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> class</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18454315198707499"/>
+          <c:y val="0.202652925147669"/>
+          <c:w val="0.68946081751519295"/>
+          <c:h val="0.56758141799267203"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AA$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0CC6E555-A852-4B8F-AB60-78455AB107F6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EB839661-3D6D-47EC-B18F-A731F5C5757D}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B45865B4-D674-4076-9AC8-27A0830D1E22}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$12:$Z$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2000 - 10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001 - 100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&gt;100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AA$12:$AA$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7C4-4EDF-9F38-A8B00C0A2EAD}"/>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Graphs!$AC$12:$AC$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AB$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F037B659-BC67-4D52-8A2C-D92474CA0FD4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{28CD0CFE-BF96-4F0F-97DF-0653AE33C5D7}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C04EEFD5-00BF-45CF-8EC4-EF8690D9B602}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$12:$Z$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2000 - 10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001 - 100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&gt;100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AB$12:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7C4-4EDF-9F38-A8B00C0A2EAD}"/>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Graphs!$AD$12:$AD$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1146932160"/>
+        <c:axId val="1146935968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1146932160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146935968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1146935968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>number of agglomerations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146932160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87439695543664098"/>
+          <c:y val="0.20891146726951099"/>
+          <c:w val="0.125603044563359"/>
+          <c:h val="0.27677000487091602"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> in p.e. per agglomeration size class</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25295048118985097"/>
+          <c:y val="0.190276837801611"/>
+          <c:w val="0.61259072615923005"/>
+          <c:h val="0.59642011599346501"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E3341B8A-4DAB-4788-96C0-C168F4A7C6AC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B33CF78F-1918-40D2-BC1D-B1205F6DD032}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F8650880-3473-4EA9-8C3B-0A0F3D6C0387}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$5:$Z$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2000 - 10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001 - 100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&gt;100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AA$5:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D01D-474F-844A-57CC948BD298}"/>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Graphs!$AC$5:$AC$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AB$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AC77DA9F-8F71-456E-949A-A31DC08B4835}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EB85D2EC-9BBA-4EA5-AB47-2060625B777F}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{04A3844E-0CC9-43FF-A22C-0264E90D3908}" type="CELLRANGE">
+                      <a:rPr lang="fr-FR"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$5:$Z$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2000 - 10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10001 - 100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&gt;100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AB$5:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D01D-474F-844A-57CC948BD298}"/>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Graphs!$AD$5:$AD$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#DIV/0!</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1146922912"/>
+        <c:axId val="1146924000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1146922912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146924000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1146924000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>load in p.e.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1741032370953602E-2"/>
+              <c:y val="0.20884085955805901"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146922912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87228153980752399"/>
+          <c:y val="0.23364515936344901"/>
+          <c:w val="0.11216290463692"/>
+          <c:h val="0.387786093462337"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison of compliance between 7th reporting, 8th reporting and 9th reporting
+Load in p.e.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.137291880699664"/>
+          <c:y val="0.12648857927868001"/>
+          <c:w val="0.74668819473480696"/>
+          <c:h val="0.72821100577289399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AB$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compliant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$AA$50:$AA$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Article 3 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Article 3 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Article 3 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Article 4 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Article 4 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Article 4 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Article 5 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Article 5 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Article 5 [#current_year#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AB$50:$AB$58</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42DA-4B82-913F-DFA9F28E6AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AC$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not compliant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$AA$50:$AA$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Article 3 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Article 3 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Article 3 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Article 4 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Article 4 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Article 4 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Article 5 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Article 5 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Article 5 [#current_year#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AC$50:$AC$58</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42DA-4B82-913F-DFA9F28E6AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AD$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not relevant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$AA$50:$AA$58</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Article 3 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Article 3 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Article 3 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Article 4 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Article 4 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Article 4 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Article 5 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Article 5 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Article 5 [#current_year#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AD$50:$AD$58</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1146928896"/>
+        <c:axId val="1146927808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1146928896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146927808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1146927808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load in p.e.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.47506925686178E-2"/>
+              <c:y val="0.396938594450297"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146928896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88186476940972502"/>
+          <c:y val="0.247337524571215"/>
+          <c:w val="0.118135230590275"/>
+          <c:h val="0.19422937937675699"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison of compliance between 7th reporting, 8th reporting and 9th reporting
+Number of agglomerations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.144963186931512"/>
+          <c:y val="0.17245640128317299"/>
+          <c:w val="0.74074213814176404"/>
+          <c:h val="0.672517935258093"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AB$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compliant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$AA$64:$AA$72</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Article 3 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Article 3 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Article 3 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Article 4 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Article 4 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Article 4 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Article 5 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Article 5 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Article 5 [#current_year#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AB$64:$AB$72</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-058F-47C8-AA23-7752C5C22BFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AC$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not compliant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$AA$64:$AA$72</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Article 3 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Article 3 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Article 3 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Article 4 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Article 4 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Article 4 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Article 5 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Article 5 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Article 5 [#current_year#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AC$64:$AC$72</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-058F-47C8-AA23-7752C5C22BFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AD$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not relevant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$AA$64:$AA$72</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Article 3 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Article 3 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Article 3 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Article 4 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Article 4 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Article 4 [#current_year#]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Article 5 7th reporting</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Article 5 [#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Article 5 [#current_year#]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AD$64:$AD$72</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1146927264"/>
+        <c:axId val="1146931072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1146927264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146931072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1146931072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Agglomerations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.9727629439549E-2"/>
+              <c:y val="0.25581539807524101"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146927264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88813318761614102"/>
+          <c:y val="0.17827200423622699"/>
+          <c:w val="0.111866812383859"/>
+          <c:h val="0.19583377077865299"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison of installation in place for previous year (light colour) and current year (dark colour)
+load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in p.e.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AA$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCC1DA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCC1DA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$77:$Z$82</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MS total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>collecting system in place</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>secondary treatment in place</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>monitoring results O.K. secondary treatment</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>more stringent treatment in place</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>monitoring results O.K. more stringent treatment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AA$77:$AA$82</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C37-4D5E-B274-DFCB029979BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AB$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="604A7B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="604A7B"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$77:$Z$82</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MS total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>collecting system in place</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>secondary treatment in place</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>monitoring results O.K. secondary treatment</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>more stringent treatment in place</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>monitoring results O.K. more stringent treatment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AB$77:$AB$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1146935424"/>
+        <c:axId val="1146936512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1146935424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146936512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1146936512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Load</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> in p.e.</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146935424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison of suage sludge re-use and disposal routs between previous year and reference year (in t DS/year)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AA$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>re-used: Soil and agriculture </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AA$33:$AA$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AB$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>re-used: Others </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AB$33:$AB$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AC$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>disposed: Landfill </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AC$33:$AC$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AD$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>disposed: Incineration </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AD$33:$AD$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AE$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>disposed: Others </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AE$33:$AE$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$AF$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>not reported</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$Z$33:$Z$34</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>[#previous_year#]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[#current_year#] </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$AF$33:$AF$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1146937056"/>
+        <c:axId val="1146921824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1146937056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146921824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1146921824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>t DS/y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1146937056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15118,7 +19455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15349,9 +19685,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -15555,7 +19889,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15910,11 +20243,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="513779616"/>
-        <c:axId val="513777984"/>
+        <c:axId val="1141118528"/>
+        <c:axId val="1141125056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513779616"/>
+        <c:axId val="1141118528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15946,7 +20279,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16013,7 +20345,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513777984"/>
+        <c:crossAx val="1141125056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16021,7 +20353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513777984"/>
+        <c:axId val="1141125056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16067,7 +20399,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16128,7 +20459,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513779616"/>
+        <c:crossAx val="1141118528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16586,11 +20917,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="513777440"/>
-        <c:axId val="513775808"/>
+        <c:axId val="1141119072"/>
+        <c:axId val="1141120160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513777440"/>
+        <c:axId val="1141119072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16688,7 +21019,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513775808"/>
+        <c:crossAx val="1141120160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16696,7 +21027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513775808"/>
+        <c:axId val="1141120160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16796,7 +21127,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513777440"/>
+        <c:crossAx val="1141119072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17254,11 +21585,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="513780160"/>
-        <c:axId val="513778528"/>
+        <c:axId val="1141120704"/>
+        <c:axId val="1141121248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513780160"/>
+        <c:axId val="1141120704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17356,7 +21687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513778528"/>
+        <c:crossAx val="1141121248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17364,7 +21695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513778528"/>
+        <c:axId val="1141121248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17464,7 +21795,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513780160"/>
+        <c:crossAx val="1141120704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17995,11 +22326,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="513774176"/>
-        <c:axId val="513774720"/>
+        <c:axId val="1141125600"/>
+        <c:axId val="1141122336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513774176"/>
+        <c:axId val="1141125600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18042,7 +22373,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513774720"/>
+        <c:crossAx val="1141122336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18050,7 +22381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513774720"/>
+        <c:axId val="1141122336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18161,7 +22492,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513774176"/>
+        <c:crossAx val="1141125600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18691,11 +23022,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="513776896"/>
-        <c:axId val="514156880"/>
+        <c:axId val="1141127776"/>
+        <c:axId val="1141121792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="513776896"/>
+        <c:axId val="1141127776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18738,7 +23069,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514156880"/>
+        <c:crossAx val="1141121792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18746,7 +23077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514156880"/>
+        <c:axId val="1141121792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18865,7 +23196,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513776896"/>
+        <c:crossAx val="1141127776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19205,11 +23536,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514155792"/>
-        <c:axId val="514155248"/>
+        <c:axId val="1141126144"/>
+        <c:axId val="1141122880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514155792"/>
+        <c:axId val="1141126144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19304,7 +23635,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514155248"/>
+        <c:crossAx val="1141122880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19312,7 +23643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514155248"/>
+        <c:axId val="1141122880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -19432,7 +23763,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514155792"/>
+        <c:crossAx val="1141126144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20042,6 +24373,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -26933,6 +31504,3034 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -31113,6 +38712,203 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>100693</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -31378,7 +39174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32597,7 +40393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB131" sqref="AB131"/>
     </sheetView>
   </sheetViews>
@@ -35810,11 +43606,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
